--- a/macs.xlsx
+++ b/macs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7EC563-AAC9-2B48-9934-D574A0282879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9032DD-4C5A-4B40-AB78-7070FC01B6EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="3760" windowWidth="28320" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26880" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>fresta</t>
   </si>
   <si>
-    <t>FRESTA-TEXT-2019 Mac chap.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Macの電源を初めて入れて、デスクトップ画面が表示されるまでの設定内容について説明します。一番重要なのは、普段利用するユーザ名とパスワードを作成するところ。あとは概ね言われるままにしていけば大丈夫です。
 すでにデスクトップが表示されている方は、この章をスキップして次の「パソコンのスペック確認」へ進んでください。
  </t>
@@ -168,9 +165,6 @@
   </si>
   <si>
     <t>パソコンのスペック確認</t>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2019 Mac chap.1</t>
   </si>
   <si>
     <t xml:space="preserve">最初に、目の前のPCがどんなものなのかを確認しましょう。PCの処理能力や容量の目安になるさまざまな要素を「スペック」と呼ぶことがあります。ここでは以下のスペックを確認しましょう。
@@ -189,11 +183,6 @@
     <t>mac-1-01.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
- macOS Mojave」というのがこのOSの名前ですね。その下に小さな文字で「バージョン10.14.3」とあります。このMacのOSのバージョンは10.14.3です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
- 更にその下にパソコンの名称が書かれています。「MacBook Air (13-inch, 2017)」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは8GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
-  </si>
-  <si>
     <t>mac-1-02.svg</t>
   </si>
   <si>
@@ -231,9 +220,6 @@
   </si>
   <si>
     <t>学内ネットワークへの接続</t>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2019 Mac chap.2</t>
   </si>
   <si>
     <t xml:space="preserve">広島大学では、図書館、講義室、福利施設など学内の多くの共用スペースで、「HiNET Wi-Fi」が利用できます。ここでは、HiNET Wi-Fiを通して、あなたのPCで学内ネットワークとインターネットを利用できるようにしましょう。一度設定すると、次回からは（同じエリアでは）設定不要です。
@@ -294,9 +280,6 @@
   </si>
   <si>
     <t>必要なソフトウェアのインストール</t>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2019 Mac chap.3</t>
   </si>
   <si>
     <t xml:space="preserve">ソフトのインストールに必要なファイルを、USBメモリにいれて配布しますので、まずそれを各々のPCにコピーしてください。そのあと、インストールを開始します。ここでは、Officeとウイルス対策ソフト（SCEP）のインストールを行います。
@@ -315,22 +298,6 @@
     <t>&lt;h2&gt;この章を始める前に&lt;/h2&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">この章では、初期講習会の会場で配布されるUSBメモリの使用を前提に説明しています。
-講習会に参加できなかった方が以降の作業を行いたい場合は、以下のいずれかをしてください。
-&lt;ol&gt;&lt;li&gt;メディアセンターのカウンターに行ってUSBメモリを借り、この章の説明にしたがって行う。&lt;/li&gt;
-&lt;li&gt;Web上の配布サイトから直接ダウンロードしてインストールし、次の章に進む。 ※ 以下のサイトの説明に従ってください。開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生証と一緒に配布された紙に書いてある）を入力してください。
-&lt;ul&gt;&lt;li&gt;&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2016-2.html"&gt;Office&lt;/a&gt;
- &lt;/li&gt;
-&lt;li&gt;&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/scep2012mac.html"&gt;ESET (ウイルス対策ソフト）&lt;/a&gt;
- &lt;/li&gt;
-&lt;li&gt;&lt;a href="https://www.google.com/chrome/"&gt;Chrome（Webブラウザ）&lt;/a&gt;
- &lt;/li&gt;
-&lt;/ul&gt;
- &lt;/li&gt;
- &lt;/ol&gt;
- </t>
-  </si>
-  <si>
     <t>&lt;h2&gt;&lt;a name="copy"&gt;&lt;/a&gt;USBメモリからファイルをコピーする&lt;/h2&gt;</t>
   </si>
   <si>
@@ -339,10 +306,6 @@
   </si>
   <si>
     <t>mac-2-1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デスクトップに、USBメモリの内容を表す「FIRST LEC」が現れますので、ダブルクリックして開きましょう。
- 中にある「setup2019-mac」フォルダをデスクトップにドラッグしてコピーします。   </t>
   </si>
   <si>
     <t>mac-2-02.svg</t>
@@ -579,9 +542,6 @@
   </si>
   <si>
     <t>自動アップデートとソフトウェアのセットアップ</t>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2019 Mac chap.4</t>
   </si>
   <si>
     <t xml:space="preserve">OS と Officeがつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。
@@ -742,9 +702,6 @@
   </si>
   <si>
     <t>大学のオンラインサービスへのログイン</t>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2019 Mac chap.5</t>
   </si>
   <si>
     <t xml:space="preserve">オンライン履修登録などをおこなう「もみじ」、広大メールやクラウドストレージが使えるOffice365、オンライン学習支援システムのBb9など、大学で提供されているオンラインサービスにログインしてみましょう。
@@ -1022,9 +979,6 @@
     <t>おわりに</t>
   </si>
   <si>
-    <t>FRESTA-TEXT-2018 Mac conclusion</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -1061,12 +1015,68 @@
  </t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">デスクトップに、USBメモリの内容を表す「FIRST LEC」が現れますので、ダブルクリックして開きましょう。
+ 中にある「setup2020-mac」フォルダをデスクトップにドラッグしてコピーします。   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Mac chap.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Mac chap.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Mac chap.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Mac chap.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2018 Mac conclusion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2019 Mac chap.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2019 Mac chap.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">この章では、初期講習会の会場で配布されるUSBメモリの使用を前提に説明しています。
+講習会に参加できなかった方が以降の作業を行いたい場合は、以下のいずれかをしてください。
+&lt;ol&gt;&lt;li&gt;メディアセンターのカウンターに行ってUSBメモリを借り、この章の説明にしたがって行う。&lt;/li&gt;
+&lt;li&gt;Web上の配布サイトから直接ダウンロードしてインストールし、次の章に進む。 ※ 以下のサイトの説明に従ってください。開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生証と一緒に配布された紙に書いてある）を入力してください。
+&lt;ul&gt;&lt;li&gt;&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2016-2.html"&gt;Office&lt;/a&gt;
+ &lt;/li&gt;
+&lt;li&gt;&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/scep2012mac.html"&gt;ESET (ウイルス対策ソフト）&lt;/a&gt;
+ &lt;/li&gt;
+&lt;li&gt;&lt;a href="https://www.google.com/chrome/"&gt;Chrome（Webブラウザ）&lt;/a&gt;
+ &lt;/li&gt;
+&lt;/ul&gt;
+ &lt;/li&gt;
+ &lt;/ol&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
+ macOS Catalina」というのがこのOSの名前ですね。その下に小さな文字で「バージョン10.15.2」とあります。このMacのOSのバージョンは10.15.2です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
+ 更にその下にパソコンの名称が書かれています。「MacBook Air」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは8GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,9 +1112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1447,19 +1460,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="298" zoomScaleNormal="298" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1467,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1475,20 +1488,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="75">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1497,7 +1510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45">
+    <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1521,17 +1534,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +1554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1547,208 +1562,208 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="60">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="30">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="45">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="30">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="45">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="30">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="30">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="60">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="30">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="60">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="75">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="30">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="30">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1761,33 +1776,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1795,115 +1812,116 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="120">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="90">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="60">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="60">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="45">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="60">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1911,33 +1929,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1945,110 +1965,110 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="60">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="135">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="11" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="90">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2061,33 +2081,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2095,485 +2117,485 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="156" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="180">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>74</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="240">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>76</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="30">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>78</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="15" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="135">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="90">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="17" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="B14" s="1" t="s">
+    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="60">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>87</v>
       </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="30">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>89</v>
       </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="60">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>91</v>
       </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="30">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>93</v>
       </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="23" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
-      <c r="B22" s="1" t="s">
+    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="30">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>102</v>
       </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="45">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>104</v>
       </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="45">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>106</v>
       </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="30">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>108</v>
       </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="30">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>110</v>
       </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="30">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>112</v>
       </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="45">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>114</v>
       </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="75">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>116</v>
       </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="75">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="30">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>120</v>
       </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="30">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>122</v>
       </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="60">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>124</v>
       </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
+    </row>
+    <row r="38" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="75">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>126</v>
       </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="60">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
         <v>128</v>
       </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="60">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
         <v>130</v>
       </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="42" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="60">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15">
-      <c r="B41" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="135">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2586,33 +2608,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2620,321 +2644,321 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="165">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="30">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>146</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
         <v>148</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="60">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
         <v>150</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="B11" s="1" t="s">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="60">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>155</v>
       </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="90">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>157</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="120">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>159</v>
       </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15">
-      <c r="B16" s="1" t="s">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="23" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="27" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="28" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="45">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2947,33 +2971,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2981,499 +3007,499 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="260" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="285">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="B7" s="1" t="s">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="45">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C16" t="s">
         <v>195</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="B11" s="1" t="s">
+    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" t="s">
         <v>198</v>
       </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="30">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>200</v>
       </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="75">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>202</v>
       </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>204</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C17" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="105">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="24" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15">
-      <c r="B21" s="1" t="s">
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="45">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="75">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="30" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="31" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15">
-      <c r="B26" s="1" t="s">
+    <row r="32" spans="1:4" ht="234" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="60">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>222</v>
       </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="30">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>224</v>
       </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="60">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>226</v>
       </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="45">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>228</v>
       </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="255">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>230</v>
       </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="120">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>232</v>
       </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="45">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="75">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
         <v>236</v>
       </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="41" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="60">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
         <v>238</v>
       </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="42" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="75">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
         <v>240</v>
       </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="43" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15">
-      <c r="B38" s="1" t="s">
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="30">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="120">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="45">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="120">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="105">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3486,25 +3512,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3512,20 +3540,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3534,22 +3562,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="240">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9032DD-4C5A-4B40-AB78-7070FC01B6EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BAC182-48DE-430F-8AF1-75CFEF51FBD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26880" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26850" yWindow="1275" windowWidth="14280" windowHeight="9045" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="262">
   <si>
     <t>header1</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>mac-1-01.svg</t>
-  </si>
-  <si>
-    <t>mac-1-02.svg</t>
   </si>
   <si>
     <t xml:space="preserve">次に、HDD/SSDの容量を調べましょう。
@@ -308,9 +305,6 @@
     <t>mac-2-1.png</t>
   </si>
   <si>
-    <t>mac-2-02.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">コピーが終了したら「FIRST LEC」をゴミ箱までドラッグ＆ドロップしてください。ドラッグを始めると、ゴミ箱がイジェクトアイコンに 変わります。
 デスクトップから「FIRST LEC」のアイコンが消えたらUSBメモリを抜き、次の人に回してください。
 &lt;div class="spl"&gt;※ イジェクトの動作は、「FIRST LEC」のアイコンを右クリックして、「&amp;quot;FIRST LEC&amp;quot;を取り出す」としてもOKです。
@@ -319,19 +313,6 @@
    </t>
   </si>
   <si>
-    <t>mac-2-03.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デスクトップの「mac」フォルダを開きましょう。4つのファイルが入っています。そのうち3つを順に入れてきます。 &lt;ul&gt;&lt;li&gt;officemac.pkg: Microsoft Office &lt;/li&gt;
-&lt;li&gt;eset_osx_ja.dmg: Microsoftのウィルス対策ソフト &lt;/li&gt;
-&lt;li&gt;googlechrome.dmg: Google Chrome (Webブラウザ) &lt;/li&gt;
-&lt;/ul&gt;
- </t>
-  </si>
-  <si>
-    <t>mac-2-04.svg</t>
-  </si>
-  <si>
     <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Officeを入れる&lt;/h2&gt;</t>
   </si>
   <si>
@@ -389,10 +370,6 @@
     <t>&lt;h2&gt;&lt;a name="eset"&gt;&lt;/a&gt;ESET EAを入れる&lt;/h2&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">次に、ウィルス対策ソフトのESET Endpoint Antivirus (以下 ESET EA) をインストールします。
- まず、USBメモリからコピーしたフォルダにある eset_osx_ja.pkg をダブルクリック。インストーラが立ち上がります。  </t>
-  </si>
-  <si>
     <t>mac-2-05.svg</t>
   </si>
   <si>
@@ -462,17 +439,7 @@
     <t>mac-2-14.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Macにログインするときに使うパスワードを入力し、「ソフトウェアをインストール」としてください。 
-  </t>
-  </si>
-  <si>
     <t>mac-2-15.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">インストールが終了し、ESET EAが動き出すとこのような警告パネルが表示されます。
-ESET EAに必要なパーツが動作できるよう、システム設定の変更を行わなくてはならないようです。
-「&amp;quot;セキュリティ&amp;quot;環境設定を開く」をクリックしてください。
-  </t>
   </si>
   <si>
     <t>mac-2-21.svg</t>
@@ -510,12 +477,6 @@
     <t>mac-2-18.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">ファイルを開くパネルが出ます。
-左の欄から「アプリケーション」を選択、その右の欄から&amp;quot;ESET Endpoint Antivirus&amp;quot; を探して洗濯してください。
-右下の「開く」をクリックします。
-  </t>
-  </si>
-  <si>
     <t>mac-2-19.svg</t>
   </si>
   <si>
@@ -527,12 +488,6 @@
   </si>
   <si>
     <t>&lt;h2&gt;&lt;a name="chrome"&gt;&lt;/a&gt;Chromeを入れる&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次にChromeをインストールしましょう。Chrome.dmgをダブルクリックすると、Chromeが入っているフォルダが開きます。これを下に見えている「A」のついたフォルダにドラッグしてコピーしてください。Chromeのインストールはこれで終了です。
-&lt;p class="spl"&gt; ※ macOSにはSafariというWebブラウザが標準的なものとして付属してきますが、うまく表示できないWebページもときどきあります。そういうときに、「もう一つのブラウザ」としてこのChromeを使ってみてください。&lt;/p&gt;
-&lt;p class="spl"&gt;※ (今はまあどうでもいいこと）「A」のフォルダの左下に小さな矢印がついていますね。Macでは、フォルダやファイルの実体とは別の場所に、その実体と同じ動作をするようなものを作ることができます。その影武者のような項目を「エイリアス」と呼びます。左下の矢印は、この項目がエイリアスであることを示しています。右クリックして「オリジナルを表示」とすると、この項目が、あなたのMacの「アプリケーション」フォルダのエイリアスであることがわかります。 &lt;/p&gt;
-  </t>
   </si>
   <si>
     <t>mac-2-23.png</t>
@@ -559,38 +514,19 @@
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="windows_update"&gt;&lt;/a&gt;自動アップデートの設定&lt;/h2&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">[1]画面下にいろんなアイコンが並んでいますね。ここのことを「Dock」と言います。 Dockの中から、歯車のアイコン「システム環境設定」を選んでクリックしてください  </t>
-  </si>
-  <si>
     <t>mac-4-01.svg</t>
   </si>
   <si>
-    <t xml:space="preserve"> [2] いろんな設定をするためのアイコンが並んでいます。 「ソフトウェア・アップデート」をクリックしてください。  </t>
-  </si>
-  <si>
     <t>mac-4-02.svg</t>
   </si>
   <si>
-    <t xml:space="preserve"> [3] 「Macを自動的に最新の状態に保つ」のところにチェックが入っていることを確認してください。入ってなければ入れてください。 &lt;span class="check"&gt;check-5&lt;span&gt; &lt;/span&gt;
-&lt;/span&gt;
- </t>
-  </si>
-  <si>
     <t>mac-4-03.svg</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="eset"&gt;&lt;/a&gt;ESET Endpoint Antivitudの手動更新とフルスキャン&lt;/h2&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">[4] 次にウイルス対策ソフトの設定を確認しましょう。 画面右上にある青い「e」のアイコンをクリックしましょう。 表示されるメニューから「ESET Endpoint Antivirus を開く」をクリックします。  
- </t>
-  </si>
-  <si>
     <t>mac-4-04.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [5}「アップデート」のタブから状態を確認しましょう。 「更新は必要ありません」となっていたらOKです。&lt;span class="check"&gt;check-6,7&lt;/span&gt;
- 最新でない場合は「モジュールのアップロード」をクリックして、アップデートしましょう。 ウイルス定義データが常に最新でないと、新しいウイルスからパソコンを守ることができません。 常に最新にしておきましょう。  </t>
   </si>
   <si>
     <t>mac-4-05.svg</t>
@@ -617,96 +553,427 @@
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Officeのアクティベーション&lt;/h2&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">[8] 次に、Officeのライセンス認証をします。ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための処理です。 Dockの中から、ロケットのアイコンの「Launchpad」をクリックしてください。  </t>
-  </si>
-  <si>
     <t>mac-4-6.png</t>
   </si>
   <si>
-    <t xml:space="preserve"> [9]このパソコンに入っているアプリケーションのアイコンがずらっと表示されます。 この中から、Officeに含まれるアプリを起動しましょう。どれでもよいのですが、ここではMicrosoft Wordを起動します。  </t>
-  </si>
-  <si>
     <t>mac-4-7.png</t>
   </si>
   <si>
-    <t xml:space="preserve"> [10]Wordの画面が表示されます。 一番下の「始めましょう」をクリックしてください。  </t>
-  </si>
-  <si>
     <t>mac-4-8.png</t>
   </si>
   <si>
-    <t xml:space="preserve"> [11] 「サインイン」をクリックしてください。  </t>
-  </si>
-  <si>
     <t>mac-4-9.png</t>
   </si>
   <si>
-    <t xml:space="preserve"> [12] 「Officeライセンス認証」として、電子メールアドレスを入れるように促されます。広大メールアドレスを入力してください。 &lt;p class="spl"&gt;※広大メールアドレスは「アカウント名@hiroshima-u.ac.jp」です。アカウント名は学生番号の先頭を小文字にしたものです。 &lt;/p&gt;
+    <t>mac-4-10.png</t>
+  </si>
+  <si>
+    <t>mac-4-11.png</t>
+  </si>
+  <si>
+    <t>mac-4-12.png</t>
+  </si>
+  <si>
+    <t>mac-4-13.png</t>
+  </si>
+  <si>
+    <t>mac-4-14.png</t>
+  </si>
+  <si>
+    <t>mac-4-15.png</t>
+  </si>
+  <si>
+    <t>mac-4-18.png</t>
+  </si>
+  <si>
+    <t>電子メールやクラウドストレージが使えるOffice365、オンライン履修登録などをおこなう「もみじ」、オンライン学習支援システムのBb9など、大学で提供されているネットワークサービスを使えるように設定します。</t>
+  </si>
+  <si>
+    <t>大学のオンラインサービスへのログイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="momiji"&gt;&lt;/a&gt;もみじ (広大学生用ポータルサイト)&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">広島大学では、学生向けの情報を「もみじ」という名前のサイトに集めています。こういうサイトのことを「ポータル」と呼びます。
+GoogleなどのWeb検索で「広大　もみじ」と入力し、「もみじ 広島大学　学生情報の森 MOMIJI」を見つけてクリックしてください。 
+  </t>
+  </si>
+  <si>
+    <t>win10-6-01.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「もみじ」はこのような画面です。以下では、右側に並んでいるバナーのうち、「Webメール」について説明します。次に、履修登録などを行う「MYもみじ」について、最後に「Bb9」について説明します。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-02.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mail"&gt;&lt;/a&gt;Office365 (Webメールとオンラインストレージ)&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">「もみじ」で「Webメール」のバナーをクリックしましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-03.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「Office365ポータル」をクリックしてください。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-04.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office365で使えるアプリの一覧が表示されます。「Outlook」をクリック。 
+  </t>
+  </si>
+  <si>
+    <t>chart flame</t>
+  </si>
+  <si>
+    <t>win10-6-27.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最初の一回だけ、使用言語とタイムゾーンを選ぶ画面が出ます。通常は「日本語」と「UTC+9」を選んでおけば良いでしょう。 
+  </t>
+  </si>
+  <si>
+    <t>win10-6-06.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メールの画面が開きます。
+大学からの電子メールでの連絡は、広大メールで来ます。
+常にメールチェックするようにしてください。&lt;span class="check"&gt;check-10&lt;/span&gt;
+スマホのOutlookアプリでも、複雑な設定は必要なくメールの送受信が可能です。ここは必携PC設定の手順を示していますので、Web版をお知らせしましたが、スマホ版の方が使いやすく、新規メールが届いた時の通知もありますので、おすすめです。
+&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
+  </si>
+  <si>
+    <t>win10-6-07.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、Office365のオンラインストレージのOneDriveを見て見ましょう。画面左上のつぶつぶをクリックします。
+するとOffice365で使用できるアプリケーション一覧が表示されます。その中にある「OneDrive」をクリックしましょう
+  </t>
+  </si>
+  <si>
+    <t>win10-6-08.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ここにはひとりあたり１TBまで、データを置いておくことができます。
+データのバックアップをとっておいたり、外出先でもデータを取り出したりできるようになるので、活用しましょう。
+OneDriveにもアプリがありますので、スマホでも活用できます。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-09.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mymomiji"&gt;&lt;/a&gt;MYもみじ (履修登録や掲示板など)&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">広島大学では履修登録、成績確認、各種通知は「MYもみじ」を利用して行います。「MYもみじ」へログインしてみましょう。
+広大ID（学生番号）、広大パスワードを入力し、「Myもみじへログイン」をクリックしてください。
+   </t>
+  </si>
+  <si>
+    <t>win10-6-10.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">するとこのような画面になります。&lt;span class="check"&gt;check-11&lt;/span&gt;
+履修登録をしたり、成績を確認することができます。
+また「掲示」では、授業や学部からの連絡が表示されます。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-11.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">閲覧が済んだら、画面右上の「ログアウト」をクリックしましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-12.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="bb9"&gt;&lt;/a&gt;Bb9 (学習支援システム)&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ではもみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
+「Bb9」というのは、広島大学のオンライン学習支援システムの名前です。
+ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-13.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">右側にかわいいイラストのバナーがありますね。これをクリックしてください。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-14.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">するとログイン画面が開きます。
+「ユーザ名」には広大ID（学生番号と同じ）を、「パスワード」には広大パスワードを入力してください。
+入力したら「ログイン」をクリックします。
+   </t>
+  </si>
+  <si>
+    <t>win10-6-15.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一番最初にログインしたときだけ、この画面が開きます。
+「閉じる」をクリックしてください。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-16.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2回目からはログインしたら、この画面が出ます。
+真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
+ここに並んでいるコースは、あなたが受講する授業に関連したものと、そうでないものがあります。今並んでいるものを簡単に説明すると：
+&lt;dl&gt;&lt;dt&gt;大学教育入門&lt;/dt&gt;
+&lt;dd&gt;「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。&lt;/dd&gt;
+&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
+&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届け」を提出する必要があります。このコースでは、点検届けが提出できます。この講習会のあとで各自開いて実施してください。&lt;/dd&gt;
+&lt;dt&gt;Information Security and Compliance (情報セキュリティ・コンプライアンス)&lt;/dt&gt;
+&lt;dd&gt;「情報セキュリティ・コンプライアンス講習」は、広島大学でパソコンやネットワークを安全に使うための講座です。学生だけでなく、教職員を含めた全構成員必修の内容です。講習は、教室での講義とオンライン学習（このコース）からなっています。6月末までにこのコースの中にある確認テストに合格し、「&lt;em&gt;アカウント利用確認&lt;/em&gt;
+」の手続きをおこなわないと、アカウントがロックされ、メール等が使えなくなります。&lt;/dd&gt;
+ &lt;/dl&gt;
+  </t>
+  </si>
+  <si>
+    <t>win10-6-17.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bb9で配布されている教材を開けることを確認するため、「大学教育入門」のコースをみてみましょう。
+転入生の方は、「大学教育入門」がありませんので、「Information Security and Compliance」のコースを開いて、スライドなどがみられることを確認してください。
+「大学教育入門」では、授業に参加する前に各自必携PCに教材をダウンロードしておくことが求められています。先ほど開いたメールにその旨の指示が来ていたと思います。
+ここでは、第1週に実施される講義の資料をダウンロードする手順を紹介しておきます。
+まず、コース一覧から「2019大学教育入門...」をクリックしてコースを開きましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-18.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">左メニューの「テキスト・スライド資料」をクリックすると右側にフォルダが表示されます。各週の資料がまとめられていますね。
+「第1章　大学で何を学ぶか（各学部・プログラム）」をクリックして開きましょう。
+  </t>
+  </si>
+  <si>
+    <t>mac-5-21.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フォルダの中には三つのファイルがあります。
+ファイルのリンクをクリックすると、この場で内容を確認できます。
+授業の準備として事前にダウンロードしたい場合は、リンクを右クリックします。
+右クリックして表示されるメニューから「リンク先のファイルをダウンロード」としてください。
+  </t>
+  </si>
+  <si>
+    <t>mac-5-22.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">同様にして三つのファイルをダウンロードします。ダウンロードしたファイルはドックの右端、ゴミ箱の左隣からアクセスできます。そこをクリックすると、これまでダウンロードしたファイルが図のように表示されます。
+Safariを開いている時であれば、ウィンドウ上方の下向き矢印アイコンからもアクセスできます。
+  </t>
+  </si>
+  <si>
+    <t>mac-5-23.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「大学教育入門」の第1週では、&lt;em&gt;第1章と第6章&lt;/em&gt;
+を扱いますので、同じようにして第6章に掲載されているファイルもダウンロードしておきましょう。&lt;span class="check"&gt;check-13&lt;/span&gt;
+  </t>
+  </si>
+  <si>
+    <t>mac-5-24.png</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="omake"&gt;&lt;/a&gt;おまけ&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以降は補足情報であり、講習会のときに設定しません。後日必要に応じて行ってください。
  </t>
   </si>
   <si>
-    <t>mac-4-10.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [13] HIROSHIMA UNIVERSITY と書かれたパネルが出ます。先程入力したメールアドレスが出ていることを確認し、パスワードのところに「広大パスワード」を入力してください。入力できたら「サインイン」をクリックします。  </t>
-  </si>
-  <si>
-    <t>mac-4-11.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [14] 正しくサインインできると,Officeのテーマを選択する画面になります。 今はこのまま「続行」をクリックしてください。  
+    <t xml:space="preserve">Bb9を便利に利用できるスマホ用アプリもあります。iOSのApp StoreやAndroidのGoogle Playで&amp;quot;Blackboard&amp;quot;と検索してみてください。
+  </t>
+  </si>
+  <si>
+    <t>bb9-app.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、OneDriveについて。一般に広く使われているDropBoxと同様に、PC用のアプリがあります。これを入れておくと、PC上の特定のフォルダとOneDriveの内容が自動的に同期されるようになります。スマホのアプリにもOneDriveがありますが、これは自動的に同期はしません。全部を同期するとスマホの容量を圧迫するからでしょう。
+OneDriveのアプリは、Web版のOneDrive サイトから入手できます。
+詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/onedriveforbusiness/"&gt;「クラウドファイル保管サービス(OneDrive for Business)」&lt;/a&gt;
+で。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-25.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最後に、VPNについて。「もみじ」で成績を見る時や、前述のプリンタ利用の時など、いくつかのサービスは学内ネットワークからしか利用ができません。自宅や帰省先でこういったサービスを使いたい場合は、VPNが使えます。設定のしかたについてはメディアセンターの説明ページを参照してください。
+詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/hinet/vpngw"&gt;「VPN(SSL-VPN)サービス」&lt;/a&gt;
+で。
+  </t>
+  </si>
+  <si>
+    <t>win10-6-26.svg</t>
+  </si>
+  <si>
+    <t>おわりに</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;問い合わせ&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;F3S講習会&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Mac</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">デスクトップに、USBメモリの内容を表す「FIRST LEC」が現れますので、ダブルクリックして開きましょう。
+ 中にある「setup2020-mac」フォルダをデスクトップにドラッグしてコピーします。   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Mac chap.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Mac chap.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Mac chap.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Mac chap.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">この章では、初期講習会の会場で配布されるUSBメモリの使用を前提に説明しています。
+講習会に参加できなかった方が以降の作業を行いたい場合は、以下のいずれかをしてください。
+&lt;ol&gt;&lt;li&gt;メディアセンターのカウンターに行ってUSBメモリを借り、この章の説明にしたがって行う。&lt;/li&gt;
+&lt;li&gt;Web上の配布サイトから直接ダウンロードしてインストールし、次の章に進む。 ※ 以下のサイトの説明に従ってください。開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生証と一緒に配布された紙に書いてある）を入力してください。
+&lt;ul&gt;&lt;li&gt;&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2016-2.html"&gt;Office&lt;/a&gt;
+ &lt;/li&gt;
+&lt;li&gt;&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/scep2012mac.html"&gt;ESET (ウイルス対策ソフト）&lt;/a&gt;
+ &lt;/li&gt;
+&lt;li&gt;&lt;a href="https://www.google.com/chrome/"&gt;Chrome（Webブラウザ）&lt;/a&gt;
+ &lt;/li&gt;
+&lt;/ul&gt;
+ &lt;/li&gt;
+ &lt;/ol&gt;
  </t>
-  </si>
-  <si>
-    <t>mac-4-12.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [15] 「今すぐWordを使ってみる」をクリックしてください。  </t>
-  </si>
-  <si>
-    <t>mac-4-13.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [16] Wordの新規作成の画面が開きました。 これで、PowerPointやExcelなどMicrosoft Officeの他のアプリケーションも使えるようになります。&lt;span class="check"&gt;check-9&lt;/span&gt;
-  </t>
-  </si>
-  <si>
-    <t>mac-4-14.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [17]Officeのアップデートの方法を説明します。 Officeのソフトのどれでもいいのですが、上のメニューから「ヘルプ」をクリックしてください。 「更新プログラムのチェック」をクリックしてください。  </t>
-  </si>
-  <si>
-    <t>mac-4-15.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [18] アップデートの設定が『自動チェック」であることを確認しましょう。 次に更新プログラムがあるかを確認します。「更新プログラムをチェック」をクリックしてください。  </t>
-  </si>
-  <si>
-    <t>mac-4-16.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [19] 更新プログラムがある場合はこのような表示になります。 「インストール」をクリックすると、アップデートが始まります。講習会の場ではアップデートをしないようにしてください。  </t>
-  </si>
-  <si>
-    <t>mac-4-17.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [20] 更新プログラムがインストールされると、また確認の画面が出ます。メニューの「Microsoft Autoupdateを終了します」をクリックすると、終了できます。  </t>
-  </si>
-  <si>
-    <t>mac-4-18.png</t>
-  </si>
-  <si>
-    <t>電子メールやクラウドストレージが使えるOffice365、オンライン履修登録などをおこなう「もみじ」、オンライン学習支援システムのBb9など、大学で提供されているネットワークサービスを使えるように設定します。</t>
-  </si>
-  <si>
-    <t>大学のオンラインサービスへのログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
+ macOS Catalina」というのがこのOSの名前ですね。その下に小さな文字で「バージョン10.15.2」とあります。このMacのOSのバージョンは10.15.2です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
+ 更にその下にパソコンの名称が書かれています。「MacBook Air」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは8GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Mac chap.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Mac chap.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Mac conclusion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;macOS編&lt;/h3&gt;
+2020年4月&lt;br&gt;
+ 広島大学 情報メディア教育研究センター&lt;br&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必携PCを使っていて、わからないことや困ったことがあったら、情報メディア教育研究センターに相談してください。
+&lt;dl&gt;&lt;dt&gt;対面窓口&lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;メディアセンター本館、東分室（東図書館内）、サービスデスク（西図書館内、中央図書館内）、霞分室（基礎講義棟1F）&lt;/dd&gt;
+&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;アクセスマップ&lt;/a&gt;&lt;/dd&gt;&lt;dt&gt;Web質問窓口: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
+&lt;/dd&gt;</t>
+    <rPh sb="99" eb="100">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ブンシツ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="104" eb="107">
+      <t>トショカン</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="126" eb="129">
+      <t>トショカン</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;/dl&gt;情報メディア教育研究センターでは、皆さんの必携PCをより活用してもらえるよう、F3S (First Three Steps) 講習会を開催しています。 
+学生生活を送る上で有用なパソコンの使い方について、一つでも多く身につけてもらえるようさまざまな内容を準備していますので、 興味のあるものが見つかったら、ぜひ参加してください。 
+&lt;ul&gt;&lt;li&gt;&lt;a href="https://f3s.riise.hiroshima-u.ac.jp"&gt;https://f3s.riise.hiroshima-u.ac.jp&lt;/a&gt;
+ &lt;/li&gt;
+&lt;/ul&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ファイルを開くパネルが出ます。
+左の欄から「アプリケーション」を選択、その右の欄から&amp;quot;ESET Endpoint Antivirus&amp;quot; を探して選択してください。
+右下の「開く」をクリックします。
+  </t>
+    <rPh sb="82" eb="84">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次にChromeをインストールしましょう。googlechrome.dmgをダブルクリックすると、Chromeが入っているフォルダが開きます。これを下に見えている「A」のついたフォルダにドラッグしてコピーしてください。Chromeのインストールはこれで終了です。
+&lt;p class="spl"&gt; ※ macOSにはSafariというWebブラウザが標準的なものとして付属してきますが、うまく表示できないWebページもときどきあります。そういうときに、「もう一つのブラウザ」としてこのChromeを使ってみてください。&lt;/p&gt;
+&lt;p class="spl"&gt;※ (今はまあどうでもいいこと）「A」のフォルダの左下に小さな矢印がついていますね。Macでは、フォルダやファイルの実体とは別の場所に、その実体と同じ動作をするようなものを作ることができます。その影武者のような項目を「エイリアス」と呼びます。左下の矢印は、この項目がエイリアスであることを示しています。右クリックして「オリジナルを表示」とすると、この項目が、あなたのMacの「アプリケーション」フォルダのエイリアスであることがわかります。 &lt;/p&gt;
+  </t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">オンライン履修登録などをおこなう「もみじ」、広大メールやクラウドストレージが使えるOffice365、オンライン学習支援システムのBb9など、大学で提供されているオンラインサービスにログインしてみましょう。
 これらのサービスを利用するにはWebブラウザを使います。
-&lt;p class="spl"&gt;※「Webブラウザ」は「インターネット」と言ったほうが通りが良いかもしれませんが、その呼び名は間違いですので気をつけましょう。&lt;/p&gt;
 macOSではSafariというアプリが標準のWebブラウザとして設定されています。このアイコンをダブルクリックしてはじめましょう。
 &lt;ul&gt;&lt;li&gt;&lt;a href="#momiji"&gt;もみじ (広大学生用ポータルサイト)&lt;/a&gt;
 &lt;/li&gt;
@@ -721,354 +988,198 @@
 &lt;ul&gt; &lt;/ul&gt;
 &lt;/ul&gt;
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="momiji"&gt;&lt;/a&gt;もみじ (広大学生用ポータルサイト)&lt;/h2&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">広島大学では、学生向けの情報を「もみじ」という名前のサイトに集めています。こういうサイトのことを「ポータル」と呼びます。
-GoogleなどのWeb検索で「広大　もみじ」と入力し、「もみじ 広島大学　学生情報の森 MOMIJI」を見つけてクリックしてください。 
-  </t>
-  </si>
-  <si>
-    <t>win10-6-01.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「もみじ」はこのような画面です。以下では、右側に並んでいるバナーのうち、「Webメール」について説明します。次に、履修登録などを行う「MYもみじ」について、最後に「Bb9」について説明します。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-02.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mail"&gt;&lt;/a&gt;Office365 (Webメールとオンラインストレージ)&lt;/h2&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">「もみじ」で「Webメール」のバナーをクリックしましょう。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-03.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「Office365ポータル」をクリックしてください。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-04.svg</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">Office365にサインインする画面になります。まず「IMCアカウント名@hiroshima-u.ac.jp」を記入し「次へ」をクリックします。
-Hiroshima Universityと書かれた画面に移動しますので、広大パスワードを入力し「サインイン」をクリックします。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-28.svg" /&gt; &lt;img alt="*screenshot*" class="chart" src="image/win10-6-05.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Office365で使えるアプリの一覧が表示されます。「Outlook」をクリック。 
-  </t>
-  </si>
-  <si>
-    <t>chart flame</t>
-  </si>
-  <si>
-    <t>win10-6-27.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最初の一回だけ、使用言語とタイムゾーンを選ぶ画面が出ます。通常は「日本語」と「UTC+9」を選んでおけば良いでしょう。 
-  </t>
-  </si>
-  <si>
-    <t>win10-6-06.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メールの画面が開きます。
-大学からの電子メールでの連絡は、広大メールで来ます。
-常にメールチェックするようにしてください。&lt;span class="check"&gt;check-10&lt;/span&gt;
-スマホのOutlookアプリでも、複雑な設定は必要なくメールの送受信が可能です。ここは必携PC設定の手順を示していますので、Web版をお知らせしましたが、スマホ版の方が使いやすく、新規メールが届いた時の通知もありますので、おすすめです。
-&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
-  </si>
-  <si>
-    <t>win10-6-07.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次に、Office365のオンラインストレージのOneDriveを見て見ましょう。画面左上のつぶつぶをクリックします。
-するとOffice365で使用できるアプリケーション一覧が表示されます。その中にある「OneDrive」をクリックしましょう
-  </t>
-  </si>
-  <si>
-    <t>win10-6-08.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ここにはひとりあたり１TBまで、データを置いておくことができます。
-データのバックアップをとっておいたり、外出先でもデータを取り出したりできるようになるので、活用しましょう。
-OneDriveにもアプリがありますので、スマホでも活用できます。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-09.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mymomiji"&gt;&lt;/a&gt;MYもみじ (履修登録や掲示板など)&lt;/h2&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">広島大学では履修登録、成績確認、各種通知は「MYもみじ」を利用して行います。「MYもみじ」へログインしてみましょう。
-広大ID（学生番号）、広大パスワードを入力し、「Myもみじへログイン」をクリックしてください。
-   </t>
-  </si>
-  <si>
-    <t>win10-6-10.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">するとこのような画面になります。&lt;span class="check"&gt;check-11&lt;/span&gt;
-履修登録をしたり、成績を確認することができます。
-また「掲示」では、授業や学部からの連絡が表示されます。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-11.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">閲覧が済んだら、画面右上の「ログアウト」をクリックしましょう。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-12.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="bb9"&gt;&lt;/a&gt;Bb9 (学習支援システム)&lt;/h2&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ではもみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
-「Bb9」というのは、広島大学のオンライン学習支援システムの名前です。
-ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-13.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">右側にかわいいイラストのバナーがありますね。これをクリックしてください。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-14.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">するとログイン画面が開きます。
-「ユーザ名」には広大ID（学生番号と同じ）を、「パスワード」には広大パスワードを入力してください。
-入力したら「ログイン」をクリックします。
-   </t>
-  </si>
-  <si>
-    <t>win10-6-15.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一番最初にログインしたときだけ、この画面が開きます。
-「閉じる」をクリックしてください。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-16.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2回目からはログインしたら、この画面が出ます。
-真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
-ここに並んでいるコースは、あなたが受講する授業に関連したものと、そうでないものがあります。今並んでいるものを簡単に説明すると：
-&lt;dl&gt;&lt;dt&gt;大学教育入門&lt;/dt&gt;
-&lt;dd&gt;「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。&lt;/dd&gt;
-&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
-&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届け」を提出する必要があります。このコースでは、点検届けが提出できます。この講習会のあとで各自開いて実施してください。&lt;/dd&gt;
-&lt;dt&gt;Information Security and Compliance (情報セキュリティ・コンプライアンス)&lt;/dt&gt;
-&lt;dd&gt;「情報セキュリティ・コンプライアンス講習」は、広島大学でパソコンやネットワークを安全に使うための講座です。学生だけでなく、教職員を含めた全構成員必修の内容です。講習は、教室での講義とオンライン学習（このコース）からなっています。6月末までにこのコースの中にある確認テストに合格し、「&lt;em&gt;アカウント利用確認&lt;/em&gt;
-」の手続きをおこなわないと、アカウントがロックされ、メール等が使えなくなります。&lt;/dd&gt;
- &lt;/dl&gt;
-  </t>
-  </si>
-  <si>
-    <t>win10-6-17.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bb9で配布されている教材を開けることを確認するため、「大学教育入門」のコースをみてみましょう。
-転入生の方は、「大学教育入門」がありませんので、「Information Security and Compliance」のコースを開いて、スライドなどがみられることを確認してください。
-「大学教育入門」では、授業に参加する前に各自必携PCに教材をダウンロードしておくことが求められています。先ほど開いたメールにその旨の指示が来ていたと思います。
-ここでは、第1週に実施される講義の資料をダウンロードする手順を紹介しておきます。
-まず、コース一覧から「2019大学教育入門...」をクリックしてコースを開きましょう。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-18.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左メニューの「テキスト・スライド資料」をクリックすると右側にフォルダが表示されます。各週の資料がまとめられていますね。
-「第1章　大学で何を学ぶか（各学部・プログラム）」をクリックして開きましょう。
-  </t>
-  </si>
-  <si>
-    <t>mac-5-21.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フォルダの中には三つのファイルがあります。
-ファイルのリンクをクリックすると、この場で内容を確認できます。
-授業の準備として事前にダウンロードしたい場合は、リンクを右クリックします。
-右クリックして表示されるメニューから「リンク先のファイルをダウンロード」としてください。
-  </t>
-  </si>
-  <si>
-    <t>mac-5-22.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">同様にして三つのファイルをダウンロードします。ダウンロードしたファイルはドックの右端、ゴミ箱の左隣からアクセスできます。そこをクリックすると、これまでダウンロードしたファイルが図のように表示されます。
-Safariを開いている時であれば、ウィンドウ上方の下向き矢印アイコンからもアクセスできます。
-  </t>
-  </si>
-  <si>
-    <t>mac-5-23.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「大学教育入門」の第1週では、&lt;em&gt;第1章と第6章&lt;/em&gt;
-を扱いますので、同じようにして第6章に掲載されているファイルもダウンロードしておきましょう。&lt;span class="check"&gt;check-13&lt;/span&gt;
-  </t>
-  </si>
-  <si>
-    <t>mac-5-24.png</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="omake"&gt;&lt;/a&gt;おまけ&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以降は補足情報であり、講習会のときに設定しません。後日必要に応じて行ってください。
- </t>
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-28.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiroshima Universityと書かれた画面に移動しますので、広大パスワードを入力し「サインイン」をクリックします。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-05.svg</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">まず、大学のプリンタへの印刷について。
-学内ネットワークからであれば、必携PCから大学のプリンタへ印刷できます。印刷したいものをPDFで用意し、Webブラウザで印刷用のWebサーバに送ります。そのあと、プリンタが設置してあるところに行って、印刷操作をしてください。その際、印刷料金がかかります。白黒印刷は1枚3円、カラー印刷は1枚12円です。MYple（学生証にチャージする生協の電子マネー）で支払ってください。 
+学内ネットワークからであれば、必携PCから大学のプリンタへ印刷できます。印刷したいものをPDFで用意し、Webブラウザで印刷用のWebサーバに送ります。そのあと、プリンタが設置してあるところに行って、印刷操作をしてください。その際、印刷料金がかかります。白黒印刷は1枚4円、カラー印刷は1枚13円です。MYple（学生証にチャージする生協の電子マネー）で支払ってください。 
 詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/print/webprint"&gt;「Webプリントサービス」&lt;/a&gt;
 で。
   </t>
-  </si>
-  <si>
-    <t>win10-6-24.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bb9を便利に利用できるスマホ用アプリもあります。iOSのApp StoreやAndroidのGoogle Playで&amp;quot;Blackboard&amp;quot;と検索してみてください。
-  </t>
-  </si>
-  <si>
-    <t>bb9-app.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次に、OneDriveについて。一般に広く使われているDropBoxと同様に、PC用のアプリがあります。これを入れておくと、PC上の特定のフォルダとOneDriveの内容が自動的に同期されるようになります。スマホのアプリにもOneDriveがありますが、これは自動的に同期はしません。全部を同期するとスマホの容量を圧迫するからでしょう。
-OneDriveのアプリは、Web版のOneDrive サイトから入手できます。
-詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/onedriveforbusiness/"&gt;「クラウドファイル保管サービス(OneDrive for Business)」&lt;/a&gt;
-で。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-25.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最後に、VPNについて。「もみじ」で成績を見る時や、前述のプリンタ利用の時など、いくつかのサービスは学内ネットワークからしか利用ができません。自宅や帰省先でこういったサービスを使いたい場合は、VPNが使えます。設定のしかたについてはメディアセンターの説明ページを参照してください。
-詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/hinet/vpngw"&gt;「VPN(SSL-VPN)サービス」&lt;/a&gt;
-で。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-26.svg</t>
-  </si>
-  <si>
-    <t>おわりに</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;問い合わせ&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;F3S講習会&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">必携PCを使っていて、わからないことや困ったことがあったら、情報メディア教育研究センターに相談してください。
-&lt;dl&gt;&lt;dt&gt;対面窓口&lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;メディアセンター本館、西分室（西図書館）、北分室（中央図書館）、霞分室（基礎講義棟1F）&lt;/dd&gt;
-&lt;dt&gt;Web質問窓口: &lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
-&lt;/dd&gt;
- &lt;/dl&gt;情報メディア教育研究センターでは、皆さんの必携PCをより活用してもらえるよう、F3S (First Three Steps) 講習会を開催しています。 
-学生生活を送る上で有用なパソコンの使い方について、一つでも多く身につけてもらえるようさまざまな内容を準備していますので、 興味のあるものが見つかったら、ぜひ参加してください。 
-&lt;ul&gt;&lt;li&gt;&lt;a href="https://f3s.riise.hiroshima-u.ac.jp"&gt;https://f3s.riise.hiroshima-u.ac.jp&lt;/a&gt;
- &lt;/li&gt;
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-24a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">画面下にいろんなアイコンが並んでいますね。ここのことを「Dock」と言います。 Dockの中から、歯車のアイコン「システム環境設定」を選んでクリックしてください  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  いろんな設定をするためのアイコンが並んでいます。 「ソフトウェア・アップデート」をクリックしてください。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  「Macを自動的に最新の状態に保つ」のところにチェックが入っていることを確認してください。入ってなければ入れてください。 &lt;span class="check"&gt;check-5&lt;span&gt; &lt;/span&gt;
+&lt;/span&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 次にウイルス対策ソフトの設定を確認しましょう。 画面右上にある青い「e」のアイコンをクリックしましょう。 表示されるメニューから「ESET Endpoint Antivirus を開く」をクリックします。  
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 「アップデート」のタブから状態を確認しましょう。 「更新は必要ありません」となっていたらOKです。&lt;span class="check"&gt;check-6,7&lt;/span&gt;
+ 最新でない場合は「モジュールのアップロード」をクリックして、アップデートしましょう。 ウイルス定義データが常に最新でないと、新しいウイルスからパソコンを守ることができません。 常に最新にしておきましょう。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 次に、Officeのライセンス認証をします。ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための処理です。 Dockの中から、ロケットのアイコンの「Launchpad」をクリックしてください。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> このパソコンに入っているアプリケーションのアイコンがずらっと表示されます。 この中から、Officeに含まれるアプリを起動しましょう。どれでもよいのですが、ここではMicrosoft Wordを起動します。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wordの画面が表示されます。 一番下の「始めましょう」をクリックしてください。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  「サインイン」をクリックしてください。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  「Officeライセンス認証」として、電子メールアドレスを入れるように促されます。広大メールアドレスを入力してください。 &lt;p class="spl"&gt;※広大メールアドレスは「アカウント名@hiroshima-u.ac.jp」です。アカウント名は学生番号の先頭を小文字にしたものです。 &lt;/p&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  HIROSHIMA UNIVERSITY と書かれたパネルが出ます。先程入力したメールアドレスが出ていることを確認し、パスワードのところに「広大パスワード」を入力してください。入力できたら「サインイン」をクリックします。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  正しくサインインできると,Officeのテーマを選択する画面になります。 今はこのまま「続行」をクリックしてください。  
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  「今すぐWordを使ってみる」をクリックしてください。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wordの新規作成の画面が開きました。 これで、PowerPointやExcelなどMicrosoft Officeの他のアプリケーションも使えるようになります。&lt;span class="check"&gt;check-9&lt;/span&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Officeのアップデートの方法を説明します。 Officeのソフトのどれでもいいのですが、上のメニューから「ヘルプ」をクリックしてください。 「更新プログラムのチェック」をクリックしてください。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  「Microsoftのアプリを自動で常に最新の状態にする」にチェックが入っていることを確認しましょう。 </t>
+    <rPh sb="17" eb="19">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> メニューの「Microsoft Autoupdateを終了します」をクリックすると、終了できます。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mac-4-16a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mac-2-02a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mac-2-03.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mac-2-04a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、ウィルス対策ソフトのESET Endpoint Antivirus (以下 ESET EA) をインストールします。
+ まず、USBメモリからコピーしたフォルダにある eset_osx_ja.pkg をダブルクリック。インストーラが立ち上がります。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">デスクトップの「mac」フォルダを開きましょう。4つのファイルが入っています。そのうち3つを順に入れていきます。 &lt;ul&gt;&lt;li&gt;officemac.pkg: Microsoft Office &lt;/li&gt;
+&lt;li&gt;eset_osx_ja.dmg: Microsoftのウィルス対策ソフト &lt;/li&gt;
+&lt;li&gt;googlechrome.dmg: Google Chrome (Webブラウザ) &lt;/li&gt;
 &lt;/ul&gt;
  </t>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Mac</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;macOS編&lt;/h3&gt;
-2020年4月&lt;br&gt;
- 広島大学 情報メディア教育研究センター&lt;br&gt;
- 広島大学 消費生活協同組合 
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">デスクトップに、USBメモリの内容を表す「FIRST LEC」が現れますので、ダブルクリックして開きましょう。
- 中にある「setup2020-mac」フォルダをデスクトップにドラッグしてコピーします。   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Mac chap.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Mac chap.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Mac chap.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Mac chap.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2018 Mac conclusion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2019 Mac chap.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2019 Mac chap.4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この章では、初期講習会の会場で配布されるUSBメモリの使用を前提に説明しています。
-講習会に参加できなかった方が以降の作業を行いたい場合は、以下のいずれかをしてください。
-&lt;ol&gt;&lt;li&gt;メディアセンターのカウンターに行ってUSBメモリを借り、この章の説明にしたがって行う。&lt;/li&gt;
-&lt;li&gt;Web上の配布サイトから直接ダウンロードしてインストールし、次の章に進む。 ※ 以下のサイトの説明に従ってください。開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生証と一緒に配布された紙に書いてある）を入力してください。
-&lt;ul&gt;&lt;li&gt;&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2016-2.html"&gt;Office&lt;/a&gt;
- &lt;/li&gt;
-&lt;li&gt;&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/scep2012mac.html"&gt;ESET (ウイルス対策ソフト）&lt;/a&gt;
- &lt;/li&gt;
-&lt;li&gt;&lt;a href="https://www.google.com/chrome/"&gt;Chrome（Webブラウザ）&lt;/a&gt;
- &lt;/li&gt;
-&lt;/ul&gt;
- &lt;/li&gt;
- &lt;/ol&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
- macOS Catalina」というのがこのOSの名前ですね。その下に小さな文字で「バージョン10.15.2」とあります。このMacのOSのバージョンは10.15.2です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
- 更にその下にパソコンの名称が書かれています。「MacBook Air」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは8GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Macにログインするときに使うパスワードを入力し、「ソフトウェアをインストール」としてください。 このあと特に警告が出なければ、[31]のChromeを入れる手順に進んでかまいません。
+  </t>
+    <rPh sb="53" eb="54">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Mac OS 10.14.3 Mojave以前の古いMacOSの場合は、インストールが終了して ESET EAが動き出すときにこのような警告パネルが表示されることがあります。
+この場合はESET EAに必要なパーツが動作できるよう、システム設定の変更を行わなくてはなりません。
+「&amp;quot;セキュリティ&amp;quot;環境設定を開く」をクリックしてください。
+  </t>
+    <rPh sb="24" eb="25">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mac-1-02a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1461,7 +1572,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1493,15 +1604,15 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1535,7 +1646,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1567,7 +1678,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1776,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1817,7 +1928,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -1853,13 +1964,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1867,13 +1978,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1881,13 +1992,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1895,13 +2006,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -1909,13 +2020,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1946,7 +2057,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1954,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1970,7 +2081,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1978,7 +2089,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1992,13 +2103,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2006,13 +2117,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2020,13 +2131,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2034,13 +2145,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2048,13 +2159,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2062,13 +2173,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2081,8 +2192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="B32" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2098,7 +2209,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2106,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2122,7 +2233,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="156" x14ac:dyDescent="0.2">
@@ -2130,7 +2241,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2141,7 +2252,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="221" x14ac:dyDescent="0.2">
@@ -2149,7 +2260,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2160,7 +2271,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2168,13 +2279,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2182,13 +2293,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -2196,13 +2307,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2210,18 +2321,18 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2229,13 +2340,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2243,13 +2354,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2257,13 +2368,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2271,13 +2382,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2285,13 +2396,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2299,13 +2410,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2313,18 +2424,18 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2332,13 +2443,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>95</v>
+        <v>257</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2346,13 +2457,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2360,13 +2471,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2374,13 +2485,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2388,13 +2499,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2402,13 +2513,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2416,13 +2527,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2430,13 +2541,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2444,13 +2555,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2458,41 +2569,41 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>115</v>
+        <v>259</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2500,13 +2611,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2514,13 +2625,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2528,13 +2639,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2542,13 +2653,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2556,13 +2667,13 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2570,32 +2681,32 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="130" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2606,10 +2717,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2625,7 +2736,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2633,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2649,7 +2760,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2657,7 +2768,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2668,7 +2779,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2676,13 +2787,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2690,13 +2801,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2704,18 +2815,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2723,13 +2834,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2737,13 +2848,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2751,13 +2862,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2765,18 +2876,18 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2784,13 +2895,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>154</v>
+        <v>241</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2798,13 +2909,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>156</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2812,13 +2923,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2826,13 +2937,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2840,13 +2951,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>162</v>
+        <v>245</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2854,13 +2965,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2868,13 +2979,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>166</v>
+        <v>247</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2882,13 +2993,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2896,13 +3007,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2910,69 +3021,56 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>176</v>
+        <v>252</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2988,7 +3086,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2996,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3012,15 +3110,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="260" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3031,7 +3129,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3053,13 +3151,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3067,18 +3165,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3100,13 +3198,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3114,27 +3212,21 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
+        <v>230</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3142,377 +3234,392 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>194</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="234" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>242</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3529,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3545,7 +3652,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3553,7 +3660,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3564,26 +3671,31 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BAC182-48DE-430F-8AF1-75CFEF51FBD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63F73E5-D214-4E16-86EB-15F74ADBFC46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26850" yWindow="1275" windowWidth="14280" windowHeight="9045" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40200" yWindow="960" windowWidth="14280" windowHeight="9045" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -521,9 +521,6 @@
   </si>
   <si>
     <t>mac-4-03.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="eset"&gt;&lt;/a&gt;ESET Endpoint Antivitudの手動更新とフルスキャン&lt;/h2&gt; </t>
   </si>
   <si>
     <t>mac-4-04.svg</t>
@@ -1180,6 +1177,10 @@
   </si>
   <si>
     <t>mac-1-02a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="eset"&gt;&lt;/a&gt;ESET Endpoint Antivirusの手動更新とフルスキャン&lt;/h2&gt; </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1604,7 +1605,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1612,7 +1613,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1678,7 +1679,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1928,7 +1929,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -1964,13 +1965,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2081,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2233,7 +2234,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="156" x14ac:dyDescent="0.2">
@@ -2260,7 +2261,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2293,13 +2294,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -2313,7 +2314,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2321,13 +2322,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2443,7 +2444,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2583,7 +2584,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2597,7 +2598,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2667,7 +2668,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2700,7 +2701,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2719,8 +2720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2760,7 +2761,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2787,7 +2788,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2801,7 +2802,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -2815,7 +2816,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -2826,7 +2827,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2834,13 +2835,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2848,13 +2849,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2862,13 +2863,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2876,18 +2877,18 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2895,13 +2896,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2909,13 +2910,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2923,13 +2924,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2937,13 +2938,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2951,13 +2952,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2965,13 +2966,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2979,13 +2980,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2993,13 +2994,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3007,13 +3008,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3021,13 +3022,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3035,13 +3036,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3049,13 +3050,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3069,8 +3070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3086,7 +3087,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3094,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3110,7 +3111,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3118,7 +3119,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3129,7 +3130,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3151,13 +3152,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>153</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3165,18 +3166,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>155</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3198,13 +3199,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>158</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3212,21 +3213,21 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>160</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" t="s">
         <v>230</v>
-      </c>
-      <c r="D15" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3234,13 +3235,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>232</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3248,13 +3249,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" t="s">
         <v>162</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>163</v>
-      </c>
-      <c r="D17" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3262,13 +3263,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" t="s">
         <v>165</v>
-      </c>
-      <c r="C18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3276,13 +3277,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>167</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3290,13 +3291,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>169</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3304,18 +3305,18 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>171</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3337,13 +3338,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>174</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3351,13 +3352,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>176</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3365,18 +3366,18 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>178</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3398,13 +3399,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>181</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3412,13 +3413,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>183</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3426,13 +3427,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>185</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3440,13 +3441,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>187</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3454,13 +3455,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>189</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3468,13 +3469,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>191</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3482,13 +3483,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>193</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3496,13 +3497,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>195</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3510,13 +3511,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>197</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3524,18 +3525,18 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>199</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3543,7 +3544,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3557,13 +3558,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3571,13 +3572,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3585,13 +3586,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3599,13 +3600,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3619,8 +3620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3636,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3652,7 +3653,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3660,7 +3661,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3671,12 +3672,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3684,7 +3685,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3695,7 +3696,7 @@
     </row>
     <row r="9" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63F73E5-D214-4E16-86EB-15F74ADBFC46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9889F6A-AB1F-484F-BC63-F6D9CD4AA948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40200" yWindow="960" windowWidth="14280" windowHeight="9045" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40920" yWindow="1890" windowWidth="14280" windowHeight="9045" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -1108,10 +1108,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mac-4-16a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mac-2-02a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1181,6 +1177,10 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="eset"&gt;&lt;/a&gt;ESET Endpoint Antivirusの手動更新とフルスキャン&lt;/h2&gt; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mac-4-16a.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1971,7 +1971,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2300,7 +2300,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -2314,7 +2314,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2322,13 +2322,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2444,7 +2444,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2584,7 +2584,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2598,7 +2598,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2720,8 +2720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3042,7 +3042,7 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9889F6A-AB1F-484F-BC63-F6D9CD4AA948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC9AF83-92F9-41B5-B35E-C20661326EDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="1890" windowWidth="14280" windowHeight="9045" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40920" yWindow="1890" windowWidth="14280" windowHeight="9045" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -2720,8 +2720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3039,7 +3039,7 @@
         <v>250</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
         <v>261</v>
@@ -3070,8 +3070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC9AF83-92F9-41B5-B35E-C20661326EDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF0160E-CBCB-408D-9BF5-C5BE9B05E6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="1890" windowWidth="14280" windowHeight="9045" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35760" yWindow="1065" windowWidth="18225" windowHeight="11625" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,17 @@
     <sheet name="ch1" sheetId="3" r:id="rId3"/>
     <sheet name="ch2" sheetId="4" r:id="rId4"/>
     <sheet name="ch3" sheetId="5" r:id="rId5"/>
-    <sheet name="ch4" sheetId="6" r:id="rId6"/>
-    <sheet name="ch5" sheetId="7" r:id="rId7"/>
-    <sheet name="ch6" sheetId="8" r:id="rId8"/>
+    <sheet name="ch4" sheetId="9" r:id="rId6"/>
+    <sheet name="ch5" sheetId="6" r:id="rId7"/>
+    <sheet name="ch6" sheetId="7" r:id="rId8"/>
+    <sheet name="ch7" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="276">
   <si>
     <t>header1</t>
   </si>
@@ -219,10 +220,6 @@
     <t>学内ネットワークへの接続</t>
   </si>
   <si>
-    <t xml:space="preserve">広島大学では、図書館、講義室、福利施設など学内の多くの共用スペースで、「HiNET Wi-Fi」が利用できます。ここでは、HiNET Wi-Fiを通して、あなたのPCで学内ネットワークとインターネットを利用できるようにしましょう。一度設定すると、次回からは（同じエリアでは）設定不要です。
- </t>
-  </si>
-  <si>
     <t xml:space="preserve">設定にはいる前に、広島大学で情報サービスを使うときに必要がIDが二種類あることを確認しましょう。学生の場合、二種類とも学生番号をもとにしています。
 一つは「広大ID」。これは学生番号と同じ文字列です。もう一つはメディアセンターの「アカウント名」です。こちらは、先頭の一文字を小文字にしたものになっています。
 対応するパスワードは、どちらも共通です。「広大パスワード」と呼んでいます。学生証と一緒に配布されます。
@@ -266,65 +263,7 @@
     <t>mac-3-4.png</t>
   </si>
   <si>
-    <t xml:space="preserve">手順 [2] で選んだ HU-CUPXX ですが、どのエリアでどんな名前のアクセスポイントが使われているかを示します。
-  </t>
-  </si>
-  <si>
     <t>win10-4-07.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">macOSを最新版にアップデートし、Microsoft Office などをインストールしましょう。 </t>
-  </si>
-  <si>
-    <t>必要なソフトウェアのインストール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ソフトのインストールに必要なファイルを、USBメモリにいれて配布しますので、まずそれを各々のPCにコピーしてください。そのあと、インストールを開始します。ここでは、Officeとウイルス対策ソフト（SCEP）のインストールを行います。
-&lt;ul&gt;&lt;li&gt;&lt;a href="#copy"&gt;USBメモリからファイルをコピーする&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#office"&gt;Officeを入れる&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#eset"&gt;ESET EAを入れる&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#chrome"&gt;Chromeを入れる&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
- </t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;この章を始める前に&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="copy"&gt;&lt;/a&gt;USBメモリからファイルをコピーする&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">配布されたUSBメモリをUSBポートに挿します。 
-  </t>
-  </si>
-  <si>
-    <t>mac-2-1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コピーが終了したら「FIRST LEC」をゴミ箱までドラッグ＆ドロップしてください。ドラッグを始めると、ゴミ箱がイジェクトアイコンに 変わります。
-デスクトップから「FIRST LEC」のアイコンが消えたらUSBメモリを抜き、次の人に回してください。
-&lt;div class="spl"&gt;※ イジェクトの動作は、「FIRST LEC」のアイコンを右クリックして、「&amp;quot;FIRST LEC&amp;quot;を取り出す」としてもOKです。
-ちなみに右クリックは、controlキーを押しながらクリックします。「システム環境設定」の「トラックパッド」の項目を開くと、他のやり方を設定できます。
-&lt;/div&gt;
-   </t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Officeを入れる&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まずMicrosoft Officeをインストールしましょう。WordとExcelとPowerPointを中心とした業務用アプリケーションセットです。大学でもよく使います。
- Ofiice.pkg をダブルクリックします。インストーラのウィンドウが出ますので「続ける」をクリックしてください。 Officeのインスールは特に悩ましい分かれ道はありませんので、基本的に前に進む方向の選択肢を選んでいけばOKです。   </t>
-  </si>
-  <si>
-    <t>mac-2-4.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">使用許諾契約をはじめます。「続ける」をクリックしてください。 
-  </t>
   </si>
   <si>
     <t>mac-2-5.png</t>
@@ -338,17 +277,9 @@
     <t>mac-2-6.png</t>
   </si>
   <si>
-    <t xml:space="preserve">実際にインストーラからファイルを書き込むステップに入ります。「インストール」をクリックしてください。 
-  </t>
-  </si>
-  <si>
     <t>mac-2-7.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Macのシステム領域にファイルを書き込みますので、管理者権限を持っている利用者であることを確認するため、認証を求められます。6ページで作った利用者名とパスワードを入力してください。広大パスワードではないので、間違えないように。 
-  </t>
-  </si>
-  <si>
     <t>mac-2-8.png</t>
   </si>
   <si>
@@ -357,11 +288,6 @@
   </si>
   <si>
     <t>mac-2-9.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">しばらくまつと、ポロリンと音がなり、このような画面になります。「閉じる」をクリックしてインストーラを終了させましょう。
-&lt;p class="spl"&gt;※ インストールは終了ですが、この段階ではまだ使えません。使い始めるには「ライセンス認証」が必要です。それには、インターネットに接続されていることが必要ですので、のちほど行います。 &lt;/p&gt;
-  </t>
   </si>
   <si>
     <t>mac-2-10.png</t>
@@ -395,15 +321,7 @@
     <t>mac-2-08.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">さきほどのOfficeの時と同様、使用許諾契約の段階に入ります。「続ける」をクリックしてください。 
-  </t>
-  </si>
-  <si>
     <t>mac-2-09.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「同意する」をクリックしてください。しないと先に進めません... 
-  </t>
   </si>
   <si>
     <t>mac-2-10.svg</t>
@@ -490,27 +408,12 @@
     <t>&lt;h2&gt;&lt;a name="chrome"&gt;&lt;/a&gt;Chromeを入れる&lt;/h2&gt;</t>
   </si>
   <si>
-    <t>mac-2-23.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">OS と Office がつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。 </t>
   </si>
   <si>
     <t>自動アップデートとソフトウェアのセットアップ</t>
   </si>
   <si>
-    <t xml:space="preserve">OS と Officeがつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。
-また、Officeのライセンス認証もしておきましょう。
-&lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;自動アップデートの設定&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#eset"&gt;ESET EAの手動更新とフルスキャン&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#office"&gt;Officeのアクティベーション&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
- </t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="windows_update"&gt;&lt;/a&gt;自動アップデートの設定&lt;/h2&gt; </t>
   </si>
   <si>
@@ -529,25 +432,10 @@
     <t>mac-4-05.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">システム全体のウイルスチェックを実施する方法を確認します。チェックには時間がかかりますので、講習会の会場では行わないでください。
-システム全体のウイルスチェックを「フルスキャン」と呼びます。それに対して「スマートスキャン」はよく攻撃される場所に限定して調査を行いますので、時間が短くて済みます。
-フルスキャンを行うには「コンピュータの検査」タブをクリック、「カスタム検査」をクリックしてください。
-  </t>
-  </si>
-  <si>
     <t>mac-4-06.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">「検査プロファイル」として「詳細検査」を、「検査対象」として「Macintosh HD」を選んでください。Macintosh HDは、Macに内蔵されている副記憶装置(HDDもしくはSDD）を指します。「検査」をクリックすると、フルスキャンが始まります。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-フルスキャンの実行には時間がかかりますので、講習会会場では実施しないでください。講習会終了後、できるだけ早く実行し、点検届けを完成させてください。
-  </t>
-  </si>
-  <si>
     <t>mac-4-07.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Officeのアクティベーション&lt;/h2&gt; </t>
   </si>
   <si>
     <t>mac-4-6.png</t>
@@ -842,11 +730,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">デスクトップに、USBメモリの内容を表す「FIRST LEC」が現れますので、ダブルクリックして開きましょう。
- 中にある「setup2020-mac」フォルダをデスクトップにドラッグしてコピーします。   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2020 Mac chap.3</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -860,23 +743,6 @@
   </si>
   <si>
     <t>FRESTA-TEXT-2020 Mac chap.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この章では、初期講習会の会場で配布されるUSBメモリの使用を前提に説明しています。
-講習会に参加できなかった方が以降の作業を行いたい場合は、以下のいずれかをしてください。
-&lt;ol&gt;&lt;li&gt;メディアセンターのカウンターに行ってUSBメモリを借り、この章の説明にしたがって行う。&lt;/li&gt;
-&lt;li&gt;Web上の配布サイトから直接ダウンロードしてインストールし、次の章に進む。 ※ 以下のサイトの説明に従ってください。開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生証と一緒に配布された紙に書いてある）を入力してください。
-&lt;ul&gt;&lt;li&gt;&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2016-2.html"&gt;Office&lt;/a&gt;
- &lt;/li&gt;
-&lt;li&gt;&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/scep2012mac.html"&gt;ESET (ウイルス対策ソフト）&lt;/a&gt;
- &lt;/li&gt;
-&lt;li&gt;&lt;a href="https://www.google.com/chrome/"&gt;Chrome（Webブラウザ）&lt;/a&gt;
- &lt;/li&gt;
-&lt;/ul&gt;
- &lt;/li&gt;
- &lt;/ol&gt;
- </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -959,13 +825,6 @@
     <rPh sb="82" eb="84">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">次にChromeをインストールしましょう。googlechrome.dmgをダブルクリックすると、Chromeが入っているフォルダが開きます。これを下に見えている「A」のついたフォルダにドラッグしてコピーしてください。Chromeのインストールはこれで終了です。
-&lt;p class="spl"&gt; ※ macOSにはSafariというWebブラウザが標準的なものとして付属してきますが、うまく表示できないWebページもときどきあります。そういうときに、「もう一つのブラウザ」としてこのChromeを使ってみてください。&lt;/p&gt;
-&lt;p class="spl"&gt;※ (今はまあどうでもいいこと）「A」のフォルダの左下に小さな矢印がついていますね。Macでは、フォルダやファイルの実体とは別の場所に、その実体と同じ動作をするようなものを作ることができます。その影武者のような項目を「エイリアス」と呼びます。左下の矢印は、この項目がエイリアスであることを示しています。右クリックして「オリジナルを表示」とすると、この項目が、あなたのMacの「アプリケーション」フォルダのエイリアスであることがわかります。 &lt;/p&gt;
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1081,10 +940,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> Officeのアップデートの方法を説明します。 Officeのソフトのどれでもいいのですが、上のメニューから「ヘルプ」をクリックしてください。 「更新プログラムのチェック」をクリックしてください。  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">  「Microsoftのアプリを自動で常に最新の状態にする」にチェックが入っていることを確認しましょう。 </t>
     <rPh sb="17" eb="19">
       <t>ジドウ</t>
@@ -1108,54 +963,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mac-2-02a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mac-2-03.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mac-2-04a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">次に、ウィルス対策ソフトのESET Endpoint Antivirus (以下 ESET EA) をインストールします。
- まず、USBメモリからコピーしたフォルダにある eset_osx_ja.pkg をダブルクリック。インストーラが立ち上がります。  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">デスクトップの「mac」フォルダを開きましょう。4つのファイルが入っています。そのうち3つを順に入れていきます。 &lt;ul&gt;&lt;li&gt;officemac.pkg: Microsoft Office &lt;/li&gt;
-&lt;li&gt;eset_osx_ja.dmg: Microsoftのウィルス対策ソフト &lt;/li&gt;
-&lt;li&gt;googlechrome.dmg: Google Chrome (Webブラウザ) &lt;/li&gt;
-&lt;/ul&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Macにログインするときに使うパスワードを入力し、「ソフトウェアをインストール」としてください。 このあと特に警告が出なければ、[31]のChromeを入れる手順に進んでかまいません。
-  </t>
-    <rPh sb="53" eb="54">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Mac OS 10.14.3 Mojave以前の古いMacOSの場合は、インストールが終了して ESET EAが動き出すときにこのような警告パネルが表示されることがあります。
 この場合はESET EAに必要なパーツが動作できるよう、システム設定の変更を行わなくてはなりません。
 「&amp;quot;セキュリティ&amp;quot;環境設定を開く」をクリックしてください。
@@ -1181,6 +988,604 @@
   </si>
   <si>
     <t>mac-4-16a.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この章では、Wi-Fiで広島大学の学内ネットワークに接続するための設定を行います。
+この章の作業はあなたが広島大学の中にいるときに行ってください。
+自宅などにいてWi-Fiを利用したインターネット接続環境がある場合は、そのWi-Fiを利用する接続設定をしてから次の章へ進み、この章の学内ネットワークへの接続設定は後日行ってください。</t>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガクナイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>ゴジツ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">広島大学では、図書館、講義室、福利施設など学内の多くの共用スペースで、「HiNET Wi-Fi」が利用できます。ここでは、HiNET Wi-Fiを通して、あなたのPCで学内ネットワークとインターネットを利用できるようにする方法を説明します。一度設定すると、次回からは（同じエリアでは）設定不要です。
+右の図では、どのエリアでどんな名前のアクセスポイントが使われているかを示します。
+ </t>
+    <rPh sb="111" eb="113">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-23.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-24.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このページの説明をひととおり下まで読んでから、左側メニューの「各種ソフトウェアのダウンロード」をクリックします。</t>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「学生の個人所有PCへのインストールはここから」をクリック、さらに表示されるページにある「個人所有PCのOffice製品は、Office365 Pro Plusをご利用ください」をクリックします。</t>
+    <rPh sb="1" eb="3">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-22.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「職場または学校アカウントでサインインする」には広大メールアドレス（ IMCアカウント名@hiroshima-u.ac.jp ）を入力してください。パスワードには広大パスワードを入力します。</t>
+    <rPh sb="1" eb="3">
+      <t>ショクバ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのあとの画面で「今すぐインストール」をクリックすると、Officeのインストーラー（pkgファイル）がダウンロードされます。これを保存してから、ダブルクリックして起動します。</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">実際にインストーラからファイルを書き込むステップに入ります。「続ける」、「インストール」をクリックしてください。 
+  </t>
+    <rPh sb="31" eb="32">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Macのシステム領域にファイルを書き込みますので、管理者権限を持っている利用者であることを確認するため、認証を求められます。6ページで作った利用者名とパスワードを入力してください。広大パスワードではないので、間違えないように。 
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">まだあなたのPCにMicrosoft Officeがないなら、以下の手引きに従ってインストールしましょう。
+広島大学では、マイクロソフト社との包括ライセンス契約（Microsoft Enrollment for Education Solutions）を結んでいます。これによって広島大学の学生は広島大学が定める利用要領に基づいて、いくつかのマイクロソフト社製ソフトウェア製品（Microsoft Office等）を無償で利用することができます。
+Microsoft Office については、広島大学の学生は個人所有のPCでいくつでも無償で利用することができます。
+ただし卒業までに継続利用手続きを行った１つ以外は卒業（もしくは退学）後は利用できなくなりますので、ご注意ください。
+※ここで紹介する配布サイトの中に「継続利用手続き」についても説明があります。
+</t>
+    <rPh sb="31" eb="33">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テビ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>シタガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">以下のサイト「Office2016 for Mac インストール手順」をブラウザで開き、説明に従ってください。
+開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生証と一緒に配布された紙に書いてある）を入力してください。
+&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2016-2.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2016-2.html&lt;/a&gt;
+ &lt;/li&gt; 
+</t>
+    <rPh sb="32" eb="34">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Office をインストールしましょう。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Officeのインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">使用許諾契約の同意手続きをはじめます。「続ける」をクリックしてください。 
+  </t>
+    <rPh sb="7" eb="9">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="office_activation"&gt;&lt;/a&gt;Officeのライセンス認証&lt;/h2&gt; </t>
+    <rPh sb="48" eb="50">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="office_install"&gt;&lt;/a&gt;Officeを入れる&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトのインストールに必要なファイルを配布サイトからダウンロードしてから、インストールを開始します。ここでは、Microsoft Officeのインストールを行います。
+ &lt;ul&gt;
+&lt;li&gt;&lt;a href="#office_install"&gt;Officeを入れる&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#office_activation"&gt;Officeのライセンス認証&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;</t>
+    <rPh sb="19" eb="21">
+      <t>ハイフ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">しばらくまつと、ポロリンと音がなり、このような画面になります。「閉じる」をクリックしてインストーラを終了させましょう。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ここで Officeのアップデートの方法を説明します。 Officeのソフトのどれでもいいのですが、上のメニューから「ヘルプ」をクリックしてください。 「更新プログラムのチェック」をクリックしてください。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mac-2-31.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィルス対策ソフトとChromeをインストールしましょう</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ESET EAとChromeのインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ソフトのインストールに必要なファイルを配布サイトからダウンロードしてから、インストールを開始します。ここでは、ウイルス対策ソフト（SCEP）とGoogle Chromeのインストールを行います。
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#eset"&gt;ESET EAを入れる&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#chrome"&gt;Chromeを入れる&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;
+ </t>
+    <rPh sb="19" eb="21">
+      <t>ハイフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このページの「ESET for Mac」をクリックすると、インストール手順を書いたマニュアルが表示されます。
+ひととおり下まで読んでから、先ほどのページに戻ってください。
+&lt;p class="spl"&gt;※ できればこのマニュアルを別ウィンドウで表示したままにしておくと、あとの作業がやりやすいでしょう。&lt;/p&gt;</t>
+    <rPh sb="35" eb="37">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左側メニューの「各種ソフトウェアのダウンロード」をクリックします。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロードのための認証画面になるので、パスワードの欄に広大パスワードを入力して「送信(Submit)」を押すと、インストーラ（pkgファイル）がダウンロードされます。</t>
+    <rPh sb="10" eb="12">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ダウンロードされたpkgファイルをクリックすると、インストーラが立ち上がります。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Macにログインするときに使うパスワードを入力し、「ソフトウェアをインストール」としてください。 このあと特に警告が出なければ、&lt;a href="#chrome"&gt;Chromeを入れる&lt;/a&gt;に進んでかまいません。
+  </t>
+    <rPh sb="53" eb="54">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「学生の個人所有PCへのインストールはここから」をクリックします。</t>
+    <rPh sb="1" eb="3">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下のほうにある「ESET Endpoint Antivirus for Mac」をクリックします。
+&lt;p class="spl"&gt;※ このページの「インストールマニュアル」をクリックすると、インストール手順を書いたマニュアルが表示されます。できればこのマニュアルを別ウィンドウで表示したままにしておくと、あとの作業がやりやすいでしょう。&lt;/p&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「同意する」をクリックしてください。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">さきほどのOfficeの時と同様、使用許諾契約の段階に入ります。「続ける」をクリックしてください。 
+&lt;p class="spl"&gt;※本来は表示されている利用許諾契約をひととおり読んでから同意するものです&lt;/p&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-41.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Chrome 利用規約が表示されるので、「同意してインストール」をクリックします。
+</t>
+    <rPh sb="14" eb="16">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ドウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-42.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロードしたファイルを実行します。</t>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-43.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-11.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次にGoogle Chromeをインストールします。Web上の配布サイトから直接ダウンロードしましょう。
+&lt;a href="https://www.google.com/chrome/"&gt;https://www.google.com/chrome/&lt;/a&gt;
+（または「Chrome インストール」を検索して出てくるChromeダウンロードページ）
+で、「Chromeをダウンロード」をクリックしてください。
+</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">OS と Officeがつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。
+&lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;自動アップデートの設定&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#eset"&gt;ESET EAの手動更新とフルスキャン&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">システム全体のウイルスチェックを実施する方法を確認します。チェックには数時間かかりますので、実施するときは時間の余裕を確認し、必ず電源アダプタをつないでください。
+システム全体のウイルスチェックを「フルスキャン」と呼びます。それに対して「スマートスキャン」はよく攻撃される場所に限定して調査を行いますので、時間が短くて済みます。
+フルスキャンを行うには「コンピュータの検査」タブをクリック、「カスタム検査」をクリックしてください。
+  </t>
+    <rPh sb="35" eb="38">
+      <t>スウジカン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>デンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「検査プロファイル」として「詳細検査」を、「検査対象」として「Macintosh HD」を選んでください。Macintosh HDは、Macに内蔵されている副記憶装置(HDDもしくはSDD）を指します。「検査」をクリックすると、フルスキャンが始まります。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+フルスキャンの実行には数時間かかりますので、時間の余裕のあるときにできるだけ早く実行し、点検届けを完成させてください。
+  </t>
+    <rPh sb="188" eb="191">
+      <t>スウジカン</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>ヨユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Mac chap.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まず、あなたのPCでは、すでにMicrosoft Office （Word, Excel, PowerPoint）が入っていて使えるでしょうか？。
+もし使えるのなら、それをそのまま使っていただければ結構です。この下の項目は飛ばして次の章へ進んでください。</t>
+    <rPh sb="58" eb="59">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ケッコウ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィルス対策ソフトのESET Endpoint Antivirus (以下 ESET EA) をインストールします。
+以下のサイト「ウィルス対策ソフトのインストール手順」をブラウザで開き、説明に従ってください。
+開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生証と一緒に配布された紙に書いてある）を入力してください。
+&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html&lt;/a&gt;</t>
+    <rPh sb="70" eb="72">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">右図のような表示が出るので、Chromeのアイコンを下に見えている「A」のついたフォルダにドラッグしてコピーしてください。Chromeのインストールはこれで終了です。
+&lt;p class="spl"&gt; ※ macOSにはSafariというWebブラウザが標準的なものとして付属してきますが、うまく表示できないWebページもときどきあります。そういうときに、「もう一つのブラウザ」としてこのChromeを使ってみてください。&lt;/p&gt;  </t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>デ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1605,7 +2010,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1613,7 +2018,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1646,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1679,7 +2084,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1888,8 +2293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1929,7 +2334,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -1965,13 +2370,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2041,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2082,105 +2487,96 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
       <c r="B6" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>54</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>56</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2191,10 +2587,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="B32" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="B19" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2210,7 +2606,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2218,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2234,15 +2630,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="156" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2253,157 +2649,142 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2411,32 +2792,32 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>85</v>
+        <v>247</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>213</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2444,55 +2825,55 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2500,13 +2881,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2514,200 +2895,83 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="130" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2717,11 +2981,418 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFDDE6-1E06-4807-90D9-56730BF2F634}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="138" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2737,7 +3408,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2745,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2761,15 +3432,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>269</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2780,7 +3451,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2788,13 +3459,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2802,13 +3473,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2816,18 +3487,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2835,13 +3506,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2849,13 +3520,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2863,13 +3534,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2877,186 +3548,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>135</v>
+        <v>271</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3066,12 +3564,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3087,7 +3585,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3095,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3111,7 +3609,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3119,7 +3617,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3130,7 +3628,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3152,13 +3650,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3166,18 +3664,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3199,13 +3697,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3213,21 +3711,21 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3235,13 +3733,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3249,13 +3747,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3263,13 +3761,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3277,13 +3775,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3291,13 +3789,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3305,18 +3803,18 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3338,13 +3836,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3352,13 +3850,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3366,18 +3864,18 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3399,13 +3897,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3413,13 +3911,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3427,13 +3925,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3441,13 +3939,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3455,13 +3953,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3469,13 +3967,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3483,13 +3981,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3497,13 +3995,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3511,13 +4009,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3525,18 +4023,18 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3544,7 +4042,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3558,13 +4056,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3572,13 +4070,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3586,13 +4084,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3600,13 +4098,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3616,12 +4114,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3637,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3653,7 +4151,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3661,7 +4159,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3672,12 +4170,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3685,7 +4183,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3696,7 +4194,7 @@
     </row>
     <row r="9" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF0160E-CBCB-408D-9BF5-C5BE9B05E6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7B9E8B-4EEC-43C5-B583-04DBE338EBCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35760" yWindow="1065" windowWidth="18225" windowHeight="11625" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="1400" windowWidth="13500" windowHeight="8270" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="ch5" sheetId="6" r:id="rId7"/>
     <sheet name="ch6" sheetId="7" r:id="rId8"/>
     <sheet name="ch7" sheetId="8" r:id="rId9"/>
+    <sheet name="ch8" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="301">
   <si>
     <t>header1</t>
   </si>
@@ -1064,10 +1065,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-4-24.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>このページの説明をひととおり下まで読んでから、左側メニューの「各種ソフトウェアのダウンロード」をクリックします。</t>
     <rPh sb="6" eb="8">
       <t>セツメイ</t>
@@ -1083,63 +1080,6 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>カクシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「学生の個人所有PCへのインストールはここから」をクリック、さらに表示されるページにある「個人所有PCのOffice製品は、Office365 Pro Plusをご利用ください」をクリックします。</t>
-    <rPh sb="1" eb="3">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>セイヒン</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-4-22.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「職場または学校アカウントでサインインする」には広大メールアドレス（ IMCアカウント名@hiroshima-u.ac.jp ）を入力してください。パスワードには広大パスワードを入力します。</t>
-    <rPh sb="1" eb="3">
-      <t>ショクバ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガッコウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1254,10 +1194,6 @@
   </si>
   <si>
     <t xml:space="preserve">ここで Officeのアップデートの方法を説明します。 Officeのソフトのどれでもいいのですが、上のメニューから「ヘルプ」をクリックしてください。 「更新プログラムのチェック」をクリックしてください。  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mac-2-31.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1286,42 +1222,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>このページの「ESET for Mac」をクリックすると、インストール手順を書いたマニュアルが表示されます。
-ひととおり下まで読んでから、先ほどのページに戻ってください。
-&lt;p class="spl"&gt;※ できればこのマニュアルを別ウィンドウで表示したままにしておくと、あとの作業がやりやすいでしょう。&lt;/p&gt;</t>
-    <rPh sb="35" eb="37">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>左側メニューの「各種ソフトウェアのダウンロード」をクリックします。</t>
     <rPh sb="0" eb="2">
       <t>ヒダリガワ</t>
@@ -1404,10 +1304,6 @@
     <t xml:space="preserve">さきほどのOfficeの時と同様、使用許諾契約の段階に入ります。「続ける」をクリックしてください。 
 &lt;p class="spl"&gt;※本来は表示されている利用許諾契約をひととおり読んでから同意するものです&lt;/p&gt;
   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-41.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1430,20 +1326,6 @@
   <si>
     <t>win10-2-42.png</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ダウンロードしたファイルを実行します。</t>
-    <rPh sb="13" eb="15">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-43.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-11.svg</t>
   </si>
   <si>
     <t xml:space="preserve">次にGoogle Chromeをインストールします。Web上の配布サイトから直接ダウンロードしましょう。
@@ -1572,20 +1454,293 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">右図のような表示が出るので、Chromeのアイコンを下に見えている「A」のついたフォルダにドラッグしてコピーしてください。Chromeのインストールはこれで終了です。
-&lt;p class="spl"&gt; ※ macOSにはSafariというWebブラウザが標準的なものとして付属してきますが、うまく表示できないWebページもときどきあります。そういうときに、「もう一つのブラウザ」としてこのChromeを使ってみてください。&lt;/p&gt;  </t>
+    <t>description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必携PC使用時の問い合わせ窓口と、PC活用講習会（F3S講習会）を案内します。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>マドグチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>コウシュウカイ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>コウシュウカイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>アンナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターネットからのソフトウェアダウンロードがうまくいかない場合は、メディアセンターで借りられる配布用USBメモリを使います。</t>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ハイフ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（付録A）USBメモリからのソフトウェアインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Mac App.A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="copy"&gt;&lt;/a&gt;USBメモリからファイルをコピーする&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">配布されたUSBメモリをUSBポートに挿します。 
+  </t>
+  </si>
+  <si>
+    <t>mac-2-1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デスクトップに、USBメモリの内容を表す「FIRST LEC」が現れますので、ダブルクリックして開きましょう。
+ 中にある「setup2020-mac」フォルダをデスクトップにドラッグしてコピーします。   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mac-2-02a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">コピーが終了したら「FIRST LEC」をゴミ箱までドラッグ＆ドロップしてください。ドラッグを始めると、ゴミ箱がイジェクトアイコンに 変わります。
+デスクトップから「FIRST LEC」のアイコンが消えたらUSBメモリを抜き、次の人に回してください。
+&lt;div class="spl"&gt;※ イジェクトの動作は、「FIRST LEC」のアイコンを右クリックして、「&amp;quot;FIRST LEC&amp;quot;を取り出す」としてもOKです。
+ちなみに右クリックは、controlキーを押しながらクリックします。「システム環境設定」の「トラックパッド」の項目を開くと、他のやり方を設定できます。
+&lt;/div&gt;
+   </t>
+  </si>
+  <si>
+    <t>mac-2-03.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">デスクトップの「mac」フォルダを開きましょう。4つのファイルが入っています。そのうち3つを順に入れていきます。 &lt;ul&gt;&lt;li&gt;officemac.pkg: Microsoft Office &lt;/li&gt;
+&lt;li&gt;eset_osx_ja.dmg: Microsoftのウィルス対策ソフト &lt;/li&gt;
+&lt;li&gt;googlechrome.dmg: Google Chrome (Webブラウザ) &lt;/li&gt;
+&lt;/ul&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mac-2-04a.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Officeを入れる&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まずMicrosoft Officeをインストールしましょう。WordとExcelとPowerPointを中心とした業務用アプリケーションセットです。大学でもよく使います。
+ Ofiice.pkg をダブルクリックします。インストーラのウィンドウが出ますので「続ける」をクリックしてください。 Officeのインスールは特に悩ましい分かれ道はありませんので、基本的に前に進む方向の選択肢を選んでいけばOKです。   </t>
+  </si>
+  <si>
+    <t>mac-2-4.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用許諾契約をはじめます。「続ける」をクリックしてください。 
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">実際にインストーラからファイルを書き込むステップに入ります。「インストール」をクリックしてください。 
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macのシステム領域にファイルを書き込みますので、管理者権限を持っている利用者であることを確認するため、認証を求められます。6ページで作った利用者名とパスワードを入力してください。広大パスワードではないので、間違えないように。 
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">しばらくまつと、ポロリンと音がなり、このような画面になります。「閉じる」をクリックしてインストーラを終了させましょう。
+&lt;p class="spl"&gt;※ インストールは終了ですが、この段階ではまだ使えません。使い始めるには「ライセンス認証」が必要です。それには、インターネットに接続されていることが必要ですので、のちほど行います。 &lt;/p&gt;
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、ウィルス対策ソフトのESET Endpoint Antivirus (以下 ESET EA) をインストールします。
+ まず、USBメモリからコピーしたフォルダにある eset_osx_ja.pkg をダブルクリック。インストーラが立ち上がります。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">さきほどのOfficeの時と同様、使用許諾契約の段階に入ります。「続ける」をクリックしてください。 
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">「同意する」をクリックしてください。しないと先に進めません... 
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macにログインするときに使うパスワードを入力し、「ソフトウェアをインストール」としてください。 このあと特に警告が出なければ、[31]のChromeを入れる手順に進んでかまいません。
+  </t>
+    <rPh sb="53" eb="54">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次にChromeをインストールしましょう。googlechrome.dmgをダブルクリックすると、Chromeが入っているフォルダが開きます。これを下に見えている「A」のついたフォルダにドラッグしてコピーしてください。Chromeのインストールはこれで終了です。
+&lt;p class="spl"&gt; ※ macOSにはSafariというWebブラウザが標準的なものとして付属してきますが、うまく表示できないWebページもときどきあります。そういうときに、「もう一つのブラウザ」としてこのChromeを使ってみてください。&lt;/p&gt;
+&lt;p class="spl"&gt;※ (今はまあどうでもいいこと）「A」のフォルダの左下に小さな矢印がついていますね。Macでは、フォルダやファイルの実体とは別の場所に、その実体と同じ動作をするようなものを作ることができます。その影武者のような項目を「エイリアス」と呼びます。左下の矢印は、この項目がエイリアスであることを示しています。右クリックして「オリジナルを表示」とすると、この項目が、あなたのMacの「アプリケーション」フォルダのエイリアスであることがわかります。 &lt;/p&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mac-2-23.png</t>
+  </si>
+  <si>
+    <t>ここでは、第３章、第４章で説明しているソフトウェアのダウンロードがうまくいかない場合に、メディアセンターで配布用USBを借りてソフトウェアをインストールする方法を説明します。
+&lt;ul&gt;&lt;li&gt;&lt;a href="#copy"&gt;USBメモリからファイルをコピーする&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#office"&gt;Officeを入れる&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#eset"&gt;ESET EAを入れる&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#chrome"&gt;Chromeを入れる&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;</t>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ハイフ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-24.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-22.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-21.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右のような画面になるので、「個人所有PCのOffice製品は、Office365 Pro Plusをご利用ください」をクリックします。</t>
     <rPh sb="0" eb="1">
       <t>ミギ</t>
     </rPh>
-    <rPh sb="1" eb="2">
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-4-25.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mac-4-11.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ダウンロードしたファイルを実行すると右図のような表示が出るので、Chromeのアイコンを下に見えている「A」のついたフォルダにドラッグしてコピーしてください。Chromeのインストールはこれで終了です。
+&lt;p class="spl"&gt; ※ macOSにはSafariというWebブラウザが標準的なものとして付属してきますが、うまく表示できないWebページもときどきあります。そういうときに、「もう一つのブラウザ」としてこのChromeを使ってみてください。&lt;/p&gt;  </t>
+    <rPh sb="18" eb="19">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
       <t>ズ</t>
     </rPh>
-    <rPh sb="6" eb="8">
+    <rPh sb="24" eb="26">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="9" eb="10">
+    <rPh sb="27" eb="28">
       <t>デ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-41.ｓｖｇ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2047,6 +2202,540 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF271FC4-129F-4F71-9511-33294FAB9AAD}">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView topLeftCell="C36" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="130" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D18"/>
@@ -2587,9 +3276,429 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="113" workbookViewId="0">
+    <sheetView topLeftCell="B29" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFDDE6-1E06-4807-90D9-56730BF2F634}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="138" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -2606,7 +3715,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2614,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2630,401 +3739,6 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFDDE6-1E06-4807-90D9-56730BF2F634}">
-  <dimension ref="A1:D36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="138" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3033,7 +3747,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3049,55 +3763,73 @@
     </row>
     <row r="8" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
       <c r="B9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3105,83 +3837,83 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3189,55 +3921,55 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3245,140 +3977,118 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="D32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
       <c r="B34" s="1" t="s">
-        <v>263</v>
+        <v>299</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D35" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -3440,7 +4150,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3534,7 +4244,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -3548,7 +4258,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -3568,8 +4278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3609,7 +4319,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -4116,10 +4826,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4132,73 +4842,82 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>199</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7B9E8B-4EEC-43C5-B583-04DBE338EBCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68625671-6D17-4730-B1F2-729734761360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="1400" windowWidth="13500" windowHeight="8270" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28020" yWindow="810" windowWidth="13500" windowHeight="8265" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="302">
   <si>
     <t>header1</t>
   </si>
@@ -1197,13 +1197,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ウィルス対策ソフトとChromeをインストールしましょう</t>
-    <rPh sb="4" eb="6">
-      <t>タイサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ESET EAとChromeのインストール</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1321,10 +1314,6 @@
     <rPh sb="28" eb="30">
       <t>ドウイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-42.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1741,6 +1730,57 @@
   </si>
   <si>
     <t>win10-2-41.ｓｖｇ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mac-2-24.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Macの電源を初めて入れるときに行う設定です。該当しない方はこの章を飛ばして第１章から始めてください。</t>
+    <rPh sb="4" eb="6">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィルス対策ソフトとChromeをインストールしましょう。</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2223,7 +2263,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2231,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2247,7 +2287,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2255,7 +2295,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2266,7 +2306,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2274,13 +2314,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2288,13 +2328,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -2302,13 +2342,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2316,18 +2356,18 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2335,13 +2375,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2349,7 +2389,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2377,7 +2417,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2391,7 +2431,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2419,7 +2459,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2438,7 +2478,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2494,7 +2534,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2508,7 +2548,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2578,7 +2618,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2695,13 +2735,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2738,10 +2778,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2754,54 +2794,48 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2809,27 +2843,27 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2837,41 +2871,41 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2879,83 +2913,83 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2963,12 +2997,26 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2982,8 +3030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3278,8 +3326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="B29" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="B1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3343,7 +3391,7 @@
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3371,7 +3419,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3385,23 +3433,23 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3698,8 +3746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFDDE6-1E06-4807-90D9-56730BF2F634}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="138" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3715,7 +3763,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3723,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3747,7 +3795,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3763,10 +3811,10 @@
     </row>
     <row r="8" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3774,34 +3822,34 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3809,7 +3857,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3865,7 +3913,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3879,7 +3927,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3949,7 +3997,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -4063,18 +4111,18 @@
     </row>
     <row r="32" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D32" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D33" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4082,18 +4130,19 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4150,7 +4199,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4244,7 +4293,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -4258,7 +4307,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -4319,7 +4368,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -4842,10 +4891,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68625671-6D17-4730-B1F2-729734761360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB01C0AF-15F1-466C-8C15-CC7FBC7E13E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28020" yWindow="810" windowWidth="13500" windowHeight="8265" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26880" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="303">
   <si>
     <t>header1</t>
-  </si>
-  <si>
-    <t>広島大学必携PC初期講習会</t>
   </si>
   <si>
     <t>template</t>
@@ -219,13 +216,6 @@
   </si>
   <si>
     <t>学内ネットワークへの接続</t>
-  </si>
-  <si>
-    <t xml:space="preserve">設定にはいる前に、広島大学で情報サービスを使うときに必要がIDが二種類あることを確認しましょう。学生の場合、二種類とも学生番号をもとにしています。
-一つは「広大ID」。これは学生番号と同じ文字列です。もう一つはメディアセンターの「アカウント名」です。こちらは、先頭の一文字を小文字にしたものになっています。
-対応するパスワードは、どちらも共通です。「広大パスワード」と呼んでいます。学生証と一緒に配布されます。
-アカウント名に「@hiroshima-u.ac.jp」をつけたものを広大メールアドレスと呼んでいます。このメールアドレスは、広大学生として公式のものになります。事務連絡、教員からの連絡等ありますので、日常的にチェックするようにしましょう。チェックする方法は、5節で紹介します。
-  </t>
   </si>
   <si>
     <t>win10-4-01.svg</t>
@@ -1108,11 +1098,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Macのシステム領域にファイルを書き込みますので、管理者権限を持っている利用者であることを確認するため、認証を求められます。6ページで作った利用者名とパスワードを入力してください。広大パスワードではないので、間違えないように。 
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">まだあなたのPCにMicrosoft Officeがないなら、以下の手引きに従ってインストールしましょう。
 広島大学では、マイクロソフト社との包括ライセンス契約（Microsoft Enrollment for Education Solutions）を結んでいます。これによって広島大学の学生は広島大学が定める利用要領に基づいて、いくつかのマイクロソフト社製ソフトウェア製品（Microsoft Office等）を無償で利用することができます。
 Microsoft Office については、広島大学の学生は個人所有のPCでいくつでも無償で利用することができます。
@@ -1201,20 +1186,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ソフトのインストールに必要なファイルを配布サイトからダウンロードしてから、インストールを開始します。ここでは、ウイルス対策ソフト（SCEP）とGoogle Chromeのインストールを行います。
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#eset"&gt;ESET EAを入れる&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#chrome"&gt;Chromeを入れる&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
- </t>
-    <rPh sb="19" eb="21">
-      <t>ハイフ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>左側メニューの「各種ソフトウェアのダウンロード」をクリックします。</t>
     <rPh sb="0" eb="2">
       <t>ヒダリガワ</t>
@@ -1313,23 +1284,6 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>ドウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">次にGoogle Chromeをインストールします。Web上の配布サイトから直接ダウンロードしましょう。
-&lt;a href="https://www.google.com/chrome/"&gt;https://www.google.com/chrome/&lt;/a&gt;
-（または「Chrome インストール」を検索して出てくるChromeダウンロードページ）
-で、「Chromeをダウンロード」をクリックしてください。
-</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="153" eb="154">
-      <t>デ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1389,44 +1343,6 @@
   </si>
   <si>
     <t>FRESTA-TEXT-2020 Mac chap.6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>まず、あなたのPCでは、すでにMicrosoft Office （Word, Excel, PowerPoint）が入っていて使えるでしょうか？。
-もし使えるのなら、それをそのまま使っていただければ結構です。この下の項目は飛ばして次の章へ進んでください。</t>
-    <rPh sb="58" eb="59">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ケッコウ</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>スス</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1780,6 +1696,124 @@
     <t>ウィルス対策ソフトとChromeをインストールしましょう。</t>
     <rPh sb="4" eb="6">
       <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学必携PC初期講習会（オンライン版）</t>
+    <rPh sb="19" eb="20">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">設定にはいる前に、広島大学で情報サービスを使うときに必要がIDが二種類あることを確認しましょう。学生の場合、二種類とも学生番号をもとにしています。
+一つは「広大ID」。これは学生番号と同じ文字列です。もう一つはメディアセンターの「アカウント名」です。こちらは、先頭の一文字を小文字にしたものになっています。
+対応するパスワードは、どちらも共通です。「広大パスワード」と呼んでいます。学生証と一緒に配布されます。
+アカウント名に「@hiroshima-u.ac.jp」をつけたものを広大メールアドレスと呼んでいます。このメールアドレスは、広大学生として公式のものになります。事務連絡、教員からの連絡等ありますので、日常的にチェックするようにしましょう。チェックする方法は、第５章で紹介します。
+  </t>
+    <rPh sb="335" eb="336">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="337" eb="338">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まず、あなたのPCでは、すでにMicrosoft Office （Word, Excel, PowerPoint）が入っていて使えるでしょうか？。
+&lt;strong&gt;もし使えるのなら、それをそのまま使っていただければ結構です。&lt;/strong&gt;この下の項目は飛ばして次の章へ進んでください。</t>
+    <rPh sb="58" eb="59">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ケッコウ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Macのシステム領域にファイルを書き込みますので、管理者権限を持っている利用者であることを確認するため、認証を求められます。あなたのPCの利用者名とパスワードを入力してください。広大パスワードではないので、間違えないように。 
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">他のウィルス対策ソフトが入っていないか確認してきます。なければ、「続ける」をクリックしましょう。 
+&lt;p class="spl"&gt;もし他に何か入っているなら、ESETを入れるのはやめてそのままそれを使いましょう。この下の項目を飛ばして「Chromeを入れる」に進んでください。&lt;/p&gt; 
+  </t>
+    <rPh sb="84" eb="85">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Chromeをインストールします。Web上の配布サイトから直接ダウンロードしましょう。
+&lt;a href="https://www.google.com/chrome/"&gt;https://www.google.com/chrome/&lt;/a&gt;
+（または「Chrome インストール」を検索して出てくるChromeダウンロードページ）
+で、「Chromeをダウンロード」をクリックしてください。
+</t>
+    <rPh sb="147" eb="149">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ソフトのインストールに必要なファイルを配布サイトからダウンロードしてから、インストールを開始します。ここでは、Google Chromeとウイルス対策ソフト（SCEP）のインストールを行います。
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="#chrome"&gt;Chromeを入れる&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#eset"&gt;ESET EAを入れる&lt;/a&gt;
+&lt;/li&gt; &lt;/ul&gt;
+ </t>
+    <rPh sb="19" eb="21">
+      <t>ハイフ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2173,7 +2207,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2189,56 +2223,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2260,10 +2295,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2271,502 +2306,502 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="130" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2781,7 +2816,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2794,10 +2829,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2805,219 +2840,219 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
         <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
         <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3031,7 +3066,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3044,10 +3079,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3055,121 +3090,121 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3184,7 +3219,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3197,10 +3232,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3208,117 +3243,118 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>297</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3326,8 +3362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B18" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3340,10 +3376,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3351,389 +3387,389 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D13" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3746,8 +3782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFDDE6-1E06-4807-90D9-56730BF2F634}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="138" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3760,10 +3796,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3771,372 +3807,372 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="D8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
+        <v>251</v>
       </c>
       <c r="D9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>251</v>
+        <v>291</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D11" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
+      </c>
+      <c r="D12" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="19" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="21" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>78</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>249</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="31" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="32" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="33" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
         <v>98</v>
       </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D32" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D33" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4150,8 +4186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4164,10 +4200,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4175,145 +4211,145 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4341,10 +4377,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4352,518 +4388,518 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" t="s">
         <v>137</v>
-      </c>
-      <c r="C17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4891,10 +4927,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4902,66 +4938,66 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB01C0AF-15F1-466C-8C15-CC7FBC7E13E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50BB313-7CB8-415B-9AE3-60A051F0D916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26880" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="2280" windowWidth="17000" windowHeight="7770" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -610,29 +610,7 @@
     <t>win10-6-16.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">2回目からはログインしたら、この画面が出ます。
-真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
-ここに並んでいるコースは、あなたが受講する授業に関連したものと、そうでないものがあります。今並んでいるものを簡単に説明すると：
-&lt;dl&gt;&lt;dt&gt;大学教育入門&lt;/dt&gt;
-&lt;dd&gt;「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。&lt;/dd&gt;
-&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
-&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届け」を提出する必要があります。このコースでは、点検届けが提出できます。この講習会のあとで各自開いて実施してください。&lt;/dd&gt;
-&lt;dt&gt;Information Security and Compliance (情報セキュリティ・コンプライアンス)&lt;/dt&gt;
-&lt;dd&gt;「情報セキュリティ・コンプライアンス講習」は、広島大学でパソコンやネットワークを安全に使うための講座です。学生だけでなく、教職員を含めた全構成員必修の内容です。講習は、教室での講義とオンライン学習（このコース）からなっています。6月末までにこのコースの中にある確認テストに合格し、「&lt;em&gt;アカウント利用確認&lt;/em&gt;
-」の手続きをおこなわないと、アカウントがロックされ、メール等が使えなくなります。&lt;/dd&gt;
- &lt;/dl&gt;
-  </t>
-  </si>
-  <si>
     <t>win10-6-17.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bb9で配布されている教材を開けることを確認するため、「大学教育入門」のコースをみてみましょう。
-転入生の方は、「大学教育入門」がありませんので、「Information Security and Compliance」のコースを開いて、スライドなどがみられることを確認してください。
-「大学教育入門」では、授業に参加する前に各自必携PCに教材をダウンロードしておくことが求められています。先ほど開いたメールにその旨の指示が来ていたと思います。
-ここでは、第1週に実施される講義の資料をダウンロードする手順を紹介しておきます。
-まず、コース一覧から「2019大学教育入門...」をクリックしてコースを開きましょう。
-  </t>
   </si>
   <si>
     <t>win10-6-18.svg</t>
@@ -759,44 +737,6 @@
 2020年4月&lt;br&gt;
  広島大学 情報メディア教育研究センター&lt;br&gt;
  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>必携PCを使っていて、わからないことや困ったことがあったら、情報メディア教育研究センターに相談してください。
-&lt;dl&gt;&lt;dt&gt;対面窓口&lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;メディアセンター本館、東分室（東図書館内）、サービスデスク（西図書館内、中央図書館内）、霞分室（基礎講義棟1F）&lt;/dd&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;アクセスマップ&lt;/a&gt;&lt;/dd&gt;&lt;dt&gt;Web質問窓口: &lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
-&lt;/dd&gt;</t>
-    <rPh sb="99" eb="100">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ブンシツ</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="104" eb="107">
-      <t>トショカン</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="126" eb="129">
-      <t>トショカン</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>ナイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1815,6 +1755,129 @@
     <rPh sb="19" eb="21">
       <t>ハイフ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必携PCの設定・点検についてわからないことや困ったことがあったら、下記窓口に相談してください。
+&lt;dl&gt;&lt;dt&gt;対面窓口&lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;初期講習会会場（日時場所は下記Webページ内）&lt;/dd&gt;
+&lt;dd&gt;&lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;&lt;/dd&gt;
+&lt;dd&gt;（4/4～5 13:00～17:00）メディアセンター本館特設会場&lt;/dd&gt;
+&lt;dd&gt;（平日 8:45～16:45）メディアセンター本館、東分室（東図書館内）、サービスデスク（西図書館内、中央図書館内）、霞分室（基礎講義棟1F）&lt;/dd&gt;
+&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;アクセスマップ&lt;/a&gt;
+&lt;dd&gt;（4/4～5 10:00～19:00、平日 10:00～17:00）広島大学生協新入生サポートセンター&lt;/dd&gt;
+&lt;/dd&gt;&lt;dt&gt;Web質問窓口: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
+&lt;/dd&gt;&lt;dt&gt;メール質問窓口: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;&lt;/dd&gt;</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>マドグチ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="83" eb="86">
+      <t>コウシュウカイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="256" eb="258">
+      <t>トクセツ</t>
+    </rPh>
+    <rPh sb="258" eb="260">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="271" eb="273">
+      <t>ヘイジツ</t>
+    </rPh>
+    <rPh sb="296" eb="297">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="297" eb="299">
+      <t>ブンシツ</t>
+    </rPh>
+    <rPh sb="300" eb="301">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="301" eb="304">
+      <t>トショカン</t>
+    </rPh>
+    <rPh sb="304" eb="305">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="319" eb="320">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="321" eb="323">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="323" eb="326">
+      <t>トショカン</t>
+    </rPh>
+    <rPh sb="326" eb="327">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="456" eb="458">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="458" eb="460">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="460" eb="462">
+      <t>セイキョウ</t>
+    </rPh>
+    <rPh sb="462" eb="465">
+      <t>シンニュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2回目からはログインしたら、この画面が出ます。
+真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
+ここに並んでいるコースは、あなたが受講する授業に関連したものと、そうでないものがあります。今並んでいるものを簡単に説明すると：
+&lt;dl&gt;&lt;dt&gt;大学教育入門&lt;/dt&gt;
+&lt;dd&gt;「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。&lt;/dd&gt;
+&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
+&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届け」を提出する必要があります。このコースでは、点検届けが提出できます。&lt;strong&gt;このテキストによる設定・点検を済ませたあと、できるだけ早くにこのコースを開いて点検届を提出してください。&lt;/strong&gt;&lt;/dd&gt;
+&lt;dt&gt;Information Security and Compliance (情報セキュリティ・コンプライアンス)&lt;/dt&gt;
+&lt;dd&gt;「情報セキュリティ・コンプライアンス講習」は、広島大学でパソコンやネットワークを安全に使うための講座です。学生だけでなく、教職員を含めた全構成員必修の内容です。講習は、教室での講義とオンライン学習（このコース）からなっています。6月末までにこのコースの中にある確認テストに合格し、「&lt;em&gt;アカウント利用確認&lt;/em&gt;
+」の手続きをおこなわないと、アカウントがロックされ、メール等が使えなくなります。&lt;/dd&gt;
+ &lt;/dl&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bb9で配布されている教材を開けることを確認するため、「大学教育入門」のコースをみてみましょう。
+転入生の方は、「大学教育入門」がありませんので、「Information Security and Compliance」のコースを開いて、スライドなどがみられることを確認してください。
+「大学教育入門」では、授業に参加する前に各自必携PCに教材をダウンロードしておくことが求められています。先ほど開いたメールにその旨の指示が来ていたと思います。
+ここでは、第1週に実施される講義の資料をダウンロードする手順を紹介しておきます。
+まず、コース一覧から「2020大学教育入門...」をクリックしてコースを開きましょう。
+  </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2223,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2239,7 +2302,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2247,7 +2310,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2298,7 +2361,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2306,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2322,7 +2385,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2330,7 +2393,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2341,7 +2404,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2349,13 +2412,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2363,13 +2426,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -2377,13 +2440,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2391,18 +2454,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2410,13 +2473,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2424,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2452,7 +2515,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2466,7 +2529,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -2494,7 +2557,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2513,7 +2576,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -2569,7 +2632,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -2583,7 +2646,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -2653,7 +2716,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -2667,7 +2730,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -2737,7 +2800,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -2770,13 +2833,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2784,7 +2847,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -2832,7 +2895,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2856,7 +2919,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3106,7 +3169,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3142,13 +3205,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3259,12 +3322,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3272,7 +3335,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3286,7 +3349,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -3379,7 +3442,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3387,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3403,7 +3466,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3411,7 +3474,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3422,12 +3485,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3435,13 +3498,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3449,13 +3512,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3463,37 +3526,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D13" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3501,18 +3564,18 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3520,7 +3583,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -3548,7 +3611,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -3562,7 +3625,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -3590,7 +3653,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -3601,7 +3664,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3609,7 +3672,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -3623,7 +3686,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -3637,7 +3700,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -3651,7 +3714,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -3665,7 +3728,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -3679,7 +3742,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -3693,7 +3756,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -3707,7 +3770,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -3721,7 +3784,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -3735,7 +3798,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -3749,13 +3812,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3763,7 +3826,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -3782,7 +3845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFDDE6-1E06-4807-90D9-56730BF2F634}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="138" workbookViewId="0">
+    <sheetView topLeftCell="B15" zoomScale="138" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -3799,7 +3862,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3807,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3823,7 +3886,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3831,7 +3894,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3847,18 +3910,18 @@
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3866,13 +3929,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3882,10 +3945,10 @@
     </row>
     <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3893,34 +3956,34 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3928,7 +3991,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -3956,7 +4019,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -3984,7 +4047,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -3998,7 +4061,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -4068,7 +4131,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -4082,7 +4145,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -4152,7 +4215,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -4227,7 +4290,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4235,7 +4298,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4254,7 +4317,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -4268,7 +4331,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -4282,7 +4345,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -4293,7 +4356,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4301,7 +4364,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -4315,7 +4378,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -4329,7 +4392,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -4343,7 +4406,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -4363,8 +4426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4404,7 +4467,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -4412,7 +4475,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4517,10 +4580,10 @@
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4528,13 +4591,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4748,13 +4811,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
         <v>162</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4762,13 +4825,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>164</v>
+        <v>302</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4776,13 +4839,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4790,13 +4853,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4804,13 +4867,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4818,18 +4881,18 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4837,7 +4900,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -4851,13 +4914,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4865,13 +4928,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4879,13 +4942,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -4893,13 +4956,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4913,8 +4976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4927,10 +4990,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4938,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4954,7 +5017,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4962,7 +5025,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4973,12 +5036,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>196</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4986,7 +5049,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -4997,7 +5060,7 @@
     </row>
     <row r="10" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50BB313-7CB8-415B-9AE3-60A051F0D916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508AC9D9-0AB9-43FC-95D4-48D76A328E96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="2280" windowWidth="17000" windowHeight="7770" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29295" yWindow="2070" windowWidth="17925" windowHeight="12450" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -204,11 +204,6 @@
     <t>mac-1-05.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">アクティビティモニタのウィンドウで、まず「エネルギー」タブをクリックしてください。
- この画面の下の方に、現在のバッテリー情報がかかれています。あと4時間40分使えるとあります。充電状況が100%のときにこの「残り時間」を調べれば、それがあなたのMacのバッテリー駆動時間ということになります。&lt;span class="check"&gt;check-3&lt;/span&gt;
- この数字は推測値であり、プログラムの動作状況によって大きく上下することに注意してください。   </t>
-  </si>
-  <si>
     <t>mac-1-06.svg</t>
   </si>
   <si>
@@ -246,11 +241,6 @@
     <t>mac-3-3.png</t>
   </si>
   <si>
-    <t xml:space="preserve">この画面になったら「続ける」をクリックしてください。
- これで接続の設定が完了しました。 接続が完了すると「接続済み」と表示されます。&lt;span class="check"&gt;check-4&lt;/span&gt;
-  </t>
-  </si>
-  <si>
     <t>mac-3-4.png</t>
   </si>
   <si>
@@ -520,13 +510,6 @@
     <t>win10-6-06.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">メールの画面が開きます。
-大学からの電子メールでの連絡は、広大メールで来ます。
-常にメールチェックするようにしてください。&lt;span class="check"&gt;check-10&lt;/span&gt;
-スマホのOutlookアプリでも、複雑な設定は必要なくメールの送受信が可能です。ここは必携PC設定の手順を示していますので、Web版をお知らせしましたが、スマホ版の方が使いやすく、新規メールが届いた時の通知もありますので、おすすめです。
-&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
-  </si>
-  <si>
     <t>win10-6-07.svg</t>
   </si>
   <si>
@@ -556,12 +539,6 @@
   </si>
   <si>
     <t>win10-6-10.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">するとこのような画面になります。&lt;span class="check"&gt;check-11&lt;/span&gt;
-履修登録をしたり、成績を確認することができます。
-また「掲示」では、授業や学部からの連絡が表示されます。
-  </t>
   </si>
   <si>
     <t>win10-6-11.svg</t>
@@ -640,11 +617,6 @@
   </si>
   <si>
     <t>mac-5-23.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「大学教育入門」の第1週では、&lt;em&gt;第1章と第6章&lt;/em&gt;
-を扱いますので、同じようにして第6章に掲載されているファイルもダウンロードしておきましょう。&lt;span class="check"&gt;check-13&lt;/span&gt;
-  </t>
   </si>
   <si>
     <t>mac-5-24.png</t>
@@ -816,22 +788,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">  「Macを自動的に最新の状態に保つ」のところにチェックが入っていることを確認してください。入ってなければ入れてください。 &lt;span class="check"&gt;check-5&lt;span&gt; &lt;/span&gt;
-&lt;/span&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 次にウイルス対策ソフトの設定を確認しましょう。 画面右上にある青い「e」のアイコンをクリックしましょう。 表示されるメニューから「ESET Endpoint Antivirus を開く」をクリックします。  
  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> 「アップデート」のタブから状態を確認しましょう。 「更新は必要ありません」となっていたらOKです。&lt;span class="check"&gt;check-6,7&lt;/span&gt;
- 最新でない場合は「モジュールのアップロード」をクリックして、アップデートしましょう。 ウイルス定義データが常に最新でないと、新しいウイルスからパソコンを守ることができません。 常に最新にしておきましょう。  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 次に、Officeのライセンス認証をします。ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための処理です。 Dockの中から、ロケットのアイコンの「Launchpad」をクリックしてください。  </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -863,11 +824,6 @@
   </si>
   <si>
     <t xml:space="preserve">  「今すぐWordを使ってみる」をクリックしてください。  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  Wordの新規作成の画面が開きました。 これで、PowerPointやExcelなどMicrosoft Officeの他のアプリケーションも使えるようになります。&lt;span class="check"&gt;check-9&lt;/span&gt;
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1165,23 +1121,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Macにログインするときに使うパスワードを入力し、「ソフトウェアをインストール」としてください。 このあと特に警告が出なければ、&lt;a href="#chrome"&gt;Chromeを入れる&lt;/a&gt;に進んでかまいません。
-  </t>
-    <rPh sb="53" eb="54">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「学生の個人所有PCへのインストールはここから」をクリックします。</t>
     <rPh sb="1" eb="3">
       <t>ガクセイ</t>
@@ -1262,22 +1201,6 @@
     </rPh>
     <rPh sb="65" eb="67">
       <t>デンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">「検査プロファイル」として「詳細検査」を、「検査対象」として「Macintosh HD」を選んでください。Macintosh HDは、Macに内蔵されている副記憶装置(HDDもしくはSDD）を指します。「検査」をクリックすると、フルスキャンが始まります。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-フルスキャンの実行には数時間かかりますので、時間の余裕のあるときにできるだけ早く実行し、点検届けを完成させてください。
-  </t>
-    <rPh sb="188" eb="191">
-      <t>スウジカン</t>
-    </rPh>
-    <rPh sb="199" eb="201">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="202" eb="204">
-      <t>ヨユウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1877,6 +1800,88 @@
 「大学教育入門」では、授業に参加する前に各自必携PCに教材をダウンロードしておくことが求められています。先ほど開いたメールにその旨の指示が来ていたと思います。
 ここでは、第1週に実施される講義の資料をダウンロードする手順を紹介しておきます。
 まず、コース一覧から「2020大学教育入門...」をクリックしてコースを開きましょう。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">アクティビティモニタのウィンドウで、まず「エネルギー」タブをクリックしてください。
+ この画面の下の方に、現在のバッテリー情報がかかれています。あと4時間40分使えるとあります。充電状況が100%のときにこの「残り時間」を調べれば、それがあなたのMacのバッテリー駆動時間ということになります。
+ この数字は推測値であり、プログラムの動作状況によって大きく上下することに注意してください。   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">この画面になったら「続ける」をクリックしてください。
+ これで接続の設定が完了しました。 接続が完了すると「接続済み」と表示されます。&lt;span class="check"&gt;check-3&lt;/span&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wordの新規作成の画面が開きました。 これで、PowerPointやExcelなどMicrosoft Officeの他のアプリケーションも使えるようになります。&lt;span class="check"&gt;check-8&lt;/span&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Macにログインするときに使うパスワードを入力し、「ソフトウェアをインストール」としてください。 このあと特に警告が出なければ、&lt;a href="#chrome"&gt;Chromeを入れる&lt;/a&gt;に進んでかまいません。&lt;span class="check"&gt;check-5&lt;/span&gt;
+  </t>
+    <rPh sb="53" eb="54">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  「Macを自動的に最新の状態に保つ」のところにチェックが入っていることを確認してください。入ってなければ入れてください。 &lt;span class="check"&gt;check-4&lt;span&gt; &lt;/span&gt;
+&lt;/span&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「検査プロファイル」として「詳細検査」を、「検査対象」として「Macintosh HD」を選んでください。Macintosh HDは、Macに内蔵されている副記憶装置(HDDもしくはSDD）を指します。「検査」をクリックすると、フルスキャンが始まります。&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+フルスキャンの実行には数時間かかりますので、時間の余裕のあるときにできるだけ早く実行し、点検届を完成させてください。
+  </t>
+    <rPh sb="188" eb="191">
+      <t>スウジカン</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>ヨユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 「アップデート」のタブから状態を確認しましょう。 「更新は必要ありません」となっていたらOKです。&lt;span class="check"&gt;check-6&lt;/span&gt;
+ 最新でない場合は「モジュールのアップロード」をクリックして、アップデートしましょう。 ウイルス定義データが常に最新でないと、新しいウイルスからパソコンを守ることができません。 常に最新にしておきましょう。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">メールの画面が開きます。
+大学からの電子メールでの連絡は、広大メールで来ます。
+常にメールチェックするようにしてください。&lt;span class="check"&gt;check-9&lt;/span&gt;
+スマホのOutlookアプリでも、複雑な設定は必要なくメールの送受信が可能です。ここは必携PC設定の手順を示していますので、Web版をお知らせしましたが、スマホ版の方が使いやすく、新規メールが届いた時の通知もありますので、おすすめです。
+&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">するとこのような画面になります。&lt;span class="check"&gt;check-10&lt;/span&gt;
+履修登録をしたり、成績を確認することができます。
+また「掲示」では、授業や学部からの連絡が表示されます。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「大学教育入門」の第1週では、&lt;em&gt;第1章と第6章&lt;/em&gt;
+を扱いますので、同じようにして第6章に掲載されているファイルもダウンロードしておきましょう。&lt;span class="check"&gt;check-11&lt;/span&gt;
   </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2286,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2302,7 +2307,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2310,7 +2315,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2361,7 +2366,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2369,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2385,7 +2390,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2393,7 +2398,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2404,7 +2409,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2412,13 +2417,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2426,13 +2431,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -2440,13 +2445,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2454,18 +2459,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2473,13 +2478,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2487,13 +2492,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2501,13 +2506,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2515,13 +2520,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2529,13 +2534,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2543,13 +2548,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2557,18 +2562,18 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2576,13 +2581,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2590,13 +2595,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2604,13 +2609,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2618,13 +2623,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2632,13 +2637,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2646,13 +2651,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2660,13 +2665,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2674,13 +2679,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2688,13 +2693,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2702,13 +2707,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2716,13 +2721,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2730,13 +2735,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2744,13 +2749,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2758,13 +2763,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2772,13 +2777,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2786,13 +2791,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2800,13 +2805,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2814,18 +2819,18 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="130" x14ac:dyDescent="0.2">
@@ -2833,13 +2838,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2847,7 +2852,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -2895,7 +2900,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2919,7 +2924,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3128,8 +3133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3169,7 +3174,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3205,13 +3210,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3256,18 +3261,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>293</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3281,8 +3286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3298,7 +3303,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3306,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3322,12 +3327,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3335,13 +3340,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3349,13 +3354,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3363,13 +3368,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3377,13 +3382,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -3391,13 +3396,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3405,13 +3410,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>294</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3425,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="B28" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3442,7 +3447,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3450,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3466,7 +3471,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3474,7 +3479,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3485,12 +3490,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3498,13 +3503,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3512,13 +3517,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3526,37 +3531,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D12" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D13" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D14" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3564,18 +3569,18 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3583,13 +3588,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3597,13 +3602,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3611,13 +3616,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3625,13 +3630,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3639,13 +3644,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3653,18 +3658,18 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3672,13 +3677,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3686,13 +3691,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3700,13 +3705,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3714,13 +3719,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3728,13 +3733,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3742,13 +3747,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3756,13 +3761,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -3770,13 +3775,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3784,13 +3789,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>216</v>
+        <v>295</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3798,13 +3803,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3812,13 +3817,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3826,13 +3831,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3845,8 +3850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFDDE6-1E06-4807-90D9-56730BF2F634}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" zoomScale="138" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="B24" zoomScale="138" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3862,7 +3867,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3870,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3886,7 +3891,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3894,7 +3899,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3905,23 +3910,23 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3929,26 +3934,26 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3956,34 +3961,34 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D14" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D15" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3991,13 +3996,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4005,13 +4010,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4019,13 +4024,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4033,13 +4038,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4047,13 +4052,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4061,13 +4066,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4075,13 +4080,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4089,13 +4094,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4103,13 +4108,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4117,13 +4122,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4131,13 +4136,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4145,13 +4150,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4159,13 +4164,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4173,13 +4178,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4187,13 +4192,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4201,13 +4206,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4215,13 +4220,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4229,13 +4234,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4249,8 +4254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4266,7 +4271,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4274,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4290,7 +4295,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4298,7 +4303,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4309,7 +4314,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4317,13 +4322,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4331,13 +4336,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4345,18 +4350,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>205</v>
+        <v>297</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4364,13 +4369,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4378,13 +4383,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>207</v>
+        <v>299</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -4392,13 +4397,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4406,13 +4411,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4426,8 +4431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4443,7 +4448,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4451,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4467,7 +4472,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -4475,7 +4480,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4486,7 +4491,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4508,13 +4513,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4522,18 +4527,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4555,13 +4560,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4569,21 +4574,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D15" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4591,13 +4596,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4605,13 +4610,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" t="s">
         <v>135</v>
-      </c>
-      <c r="C17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4619,13 +4624,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4633,13 +4638,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4647,13 +4652,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4661,18 +4666,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4694,13 +4699,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4708,13 +4713,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>149</v>
+        <v>301</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4722,18 +4727,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4755,13 +4760,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4769,13 +4774,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4783,13 +4788,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4797,13 +4802,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -4811,13 +4816,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4825,13 +4830,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4839,13 +4844,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4853,13 +4858,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4867,13 +4872,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4881,18 +4886,18 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>170</v>
+        <v>302</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4900,7 +4905,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -4914,13 +4919,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4928,13 +4933,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4942,13 +4947,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -4956,13 +4961,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4990,10 +4995,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5001,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5017,7 +5022,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5025,7 +5030,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5036,12 +5041,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5049,7 +5054,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -5060,7 +5065,7 @@
     </row>
     <row r="10" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508AC9D9-0AB9-43FC-95D4-48D76A328E96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1EC766-84C1-4BE1-B6C1-5A8A01423EEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29295" yWindow="2070" windowWidth="17925" windowHeight="12450" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35055" yWindow="2535" windowWidth="13425" windowHeight="10575" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="300">
   <si>
     <t>header1</t>
   </si>
@@ -588,38 +588,6 @@
   </si>
   <si>
     <t>win10-6-17.svg</t>
-  </si>
-  <si>
-    <t>win10-6-18.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左メニューの「テキスト・スライド資料」をクリックすると右側にフォルダが表示されます。各週の資料がまとめられていますね。
-「第1章　大学で何を学ぶか（各学部・プログラム）」をクリックして開きましょう。
-  </t>
-  </si>
-  <si>
-    <t>mac-5-21.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フォルダの中には三つのファイルがあります。
-ファイルのリンクをクリックすると、この場で内容を確認できます。
-授業の準備として事前にダウンロードしたい場合は、リンクを右クリックします。
-右クリックして表示されるメニューから「リンク先のファイルをダウンロード」としてください。
-  </t>
-  </si>
-  <si>
-    <t>mac-5-22.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">同様にして三つのファイルをダウンロードします。ダウンロードしたファイルはドックの右端、ゴミ箱の左隣からアクセスできます。そこをクリックすると、これまでダウンロードしたファイルが図のように表示されます。
-Safariを開いている時であれば、ウィンドウ上方の下向き矢印アイコンからもアクセスできます。
-  </t>
-  </si>
-  <si>
-    <t>mac-5-23.png</t>
-  </si>
-  <si>
-    <t>mac-5-24.png</t>
   </si>
   <si>
     <t>&lt;h2&gt;&lt;a name="omake"&gt;&lt;/a&gt;おまけ&lt;/h2&gt;</t>
@@ -1780,30 +1748,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">2回目からはログインしたら、この画面が出ます。
-真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
-ここに並んでいるコースは、あなたが受講する授業に関連したものと、そうでないものがあります。今並んでいるものを簡単に説明すると：
-&lt;dl&gt;&lt;dt&gt;大学教育入門&lt;/dt&gt;
-&lt;dd&gt;「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。&lt;/dd&gt;
-&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
-&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届け」を提出する必要があります。このコースでは、点検届けが提出できます。&lt;strong&gt;このテキストによる設定・点検を済ませたあと、できるだけ早くにこのコースを開いて点検届を提出してください。&lt;/strong&gt;&lt;/dd&gt;
-&lt;dt&gt;Information Security and Compliance (情報セキュリティ・コンプライアンス)&lt;/dt&gt;
-&lt;dd&gt;「情報セキュリティ・コンプライアンス講習」は、広島大学でパソコンやネットワークを安全に使うための講座です。学生だけでなく、教職員を含めた全構成員必修の内容です。講習は、教室での講義とオンライン学習（このコース）からなっています。6月末までにこのコースの中にある確認テストに合格し、「&lt;em&gt;アカウント利用確認&lt;/em&gt;
-」の手続きをおこなわないと、アカウントがロックされ、メール等が使えなくなります。&lt;/dd&gt;
- &lt;/dl&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Bb9で配布されている教材を開けることを確認するため、「大学教育入門」のコースをみてみましょう。
-転入生の方は、「大学教育入門」がありませんので、「Information Security and Compliance」のコースを開いて、スライドなどがみられることを確認してください。
-「大学教育入門」では、授業に参加する前に各自必携PCに教材をダウンロードしておくことが求められています。先ほど開いたメールにその旨の指示が来ていたと思います。
-ここでは、第1週に実施される講義の資料をダウンロードする手順を紹介しておきます。
-まず、コース一覧から「2020大学教育入門...」をクリックしてコースを開きましょう。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">アクティビティモニタのウィンドウで、まず「エネルギー」タブをクリックしてください。
  この画面の下の方に、現在のバッテリー情報がかかれています。あと4時間40分使えるとあります。充電状況が100%のときにこの「残り時間」を調べれば、それがあなたのMacのバッテリー駆動時間ということになります。
  この数字は推測値であり、プログラムの動作状況によって大きく上下することに注意してください。   </t>
@@ -1880,9 +1824,233 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">「大学教育入門」の第1週では、&lt;em&gt;第1章と第6章&lt;/em&gt;
-を扱いますので、同じようにして第6章に掲載されているファイルもダウンロードしておきましょう。&lt;span class="check"&gt;check-11&lt;/span&gt;
-  </t>
+    <t>2回目からはログインしたら、この画面が出ます。
+真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
+これらは、あなたの履修課目に関する授業支援や、広島大学において自習すべき教材などのコースです。新入生共通で表示されるものを簡単に説明すると：
+&lt;dl&gt;
+&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
+&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届」を提出する必要があります。このコースでは、点検届が提出できます。&lt;strong&gt;このテキストによる設定・点検を済ませたあと、できるだけ早くにこのコースを開いて点検届を提出してください。&lt;/strong&gt;&lt;/dd&gt;
+&lt;dt&gt;大学教育入門&lt;/dt&gt;
+&lt;dd&gt;「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。&lt;/dd&gt; &lt;/dl&gt;
+  &lt;p class="spl"&gt;※今年の「大学教育入門」は、新型コロナウィルス対策のために受講方法が例年と異なります。「もみじ」などでの案内によく注意してください。&lt;/p&gt;</t>
+    <rPh sb="71" eb="73">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="109" eb="112">
+      <t>シンニュウセイ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="262" eb="264">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="265" eb="267">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="268" eb="269">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="280" eb="281">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="289" eb="290">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="471" eb="473">
+      <t>コトシ</t>
+    </rPh>
+    <rPh sb="475" eb="477">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="477" eb="479">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="479" eb="481">
+      <t>ニュウモン</t>
+    </rPh>
+    <rPh sb="484" eb="486">
+      <t>シンガタ</t>
+    </rPh>
+    <rPh sb="493" eb="495">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="499" eb="501">
+      <t>ジュコウ</t>
+    </rPh>
+    <rPh sb="501" eb="503">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="504" eb="506">
+      <t>レイネン</t>
+    </rPh>
+    <rPh sb="507" eb="508">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="522" eb="524">
+      <t>アンナイ</t>
+    </rPh>
+    <rPh sb="527" eb="529">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bb9で配布されている教材をダウンロードできることを確認するため、「ノートパソコン点検届」のコースをみてみましょう。
+まず、コース一覧から「ノートパソコン点検届2020」をクリックしてコースを開きましょう。
+  </t>
+    <rPh sb="41" eb="43">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>トドケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">左メニューの「教材」をクリックすると右側にフォルダが表示されます。いちばん上は、点検届を提出するためのリンクです。
+２番目にある「点検届ワークシート/Checklist worksheet」をクリックして開きましょう。
+  </t>
+    <rPh sb="7" eb="9">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>トドケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このようにPDFファイルの内容が表示されます。使っているソフト（「環境」といったりしますね）によっては、画面に直接表示されない場合もあります。そのときは、「ここをクリックして〇〇を開いてください」をクリックします。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-31.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">掲載されているファイルを保存（ダウンロード）する一番簡単な方法は、この画面で表示内容を右クリックして保存することです。
+左クリックして表示されるメニューから「名前を付けて保存」をクリックします。
+  </t>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-32.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このテキストの第１章からここまで順に進んでいれば、点検届チェックリストがすべてチェックできているはずです。&lt;strong&gt;Bb9の「ノートパソコン点検届」コースを開いて、点検届を提出しましょう！&lt;/strong&gt;</t>
+    <rPh sb="7" eb="8">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>スス</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2291,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2307,7 +2475,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2315,7 +2483,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2366,7 +2534,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2374,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2390,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
@@ -2398,7 +2566,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2409,7 +2577,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2417,13 +2585,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2431,13 +2599,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -2445,13 +2613,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2459,18 +2627,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2478,13 +2646,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2492,7 +2660,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2520,7 +2688,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2534,7 +2702,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -2562,7 +2730,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2581,7 +2749,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -2637,7 +2805,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -2651,7 +2819,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -2721,7 +2889,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -2735,7 +2903,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -2805,7 +2973,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -2838,13 +3006,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2852,7 +3020,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -2900,7 +3068,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2924,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3174,7 +3342,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3210,13 +3378,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3266,7 +3434,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -3327,12 +3495,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3340,7 +3508,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3354,7 +3522,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -3410,7 +3578,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -3447,7 +3615,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3455,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3471,7 +3639,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3479,7 +3647,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3490,12 +3658,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3503,13 +3671,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3517,13 +3685,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3531,37 +3699,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D13" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3569,18 +3737,18 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3588,7 +3756,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -3616,7 +3784,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -3630,7 +3798,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -3658,7 +3826,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -3669,7 +3837,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3677,7 +3845,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -3691,7 +3859,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -3705,7 +3873,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -3719,7 +3887,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -3733,7 +3901,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -3747,7 +3915,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -3761,7 +3929,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -3775,7 +3943,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -3789,7 +3957,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -3803,7 +3971,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -3817,13 +3985,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3831,7 +3999,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -3867,7 +4035,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3875,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3891,7 +4059,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3899,7 +4067,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3915,18 +4083,18 @@
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3934,13 +4102,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3950,10 +4118,10 @@
     </row>
     <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D12" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3961,34 +4129,34 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D14" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3996,7 +4164,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -4024,7 +4192,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -4052,7 +4220,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -4066,7 +4234,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -4136,7 +4304,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -4150,7 +4318,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -4220,7 +4388,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -4295,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4303,7 +4471,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4322,7 +4490,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -4336,7 +4504,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -4350,7 +4518,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -4361,7 +4529,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4369,7 +4537,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -4383,7 +4551,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -4397,7 +4565,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -4411,7 +4579,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -4431,8 +4599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4472,7 +4640,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -4480,7 +4648,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4585,10 +4753,10 @@
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4596,13 +4764,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4638,7 +4806,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -4713,7 +4881,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -4811,12 +4979,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="182" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -4825,18 +4993,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4844,27 +5009,24 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>160</v>
+        <v>294</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
-      <c r="D35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>162</v>
+        <v>295</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4872,32 +5034,26 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>164</v>
+        <v>297</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>166</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4905,7 +5061,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -4919,13 +5075,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -4933,13 +5089,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -4947,13 +5103,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -4961,13 +5117,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4995,10 +5151,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5006,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5022,7 +5178,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5030,7 +5186,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5041,12 +5197,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5054,7 +5210,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -5065,7 +5221,7 @@
     </row>
     <row r="10" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1EC766-84C1-4BE1-B6C1-5A8A01423EEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F3D1E17-4846-44FC-A6A9-4C35D653B13F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35055" yWindow="2535" windowWidth="13425" windowHeight="10575" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31875" yWindow="2880" windowWidth="13425" windowHeight="10575" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,12 @@
     <sheet name="ch8" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="299">
   <si>
     <t>header1</t>
   </si>
@@ -1980,31 +1981,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">掲載されているファイルを保存（ダウンロード）する一番簡単な方法は、この画面で表示内容を右クリックして保存することです。
-左クリックして表示されるメニューから「名前を付けて保存」をクリックします。
-  </t>
-    <rPh sb="38" eb="40">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-32.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>このテキストの第１章からここまで順に進んでいれば、点検届チェックリストがすべてチェックできているはずです。&lt;strong&gt;Bb9の「ノートパソコン点検届」コースを開いて、点検届を提出しましょう！&lt;/strong&gt;</t>
     <rPh sb="7" eb="8">
       <t>ダイ</t>
@@ -2040,16 +2016,33 @@
       <t>トドケ</t>
     </rPh>
     <rPh sb="89" eb="91">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="155" eb="156">
-      <t>スス</t>
+      <t>テイシュツツカバアイスス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">表示されているファイルを保存（ダウンロード）する一番簡単な方法は、この画面でCommand-Sを入力して保存することです。
+書き出し名を指定して保存します。  </t>
+    <rPh sb="48" eb="50">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4423,7 +4416,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4599,8 +4592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5029,18 +5022,15 @@
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -5048,7 +5038,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F3D1E17-4846-44FC-A6A9-4C35D653B13F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A8636D-09EA-4A16-93DE-7B6D9AE8C7E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31875" yWindow="2880" windowWidth="13425" windowHeight="10575" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,11 @@
     <sheet name="ch8" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="301">
   <si>
     <t>header1</t>
   </si>
@@ -1972,11 +1971,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">このようにPDFファイルの内容が表示されます。使っているソフト（「環境」といったりしますね）によっては、画面に直接表示されない場合もあります。そのときは、「ここをクリックして〇〇を開いてください」をクリックします。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-6-31.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2021,29 +2015,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">表示されているファイルを保存（ダウンロード）する一番簡単な方法は、この画面でCommand-Sを入力して保存することです。
-書き出し名を指定して保存します。  </t>
-    <rPh sb="48" eb="50">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ホゾン</t>
-    </rPh>
+    <t>mac-4-31.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-34.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このようにPDFファイルの内容が表示されます。使っているソフト（「環境」といったりしますね）によっては、画面に直接表示されない場合もあります。そのときは、「ここをクリックして〇〇を開いてください」をクリックします。
+PDFファイルを保存（ダウンロード）する一番簡単な方法は、PDFが表示されているこの画面でCommand-Sを入力して保存することです。
+書き出し名を指定して保存します。  &lt;span class="check"&gt;check-11&lt;/span&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-35.svg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4011,8 +3998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFDDE6-1E06-4807-90D9-56730BF2F634}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="B24" zoomScale="138" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="C11" zoomScale="134" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4151,6 +4138,9 @@
       <c r="B16" s="1" t="s">
         <v>225</v>
       </c>
+      <c r="D16" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -4415,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4590,10 +4580,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5007,112 +4997,107 @@
       <c r="C35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
         <v>295</v>
       </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
+      <c r="D37" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
         <v>166</v>
       </c>
     </row>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A8636D-09EA-4A16-93DE-7B6D9AE8C7E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5913F1E8-BE9F-4DC6-952F-ED058310B189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31875" yWindow="2880" windowWidth="13425" windowHeight="10575" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33675" yWindow="1065" windowWidth="23070" windowHeight="10575" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="302">
   <si>
     <t>header1</t>
   </si>
@@ -2031,6 +2031,93 @@
   </si>
   <si>
     <t>win10-6-35.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;新型コロナウィルス対策のため、対面型授業開始（５月連休明けを予定）までは、大学キャンパスへの来校は必要最小限の用事があるときのみとなります。
+したがって、この章の作業は後回しにしていただいてかまいません。来校して時間の余裕のあるときに行ってください。&lt;/strong&gt;
+&lt;p class="spl"&gt;※学生証に書かれている学生番号と、学生証と一緒にもらえる「広大パスワード」が必要です。&lt;/p&gt;</t>
+    <rPh sb="8" eb="10">
+      <t>シンガタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>タイメンガタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>レンキュウア</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ライコウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>サイショウゲン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヨウジ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ライコウ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="159" eb="162">
+      <t>ガクセイショウ</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="175" eb="178">
+      <t>ガクセイショウ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>ヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3432,10 +3519,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3484,86 +3571,91 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
       <c r="B7" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4582,8 +4674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5913F1E8-BE9F-4DC6-952F-ED058310B189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9654EDC6-D7C9-4700-A7DB-357DFAB67701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33675" yWindow="1065" windowWidth="23070" windowHeight="10575" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -2034,8 +2034,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;strong&gt;新型コロナウィルス対策のため、対面型授業開始（５月連休明けを予定）までは、大学キャンパスへの来校は必要最小限の用事があるときのみとなります。
-したがって、この章の作業は後回しにしていただいてかまいません。来校して時間の余裕のあるときに行ってください。&lt;/strong&gt;
+    <t>&lt;strong&gt;新型コロナウィルス対策のため、この章の作業は後回しにしていただいてかまいません。来校して時間の余裕のあるときに行ってください。&lt;/strong&gt;
 &lt;p class="spl"&gt;※学生証に書かれている学生番号と、学生証と一緒にもらえる「広大パスワード」が必要です。&lt;/p&gt;</t>
     <rPh sb="8" eb="10">
       <t>シンガタ</t>
@@ -2043,79 +2042,46 @@
     <rPh sb="17" eb="19">
       <t>タイサク</t>
     </rPh>
-    <rPh sb="23" eb="26">
-      <t>タイメンガタ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>レンキュウア</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="54" eb="56">
+    <rPh sb="30" eb="31">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
       <t>ライコウ</t>
     </rPh>
-    <rPh sb="57" eb="59">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="59" eb="62">
-      <t>サイショウゲン</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ヨウジ</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>ライコウ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
+    <rPh sb="52" eb="54">
       <t>ジカン</t>
     </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="97" eb="100">
+      <t>ガクセイショウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="113" eb="116">
+      <t>ガクセイショウ</t>
+    </rPh>
     <rPh sb="117" eb="119">
-      <t>ヨユウ</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="159" eb="162">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="163" eb="164">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="171" eb="173">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="175" eb="178">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
       <t>イッショ</t>
     </rPh>
-    <rPh sb="187" eb="189">
+    <rPh sb="125" eb="127">
       <t>ヒロダイ</t>
     </rPh>
-    <rPh sb="196" eb="198">
+    <rPh sb="134" eb="136">
       <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -3522,7 +3488,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3570,7 +3536,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>301</v>
       </c>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9654EDC6-D7C9-4700-A7DB-357DFAB67701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623B6BCB-D36E-40D8-BE03-7D801D421368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -1531,13 +1531,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>広島大学必携PC初期講習会（オンライン版）</t>
-    <rPh sb="19" eb="20">
-      <t>バン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">設定にはいる前に、広島大学で情報サービスを使うときに必要がIDが二種類あることを確認しましょう。学生の場合、二種類とも学生番号をもとにしています。
 一つは「広大ID」。これは学生番号と同じ文字列です。もう一つはメディアセンターの「アカウント名」です。こちらは、先頭の一文字を小文字にしたものになっています。
 対応するパスワードは、どちらも共通です。「広大パスワード」と呼んでいます。学生証と一緒に配布されます。
@@ -2083,6 +2076,16 @@
     </rPh>
     <rPh sb="134" eb="136">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学必携PC初期講習会（自習形式）</t>
+    <rPh sb="14" eb="16">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイシキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2475,7 +2478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2492,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3467,7 +3470,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -3487,7 +3490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3538,7 +3541,7 @@
     </row>
     <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3560,7 +3563,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -3616,7 +3619,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3701,7 +3704,7 @@
     </row>
     <row r="8" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3836,7 +3839,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -3995,7 +3998,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -4105,7 +4108,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4121,7 +4124,7 @@
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" t="s">
         <v>271</v>
@@ -4197,7 +4200,7 @@
         <v>225</v>
       </c>
       <c r="D16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4233,7 +4236,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -4345,7 +4348,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -4559,7 +4562,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -4592,7 +4595,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -4620,7 +4623,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -4847,7 +4850,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -4922,7 +4925,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -5025,7 +5028,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -5039,7 +5042,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -5050,13 +5053,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -5064,13 +5067,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -5078,10 +5081,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -5235,7 +5238,7 @@
     </row>
     <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623B6BCB-D36E-40D8-BE03-7D801D421368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679B33E1-F202-439F-9E6C-32C48F49A1D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -1476,10 +1476,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-2-41.ｓｖｇ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mac-2-24.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2087,6 +2083,10 @@
     <rPh sb="16" eb="18">
       <t>ケイシキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-41.svg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2478,7 +2478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3104,7 +3104,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3470,7 +3470,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3563,7 +3563,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -3619,7 +3619,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="8" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -3839,7 +3839,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -3998,7 +3998,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -4059,8 +4059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFDDE6-1E06-4807-90D9-56730BF2F634}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="C11" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="134" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4076,7 +4076,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4108,7 +4108,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4124,10 +4124,10 @@
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4135,7 +4135,7 @@
         <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -4200,7 +4200,7 @@
         <v>225</v>
       </c>
       <c r="D16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4236,7 +4236,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -4348,7 +4348,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -4466,8 +4466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4562,7 +4562,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -4595,7 +4595,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -4623,7 +4623,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -4643,8 +4643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4850,7 +4850,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -4925,7 +4925,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -5028,7 +5028,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -5042,7 +5042,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -5053,13 +5053,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -5067,13 +5067,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -5081,10 +5081,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -5238,7 +5238,7 @@
     </row>
     <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679B33E1-F202-439F-9E6C-32C48F49A1D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CACB4CB-EB05-401F-86AE-CAA50045C42E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -1813,6 +1813,184 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">Bb9で配布されている教材をダウンロードできることを確認するため、「ノートパソコン点検届」のコースをみてみましょう。
+まず、コース一覧から「ノートパソコン点検届2020」をクリックしてコースを開きましょう。
+  </t>
+    <rPh sb="41" eb="43">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>トドケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">左メニューの「教材」をクリックすると右側にフォルダが表示されます。いちばん上は、点検届を提出するためのリンクです。
+２番目にある「点検届ワークシート/Checklist worksheet」をクリックして開きましょう。
+  </t>
+    <rPh sb="7" eb="9">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>トドケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-31.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このテキストの第１章からここまで順に進んでいれば、点検届チェックリストがすべてチェックできているはずです。&lt;strong&gt;Bb9の「ノートパソコン点検届」コースを開いて、点検届を提出しましょう！&lt;/strong&gt;</t>
+    <rPh sb="7" eb="8">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>テイシュツツカバアイスス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mac-4-31.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-34.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このようにPDFファイルの内容が表示されます。使っているソフト（「環境」といったりしますね）によっては、画面に直接表示されない場合もあります。そのときは、「ここをクリックして〇〇を開いてください」をクリックします。
+PDFファイルを保存（ダウンロード）する一番簡単な方法は、PDFが表示されているこの画面でCommand-Sを入力して保存することです。
+書き出し名を指定して保存します。  &lt;span class="check"&gt;check-11&lt;/span&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-35.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;新型コロナウィルス対策のため、この章の作業は後回しにしていただいてかまいません。来校して時間の余裕のあるときに行ってください。&lt;/strong&gt;
+&lt;p class="spl"&gt;※学生証に書かれている学生番号と、学生証と一緒にもらえる「広大パスワード」が必要です。&lt;/p&gt;</t>
+    <rPh sb="8" eb="10">
+      <t>シンガタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ライコウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="97" eb="100">
+      <t>ガクセイショウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="113" eb="116">
+      <t>ガクセイショウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学必携PC初期講習会（自習形式）</t>
+    <rPh sb="14" eb="16">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-2-41.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>2回目からはログインしたら、この画面が出ます。
 真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
 これらは、あなたの履修課目に関する授業支援や、広島大学において自習すべき教材などのコースです。新入生共通で表示されるものを簡単に説明すると：
@@ -1821,7 +1999,7 @@
 &lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届」を提出する必要があります。このコースでは、点検届が提出できます。&lt;strong&gt;このテキストによる設定・点検を済ませたあと、できるだけ早くにこのコースを開いて点検届を提出してください。&lt;/strong&gt;&lt;/dd&gt;
 &lt;dt&gt;大学教育入門&lt;/dt&gt;
 &lt;dd&gt;「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。&lt;/dd&gt; &lt;/dl&gt;
-  &lt;p class="spl"&gt;※今年の「大学教育入門」は、新型コロナウィルス対策のために受講方法が例年と異なります。「もみじ」などでの案内によく注意してください。&lt;/p&gt;</t>
+  &lt;p class="spl"&gt;※今年の「大学教育入門」は、新型コロナウィルス対策のためにコース開設が遅れています。「もみじ」などでの案内によく注意してください。&lt;/p&gt;</t>
     <rPh sb="71" eb="73">
       <t>リシュウ</t>
     </rPh>
@@ -1891,202 +2069,18 @@
     <rPh sb="493" eb="495">
       <t>タイサク</t>
     </rPh>
-    <rPh sb="499" eb="501">
-      <t>ジュコウ</t>
-    </rPh>
-    <rPh sb="501" eb="503">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="504" eb="506">
-      <t>レイネン</t>
-    </rPh>
-    <rPh sb="507" eb="508">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="522" eb="524">
+    <rPh sb="502" eb="504">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="505" eb="506">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="521" eb="523">
       <t>アンナイ</t>
     </rPh>
-    <rPh sb="527" eb="529">
+    <rPh sb="526" eb="528">
       <t>チュウイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Bb9で配布されている教材をダウンロードできることを確認するため、「ノートパソコン点検届」のコースをみてみましょう。
-まず、コース一覧から「ノートパソコン点検届2020」をクリックしてコースを開きましょう。
-  </t>
-    <rPh sb="41" eb="43">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>トドケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">左メニューの「教材」をクリックすると右側にフォルダが表示されます。いちばん上は、点検届を提出するためのリンクです。
-２番目にある「点検届ワークシート/Checklist worksheet」をクリックして開きましょう。
-  </t>
-    <rPh sb="7" eb="9">
-      <t>キョウザイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>バンメ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>トドケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-31.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このテキストの第１章からここまで順に進んでいれば、点検届チェックリストがすべてチェックできているはずです。&lt;strong&gt;Bb9の「ノートパソコン点検届」コースを開いて、点検届を提出しましょう！&lt;/strong&gt;</t>
-    <rPh sb="7" eb="8">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>テイシュツツカバアイスス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mac-4-31.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-34.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">このようにPDFファイルの内容が表示されます。使っているソフト（「環境」といったりしますね）によっては、画面に直接表示されない場合もあります。そのときは、「ここをクリックして〇〇を開いてください」をクリックします。
-PDFファイルを保存（ダウンロード）する一番簡単な方法は、PDFが表示されているこの画面でCommand-Sを入力して保存することです。
-書き出し名を指定して保存します。  &lt;span class="check"&gt;check-11&lt;/span&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-35.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;strong&gt;新型コロナウィルス対策のため、この章の作業は後回しにしていただいてかまいません。来校して時間の余裕のあるときに行ってください。&lt;/strong&gt;
-&lt;p class="spl"&gt;※学生証に書かれている学生番号と、学生証と一緒にもらえる「広大パスワード」が必要です。&lt;/p&gt;</t>
-    <rPh sb="8" eb="10">
-      <t>シンガタ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ライコウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヨユウ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="97" eb="100">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="113" eb="116">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>イッショ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>広島大学必携PC初期講習会（自習形式）</t>
-    <rPh sb="14" eb="16">
-      <t>ジシュウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケイシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-2-41.svg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2495,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3541,7 +3535,7 @@
     </row>
     <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -4059,9 +4053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFDDE6-1E06-4807-90D9-56730BF2F634}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView zoomScale="134" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4127,7 +4119,7 @@
         <v>278</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -4200,7 +4192,7 @@
         <v>225</v>
       </c>
       <c r="D16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4467,7 +4459,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4643,8 +4635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5028,7 +5020,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -5042,7 +5034,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -5053,13 +5045,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -5067,13 +5059,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -5081,10 +5073,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CACB4CB-EB05-401F-86AE-CAA50045C42E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96924DCB-BBD6-4E26-A75C-AF7D7B3C18AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="329">
   <si>
     <t>header1</t>
   </si>
@@ -68,50 +68,8 @@
     <t>chartn</t>
   </si>
   <si>
-    <t>mac-0-01.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">現在いる地域を選びます。「日本」になっていることを確認し、「続ける」の矢印をクリックします。 
- </t>
-  </si>
-  <si>
-    <t>mac-0-02.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「キーボードの入力環境を選択」という画面になります。
- 「キーボードの配列」には、「日本語」を選択してください。 「キーボードの操作に慣れていますか？」は「はい」を選択してください。 「お好みの入力方法はどちらですか？」は「ローマ字」を選択してください。 最後に矢印をクリックしてください。   </t>
-  </si>
-  <si>
-    <t>mac-0-03.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次に「Wi-Fiネットワークを選択」の画面になりますが、これはあとでやりますので、いまは何も選択せず、矢印をクリックしてください。 
-  </t>
-  </si>
-  <si>
-    <t>mac-0-04.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次に「インターネットの接続方法」の画面になりますが、いまは「コンピュータをインターネットに接続しない」を選択してください。 
- 矢印をクリックしてください。 
-  </t>
-  </si>
-  <si>
-    <t>mac-0-05.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">本当にネットワーク接続しなくて良いのかしつこくもう一回聞かれますが、「続ける」をクリックして振り切ってください。 
   </t>
-  </si>
-  <si>
-    <t>mac-0-06.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「このMacに情報を転送」の画面では「今は情報を転送しない」を選択し、矢印をクリックしてください。
- 過去に別のMacを使っていて、そこからデータを移行したいときに使います。  </t>
-  </si>
-  <si>
-    <t>mac-0-07.svg</t>
   </si>
   <si>
     <t xml:space="preserve">利用条件を表示する画面になります。
@@ -119,44 +77,10 @@
    </t>
   </si>
   <si>
-    <t>mac-0-08.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">利用許諾契約に同意するかを聞かれますので、「同意する」をクリックしてください。 
   </t>
   </si>
   <si>
-    <t>mac-0-09.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">このパソコンを使うときのユーザを設定します。
- 「フルネーム」にはあなたの氏名をローマ字または漢字で記入します。 「アカウント名」は&amp;quot;ayase&amp;quot; など名前をローマ字にしたものが一般的です。 「パスワード」は、十分に複雑な（でも、ちゃんと覚えていられて忘れないもの）を付けましょう。ユーザ名と同じものとか &amp;quot;333&amp;quot; とかすぐに類推できてしまうようなものを付けてはいけません。 「ヒント」は、空欄にしておきましょう。   </t>
-  </si>
-  <si>
-    <t>mac-0-10.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エクスプレス設定という画面になります。
- Macを音声で操作するための助けになるSiriという機能や、マップなどの位置情報を見る機能を使うと、あなたのmacの利用状況がアップルに送信されます。このことは機能を使うための助けにもなりますが、別の見方をするとあなたのプライバシー情報をアップルに送ることになるともいえます。このことについてきになる場合は「設定をカスタマイズ」して送信する情報を制限できます。 後からでも制限（「システム環境設定」→「Siri」/「セキュリティとプライバシー」）できますので、ここでは「→」をクリックしておきましょうか。   </t>
-  </si>
-  <si>
-    <t>mac-0-11.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">この画面が出たら、あとは待つだけ！ 
-  </t>
-  </si>
-  <si>
-    <t>mac-0-12.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">じゃーん！
- デスクトップの画面が出ました！ これで設定は終了です。   </t>
-  </si>
-  <si>
-    <t>mac-0-13.svg</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -166,20 +90,8 @@
     <t>パソコンのスペック確認</t>
   </si>
   <si>
-    <t xml:space="preserve">最初に、目の前のPCがどんなものなのかを確認しましょう。PCの処理能力や容量の目安になるさまざまな要素を「スペック」と呼ぶことがあります。ここでは以下のスペックを確認しましょう。
-&lt;ol&gt;&lt;li&gt; OSのバージョン &lt;/li&gt;
-&lt;li&gt; メモリ容量（主記憶容量） &lt;/li&gt;
-&lt;li&gt; HDD/SDD容量（副記憶容量） &lt;/li&gt;
-&lt;li&gt; バッテリー駆動時間 &lt;/li&gt;
-&lt;/ol&gt;
- </t>
-  </si>
-  <si>
     <t xml:space="preserve">まず、OSのバージョンを確認しましょう。画面左上にあるアップルマークをクリック、次に「このMacについて」をクリックします。 
   </t>
-  </si>
-  <si>
-    <t>mac-1-01.svg</t>
   </si>
   <si>
     <t xml:space="preserve">次に、HDD/SSDの容量を調べましょう。
@@ -187,24 +99,12 @@
  「ストレージ」タブをクリックしてください。HDD/SDDの空き容量と全容量がというように表示されます。   </t>
   </si>
   <si>
-    <t>mac-1-03.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">最後にバッテリー駆動時間を確認しましょう。
  現状のバッテリーの充電状況で、あと何時間くらい動作できるのかは「アクティビティモニタ」というプログラムで確認できます。 「アクティビティモニタ」を起動します。アクティビティモニタがどこにあるのかを探すのに LaunchPad を使います。LaunchPadを起動すると、図のように、Macに入っているプログラムのアイコンがズラッと並んだ画面になります。   </t>
   </si>
   <si>
-    <t>mac-1-04.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">ここで、キーボードから「ac」と入力すると、図のようにacから始まるものが検索され、探しやすくなります。「アクティビティモニタ」がありますね。それをクリックして起動してください。 
   </t>
-  </si>
-  <si>
-    <t>mac-1-05.svg</t>
-  </si>
-  <si>
-    <t>mac-1-06.svg</t>
   </si>
   <si>
     <t>無線LANで学内ネットワークに接続できるように設定しましょう。</t>
@@ -639,22 +539,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2020 Mac chap.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Mac chap.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Mac chap.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Mac chap.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
  macOS Catalina」というのがこのOSの名前ですね。その下に小さな文字で「バージョン10.15.2」とあります。このMacのOSのバージョンは10.15.2です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
  更にその下にパソコンの名称が書かれています。「MacBook Air」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは8GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
@@ -670,13 +554,6 @@
   </si>
   <si>
     <t>FRESTA-TEXT-2020 Mac conclusion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;macOS編&lt;/h3&gt;
-2020年4月&lt;br&gt;
- 広島大学 情報メディア教育研究センター&lt;br&gt;
- </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -831,10 +708,6 @@
     <rPh sb="90" eb="92">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mac-1-02a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1737,12 +1610,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">アクティビティモニタのウィンドウで、まず「エネルギー」タブをクリックしてください。
- この画面の下の方に、現在のバッテリー情報がかかれています。あと4時間40分使えるとあります。充電状況が100%のときにこの「残り時間」を調べれば、それがあなたのMacのバッテリー駆動時間ということになります。
- この数字は推測値であり、プログラムの動作状況によって大きく上下することに注意してください。   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">この画面になったら「続ける」をクリックしてください。
  これで接続の設定が完了しました。 接続が完了すると「接続済み」と表示されます。&lt;span class="check"&gt;check-3&lt;/span&gt;
   </t>
@@ -2081,6 +1948,948 @@
     <rPh sb="526" eb="528">
       <t>チュウイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;macOS編&lt;/h3&gt;
+2021年3月&lt;br&gt;
+ 広島大学 情報メディア教育研究センター&lt;br&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Mac chap.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01_SelLang.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02_SelLoca.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03_SelSpokenLang.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>05_WiFi-before-account</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chartn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04_Accessibility.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">現在いる地域を選びます。「日本」になっていることを確認し、「続ける」のボタンをクリックします。 
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アクセシビリティ」の設定画面になりますが、後から設定できるものなので、「今はしない」をクリックします。</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>イマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「文字入力および音声入力の言語」という画面になります。
+ 「優先する言語」には、「日本語」、「入力ソース」には「日本語 - ローマ字入力」、「音声入力」には「日本語」を選択し、最後に「続ける」をクリックします。</t>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次に「Wi-Fiネットワークを選択」の画面になりますが、これはあとでやりますので、「その他のネットワークオプション」をクリックします。
+  </t>
+    <rPh sb="44" eb="45">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次に「インターネットの接続方法」の画面になりますが、いまは「コンピュータをインターネットに接続しない」を選択してください。 「続ける」をクリックします。 
+  </t>
+    <rPh sb="63" eb="64">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07_confirmNoLAN.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08_confirmNoLAN.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「データとプライバシー」の画面になります。ここでは何も設定することができませんが、通知を理解した上で、「続ける」をクリックします。</t>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09_Privacy.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「移行アシスタント」の画面になりますが、「今はしない」をクリックします。
+ 過去に別のMacなどを使っていて、そこからデータを移行したいときに使います。  </t>
+    <rPh sb="1" eb="3">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10_MigrationAssist.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11_EULA.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12_Agreement.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14_CreateAccount-Filled.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このパソコンを使うときのユーザを設定します。
+ 「フルネーム」にはあなたの氏名をローマ字または漢字で記入します。 「アカウント名」は&amp;quot;ayase&amp;quot; など名前をローマ字にしたものが一般的です。 「パスワード」は、十分に複雑な（でも、ちゃんと覚えていられて忘れないもの）を付けましょう。ユーザ名と同じものとか &amp;quot;333&amp;quot; とかすぐに類推できてしまうようなものを付けてはいけません。 「ヒント」は、空欄にしておきましょう。もし既に学生番号を得ている場合でも、このアカウント名を学生番号でつけてしまうと、あちこちでパスワードを求められる時にどのアカウントでのパスワードなのか分からなくなってしまうので、このmacに特有のアカウント名となるようにつけましょう。 同じように、パスワードも学生番号と一緒に通知されるパスワードとはしないようにしてください。</t>
+    <rPh sb="230" eb="231">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="232" eb="234">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="237" eb="238">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="241" eb="243">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="253" eb="254">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="255" eb="257">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="257" eb="259">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="279" eb="280">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="284" eb="285">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="303" eb="304">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="323" eb="325">
+      <t>トクユウ</t>
+    </rPh>
+    <rPh sb="331" eb="332">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="346" eb="347">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="358" eb="360">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="360" eb="362">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="363" eb="365">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="366" eb="368">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「エクスプレス設定」という画面になります。「設定をカスタマイズ」をクリックして調整しましょう。</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15_Express.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16_Geolocation.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「位置情報サービスを有効にする」という画面になります。これはApple社が「貴方がどの地域(たとえば大学、自宅、旅行先など)でどのようなサービスを利用しているか」を追跡するための機能です。携帯電話の紛失追跡機能のようなものがあるわけではないので、プライバシー保護のために無効にしておきましょう。</t>
+    <rPh sb="1" eb="3">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>アナタ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ツイセキ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>フンシツ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ツイセキ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「位置情報サービスを使用しなくてもよろしいですか？」としつこく聞いてきますが、「使用しない」で振り切りましょう。</t>
+    <rPh sb="1" eb="3">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16_Geolocation-confirm.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17_Mac-InspectionReport.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「時間帯を選択」という画面になります。世界地図から東京のあたりをクリックし、時間帯が日本のどこかになるようにしてください。皆さんの故郷に近い都市を選ぶこともできるようですが、日本の部分が狭いので、あまり無理して探さなくて構いません。終わったら「続ける」をクリックします。</t>
+    <rPh sb="1" eb="4">
+      <t>ジカンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>ジカンタイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ミナ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>フルサト</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>トシ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>セマ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ムリ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>カマ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「解析」という画面になります。これは、Mac上のアプリケーションが異常終了した場合のそのレポートをApple社に送って、製品の品質向上に役立てたいので協力してほしいというものです。プライバシー保護のために無効にしておきましょう。「続ける」をクリックします。</t>
+    <rPh sb="1" eb="3">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヤクダ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18_SelTimeZone.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18_ScreenTime.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「スクリーンタイム」という画面になります。これはMacをどのような時間帯に使っているかといった情報を調べたり、家族が使う場合の機能制限をすることができます。後からでも設定できるので、「あとで設定」で進めましょう。</t>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ジカンタイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Siri」という音声でMacを操作する機能を設定できますが、後からでも設定できるので、ここでは有効にしないまま「続ける」をクリックします。</t>
+    <rPh sb="9" eb="11">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19_Siri.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機種によっては指紋センサーが付属しているため、指紋認証の設定をすることもできます。これも後から設定できるので「Touch IDをあとで設定」で進めましょう。</t>
+    <rPh sb="0" eb="2">
+      <t>キシュ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20_TouchID.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TouchIDをすぐ設定させようとしてきますが、「続ける」で振り切ってください。</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21_TouchID-confirm.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「外観モードを選択」という画面になります。何もしなければ「ライト」の配色になります。説明にも書いてあるように後で設定可能なので、「続ける」で進めましょう。</t>
+    <rPh sb="1" eb="3">
+      <t>ガイカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ハイショク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22_Appearance.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「True Toneディスプレイ」という画面になします。これは部屋の照明などに応じて色を調整してくれる機能で、何もしなければ最初から有効になっています。後からでも調整可能なので、「続ける」で進めてください。</t>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ショウメイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23_TrueTone.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ようやくデスクトップの画面が出ました！ これでこの章の作業は終了です。   </t>
+    <rPh sb="25" eb="26">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00_BlankDesktop.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Mac chap.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">最初に、目の前のMacがどんなものなのかを確認しましょう。Macの処理能力や容量の目安になるさまざまな要素を「スペック」と呼ぶことがあります。ここでは以下のスペックを確認しましょう。
+&lt;ol&gt;&lt;li&gt; OSのバージョン &lt;/li&gt;
+&lt;li&gt; メモリ容量（主記憶容量） &lt;/li&gt;
+&lt;li&gt; HDD/SDD容量（副記憶容量） &lt;/li&gt;
+&lt;li&gt; バッテリー駆動時間 &lt;/li&gt;
+&lt;/ol&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25_AboutThisMac.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>26_AboutThisMacResult.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>26_AboutThisMacStorage.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>27_LaunchPad.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>28_ActivityMonitor.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクティビティモニタが起動すると、このMacの中で動作しているプログラムの一覧が出ます。どのプログラムがCPUに負担をかけているかを見ることができますが、ここではバッテリ残量をみたいので、「エネルギー」のタブを選びます。</t>
+    <rPh sb="11" eb="13">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>フタン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ザンリョウ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>29_ActivityMonitorStart.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30_ActivityMonitorEnergy.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクティビティモニタのウィンドウで、まず「エネルギー」タブをクリックしてください。
+ この画面の下の方に、現在のバッテリー情報がかかれています。充電器が繋いである場合はフル充電までの時間、AC電源の使用時間が表示されています。</t>
+    <rPh sb="72" eb="75">
+      <t>ジュウデンキ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ツナ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ジュウデン</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30_ActivityMonitorLeftEnergy.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>充電器を外すと、しばらく計算した後に「残り時間」を表示してくれます。充電状況が100%のときにこの「残り時間」を調べれば、それがあなたのMacのバッテリー駆動時間ということになります。ただし、買ったばかりのMacでは、どのようなアプリケーションをどのように使うかの実績がわからないので、「何もしないで放置したまま、どれだけ持つか」という目安となっています。これからMacをいろいろ使っていくに従い、この時間も変わってきます。時々、100%充電でバッテリ駆動となった場合に何時間使える状態なのか確認するようにしましょう。</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウデンキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ホウチ</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>メヤス</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="204" eb="205">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>トキドキ</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>ジュウデン</t>
+    </rPh>
+    <rPh sb="226" eb="228">
+      <t>クドウ</t>
+    </rPh>
+    <rPh sb="232" eb="234">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="235" eb="238">
+      <t>ナンジカン</t>
+    </rPh>
+    <rPh sb="238" eb="239">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="241" eb="243">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Mac chap.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Mac chap.3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2472,16 +3281,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2489,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2505,15 +3314,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2522,7 +3331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2551,20 +3360,20 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2572,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2588,15 +3397,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="143" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2607,442 +3416,442 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
+    <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
         <v>70</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="130" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="132" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -3050,7 +3859,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -3079,26 +3888,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="84.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3122,10 +3931,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3139,7 +3948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3150,205 +3959,321 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>282</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>284</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3356,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3372,15 +4297,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>315</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3389,88 +4314,110 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="C12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>48</v>
+      <c r="D13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3484,24 +4431,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3509,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3525,101 +4472,101 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3633,24 +4580,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3658,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3674,15 +4621,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3693,40 +4640,40 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3734,173 +4681,173 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="D13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3908,13 +4855,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3922,55 +4869,55 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -3978,41 +4925,41 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4020,13 +4967,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4034,13 +4981,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4055,20 +5002,20 @@
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4076,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4092,15 +5039,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4111,50 +5058,50 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="D9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="D12" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4162,37 +5109,37 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="D14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="D15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="D16" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4200,251 +5147,251 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
         <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4462,20 +5409,20 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4483,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4499,15 +5446,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4518,21 +5465,21 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4540,88 +5487,88 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4635,24 +5582,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4660,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4676,15 +5623,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4695,7 +5642,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4712,37 +5659,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4759,129 +5706,129 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4898,51 +5845,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4959,137 +5906,137 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="182" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="D37" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -5098,60 +6045,60 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="117" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5169,20 +6116,20 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="100.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5190,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5206,7 +6153,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5214,7 +6161,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5225,12 +6172,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5238,7 +6185,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -5247,9 +6194,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,28 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96924DCB-BBD6-4E26-A75C-AF7D7B3C18AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D51C2A9-3B53-45DB-8F8D-5D56726A4721}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="ch0" sheetId="2" r:id="rId2"/>
     <sheet name="ch1" sheetId="3" r:id="rId3"/>
     <sheet name="ch2" sheetId="4" r:id="rId4"/>
-    <sheet name="ch3" sheetId="5" r:id="rId5"/>
-    <sheet name="ch4" sheetId="9" r:id="rId6"/>
-    <sheet name="ch5" sheetId="6" r:id="rId7"/>
-    <sheet name="ch6" sheetId="7" r:id="rId8"/>
-    <sheet name="ch7" sheetId="8" r:id="rId9"/>
-    <sheet name="ch8" sheetId="11" r:id="rId10"/>
+    <sheet name="ch3" sheetId="9" r:id="rId5"/>
+    <sheet name="ch4" sheetId="12" r:id="rId6"/>
+    <sheet name="ch5" sheetId="5" r:id="rId7"/>
+    <sheet name="ch6" sheetId="14" r:id="rId8"/>
+    <sheet name="ch7" sheetId="6" r:id="rId9"/>
+    <sheet name="ch8" sheetId="7" r:id="rId10"/>
+    <sheet name="ch9" sheetId="8" r:id="rId11"/>
+    <sheet name="ch10" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="335">
   <si>
     <t>header1</t>
   </si>
@@ -835,35 +837,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">まだあなたのPCにMicrosoft Officeがないなら、以下の手引きに従ってインストールしましょう。
-広島大学では、マイクロソフト社との包括ライセンス契約（Microsoft Enrollment for Education Solutions）を結んでいます。これによって広島大学の学生は広島大学が定める利用要領に基づいて、いくつかのマイクロソフト社製ソフトウェア製品（Microsoft Office等）を無償で利用することができます。
-Microsoft Office については、広島大学の学生は個人所有のPCでいくつでも無償で利用することができます。
-ただし卒業までに継続利用手続きを行った１つ以外は卒業（もしくは退学）後は利用できなくなりますので、ご注意ください。
-※ここで紹介する配布サイトの中に「継続利用手続き」についても説明があります。
-</t>
-    <rPh sb="31" eb="33">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>テビ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>シタガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">以下のサイト「Office2016 for Mac インストール手順」をブラウザで開き、説明に従ってください。
-開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生証と一緒に配布された紙に書いてある）を入力してください。
-&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2016-2.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2016-2.html&lt;/a&gt;
- &lt;/li&gt; 
-</t>
-    <rPh sb="32" eb="34">
-      <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Microsoft Office をインストールしましょう。 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -916,10 +889,6 @@
   </si>
   <si>
     <t xml:space="preserve">ここで Officeのアップデートの方法を説明します。 Officeのソフトのどれでもいいのですが、上のメニューから「ヘルプ」をクリックしてください。 「更新プログラムのチェック」をクリックしてください。  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ESET EAとChromeのインストール</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1393,13 +1362,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ウィルス対策ソフトとChromeをインストールしましょう。</t>
-    <rPh sb="4" eb="6">
-      <t>タイサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">設定にはいる前に、広島大学で情報サービスを使うときに必要がIDが二種類あることを確認しましょう。学生の場合、二種類とも学生番号をもとにしています。
 一つは「広大ID」。これは学生番号と同じ文字列です。もう一つはメディアセンターの「アカウント名」です。こちらは、先頭の一文字を小文字にしたものになっています。
 対応するパスワードは、どちらも共通です。「広大パスワード」と呼んでいます。学生証と一緒に配布されます。
@@ -1494,19 +1456,6 @@
     </rPh>
     <rPh sb="151" eb="152">
       <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ソフトのインストールに必要なファイルを配布サイトからダウンロードしてから、インストールを開始します。ここでは、Google Chromeとウイルス対策ソフト（SCEP）のインストールを行います。
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#chrome"&gt;Chromeを入れる&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#eset"&gt;ESET EAを入れる&lt;/a&gt;
-&lt;/li&gt; &lt;/ul&gt;
- </t>
-    <rPh sb="19" eb="21">
-      <t>ハイフ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1974,10 +1923,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>05_WiFi-before-account</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>chartn</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2436,10 +2381,6 @@
     <rPh sb="102" eb="104">
       <t>ムコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>18_SelTimeZone.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2889,7 +2830,219 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2021 Mac chap.3</t>
+    <t>Chromeのインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chromeをインストールしましょう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ソフトのインストールに必要なファイルを配布サイトからダウンロードしてから、インストールを開始します。ここでは、Google Chromeのインストールを行います。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィルス対策ソフトESETをインストールしましょう。</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィルス対策ソフトESETをインストールしましょう</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Mac chap.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この章では広島大学が包括ライセンスで提供しているウィルス対策ソフトESETのインストール手順を示しますが、2021/03/04現在、Mac OS 11.0 - 11.1に暫定対応、Mac OS X 11.2以降は未対応となっております。お使いのMacのOSが既に11.2以降である場合には、11.2以降対応のウィルス対策ソフトをインストールするなどしてください(Avira Free Securityなど無償のものもあります)。ESETが11.2以降に正式対応した段階で切り替えて頂いても構いません。</t>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウカツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ザンテイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="106" eb="109">
+      <t>ミタイオウ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>ムショウ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="226" eb="228">
+      <t>セイシキ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="232" eb="234">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="235" eb="236">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="237" eb="238">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="240" eb="241">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="244" eb="245">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のサイト「ウィルス対策ソフトのインストール手順」をブラウザで開き、説明に従ってください。
+開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生番号と一緒にもらっていると思います）を入力してください。
+&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html&lt;/a&gt;</t>
+    <rPh sb="88" eb="90">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Mac chap.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まだあなたのPCにMicrosoft Officeがないなら、以下の手引きに従ってインストールしましょう。
+広島大学では、マイクロソフト社との包括ライセンス契約（Microsoft Enrollment for Education Solutions）を結んでいます。これによって広島大学の学生は広島大学が定める利用要領に基づいて、いくつかのマイクロソフト社製ソフトウェア製品（Microsoft Office等）を無償で利用することができます。
+Microsoft Office については、Microsoft Office365 ProPlusを、広島大学の学生は個人所有のPCやモバイルデバイス合計5台までインストールして無償で利用することができます。
+ただしOffice365 ProPlusはマイクロソフトのサーバに登録されている広島大学のアカウントに関係づけられていますので、卒業（もしくは退学）後は利用できなくなってしまいますので、ご注意ください。</t>
+    <rPh sb="31" eb="33">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テビ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="300" eb="302">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="303" eb="304">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="363" eb="365">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="370" eb="372">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="372" eb="374">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="381" eb="383">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のサイト「Office for Macインストール手順」をブラウザで開き、説明に従ってください。
+開く際にID,パスワードを要求されたら、広大ID（学生番号、ここではB21xxxxxのように大文字アルファベットで入力します）と広大パスワード（学生番号と一緒に入手するもの）を入力してください。
+&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2016-2.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2016-2.html&lt;/a&gt;
+ &lt;/li&gt; 
+URLにOffice2016と書いてありますが、解説されているのはOffice365 ProPlusのインストールです。</t>
+    <rPh sb="97" eb="100">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="330" eb="331">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="339" eb="341">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Mac chap.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17_SelTimeZone.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>05_WiFi-before-account.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3298,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3322,7 +3475,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3353,10 +3506,638 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF271FC4-129F-4F71-9511-33294FAB9AAD}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="C36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -3373,7 +4154,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3381,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3397,7 +4178,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -3405,7 +4186,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3416,7 +4197,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3424,13 +4205,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3438,13 +4219,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3452,13 +4233,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3466,18 +4247,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3485,13 +4266,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3499,7 +4280,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -3527,7 +4308,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -3541,7 +4322,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -3569,7 +4350,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -3588,7 +4369,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -3644,7 +4425,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -3658,7 +4439,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -3728,7 +4509,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -3845,13 +4626,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -3890,8 +4671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3907,7 +4688,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3931,7 +4712,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3959,7 +4740,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3967,13 +4748,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3981,24 +4762,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4006,13 +4787,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4020,13 +4801,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4040,18 +4821,18 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4059,13 +4840,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4079,7 +4860,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4093,7 +4874,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -4101,134 +4882,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4236,13 +5017,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -4297,7 +5078,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -4305,7 +5086,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4325,7 +5106,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4339,7 +5120,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4353,7 +5134,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4367,7 +5148,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4381,18 +5162,18 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C12" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D12" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4400,24 +5181,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -4431,7 +5212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -4472,7 +5253,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4482,7 +5263,7 @@
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4504,7 +5285,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -4560,7 +5341,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -4577,10 +5358,1190 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFDDE6-1E06-4807-90D9-56730BF2F634}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7F5518-4A72-4FDF-9105-E8C6264D5F56}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4597,7 +6558,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4605,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4621,16 +6582,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -4638,356 +6596,114 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4996,412 +6712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFDDE6-1E06-4807-90D9-56730BF2F634}">
-  <dimension ref="A1:D34"/>
-  <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -5454,7 +6765,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5501,7 +6812,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -5534,7 +6845,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -5548,7 +6859,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -5562,641 +6873,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D37" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D51C2A9-3B53-45DB-8F8D-5D56726A4721}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0371A718-7F06-4732-97EF-BFE2B414F442}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -101,14 +101,6 @@
  「ストレージ」タブをクリックしてください。HDD/SDDの空き容量と全容量がというように表示されます。   </t>
   </si>
   <si>
-    <t xml:space="preserve">最後にバッテリー駆動時間を確認しましょう。
- 現状のバッテリーの充電状況で、あと何時間くらい動作できるのかは「アクティビティモニタ」というプログラムで確認できます。 「アクティビティモニタ」を起動します。アクティビティモニタがどこにあるのかを探すのに LaunchPad を使います。LaunchPadを起動すると、図のように、Macに入っているプログラムのアイコンがズラッと並んだ画面になります。   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ここで、キーボードから「ac」と入力すると、図のようにacから始まるものが検索され、探しやすくなります。「アクティビティモニタ」がありますね。それをクリックして起動してください。 
-  </t>
-  </si>
-  <si>
     <t>無線LANで学内ネットワークに接続できるように設定しましょう。</t>
   </si>
   <si>
@@ -538,12 +530,6 @@
   </si>
   <si>
     <t>FRESTA-TEXT-2020 Mac</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
- macOS Catalina」というのがこのOSの名前ですね。その下に小さな文字で「バージョン10.15.2」とあります。このMacのOSのバージョンは10.15.2です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
- 更にその下にパソコンの名称が書かれています。「MacBook Air」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは8GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3043,6 +3029,37 @@
   </si>
   <si>
     <t>05_WiFi-before-account.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
+ macOS Big Sur」というのがこのOSの名前ですね。その下に小さな文字で「バージョン11.1」とあります。このMacのOSのバージョンは11.1です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
+ 更にその下にパソコンの名称が書かれています。「MacBook Air」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは8GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">最後にバッテリー駆動時間を確認しましょう。
+ 現状のバッテリーの充電状況で、あと何時間くらい動作できるのかは「アクティビティモニタ」というプログラムで確認できます。 アクティビティモニタを起動するのにLaunchPad を使います。デスクトップの下側にあるLaunchPadのアイコンをクリックして起動すると、図のように、Macに入っているプログラムのアイコンがズラッと並んだ画面になります。   </t>
+    <rPh sb="94" eb="96">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>シタガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ここで、画面上の「検索」のフォームに「ac」と入力すると、図のようにacから始まるものが検索され、探しやすくなります。「アクティビティモニタ」がありますね。それをクリックして起動してください。 
+  </t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3451,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3467,7 +3484,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3475,7 +3492,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3526,7 +3543,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3534,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3550,7 +3567,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -3558,7 +3575,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3569,7 +3586,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3591,13 +3608,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3605,18 +3622,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3638,13 +3655,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3652,21 +3669,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3674,13 +3691,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3688,13 +3705,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
         <v>105</v>
-      </c>
-      <c r="C17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3702,13 +3719,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3716,13 +3733,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3730,13 +3747,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3744,18 +3761,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3777,13 +3794,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3791,13 +3808,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3805,18 +3822,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3838,13 +3855,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3852,13 +3869,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3866,13 +3883,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3880,13 +3897,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -3894,13 +3911,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3908,7 +3925,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -3919,13 +3936,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3933,13 +3950,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3947,15 +3964,15 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D37" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3963,7 +3980,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -3977,13 +3994,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3991,13 +4008,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -4005,13 +4022,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4019,13 +4036,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4053,10 +4070,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4064,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4080,7 +4097,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4088,7 +4105,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4099,12 +4116,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4112,7 +4129,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -4123,7 +4140,7 @@
     </row>
     <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4154,7 +4171,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4162,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4178,7 +4195,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -4186,7 +4203,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4197,7 +4214,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4205,13 +4222,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4219,13 +4236,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -4233,13 +4250,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4247,18 +4264,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4266,13 +4283,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4280,13 +4297,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4294,13 +4311,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4308,13 +4325,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4322,13 +4339,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4336,13 +4353,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4350,18 +4367,18 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4369,13 +4386,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4383,13 +4400,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4397,13 +4414,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4411,13 +4428,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4425,13 +4442,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4439,13 +4456,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4453,13 +4470,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4467,13 +4484,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4481,13 +4498,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4495,13 +4512,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4509,13 +4526,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4523,13 +4540,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4537,13 +4554,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4551,13 +4568,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4565,13 +4582,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4579,13 +4596,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4593,13 +4610,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4607,18 +4624,18 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="132" x14ac:dyDescent="0.2">
@@ -4626,13 +4643,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4640,7 +4657,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -4671,7 +4688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -4688,7 +4705,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4712,7 +4729,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4740,7 +4757,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4748,13 +4765,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4762,24 +4779,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4787,13 +4804,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4801,13 +4818,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4821,18 +4838,18 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4840,13 +4857,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4860,7 +4877,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4874,7 +4891,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -4882,134 +4899,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -5017,13 +5034,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5037,8 +5054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5078,7 +5095,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5086,7 +5103,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5106,7 +5123,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5114,13 +5131,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>144</v>
+        <v>332</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5134,7 +5151,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5142,13 +5159,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>333</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5156,24 +5173,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5181,24 +5198,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -5229,7 +5246,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5237,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5253,17 +5270,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5271,13 +5288,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5285,13 +5302,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5299,13 +5316,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5313,13 +5330,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5327,13 +5344,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5341,13 +5358,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -5361,7 +5378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFDDE6-1E06-4807-90D9-56730BF2F634}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -5378,7 +5395,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5386,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5402,7 +5419,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5410,7 +5427,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5421,18 +5438,18 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5440,26 +5457,26 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5467,37 +5484,37 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D13" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -5505,13 +5522,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5519,13 +5536,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5533,13 +5550,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5547,13 +5564,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5561,13 +5578,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5575,13 +5592,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5589,13 +5606,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5603,13 +5620,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5617,13 +5634,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5631,13 +5648,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5645,13 +5662,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5659,13 +5676,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5673,13 +5690,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5687,13 +5704,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5701,13 +5718,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5715,13 +5732,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5729,13 +5746,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5743,13 +5760,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5780,7 +5797,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5788,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5804,20 +5821,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5825,37 +5842,37 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5863,13 +5880,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5877,13 +5894,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5891,13 +5908,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5905,13 +5922,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5919,13 +5936,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5933,13 +5950,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5947,13 +5964,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5961,13 +5978,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5975,13 +5992,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5989,13 +6006,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6003,13 +6020,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6017,13 +6034,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6031,13 +6048,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6045,13 +6062,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6059,13 +6076,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6073,13 +6090,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6087,13 +6104,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6101,13 +6118,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6138,7 +6155,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6146,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6162,7 +6179,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6170,7 +6187,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6181,12 +6198,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6194,13 +6211,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6208,13 +6225,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6222,37 +6239,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6260,18 +6277,18 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6279,13 +6296,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6293,13 +6310,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6307,13 +6324,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6321,13 +6338,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6335,13 +6352,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6349,18 +6366,18 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6368,13 +6385,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6382,13 +6399,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -6396,13 +6413,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -6410,13 +6427,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6424,13 +6441,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6438,13 +6455,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6452,13 +6469,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -6466,13 +6483,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6480,13 +6497,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6494,13 +6511,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -6508,13 +6525,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -6522,13 +6539,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -6558,7 +6575,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6566,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6582,7 +6599,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6733,7 +6750,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6741,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6757,7 +6774,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6765,7 +6782,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6776,7 +6793,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6784,13 +6801,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6798,13 +6815,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6812,18 +6829,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6831,13 +6848,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6845,13 +6862,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6859,13 +6876,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6873,13 +6890,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0371A718-7F06-4732-97EF-BFE2B414F442}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493E757C-1B49-465A-8FDB-4CF6ABE349E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
-    <sheet name="ch0" sheetId="2" r:id="rId2"/>
-    <sheet name="ch1" sheetId="3" r:id="rId3"/>
-    <sheet name="ch2" sheetId="4" r:id="rId4"/>
-    <sheet name="ch3" sheetId="9" r:id="rId5"/>
-    <sheet name="ch4" sheetId="12" r:id="rId6"/>
-    <sheet name="ch5" sheetId="5" r:id="rId7"/>
-    <sheet name="ch6" sheetId="14" r:id="rId8"/>
-    <sheet name="ch7" sheetId="6" r:id="rId9"/>
-    <sheet name="ch8" sheetId="7" r:id="rId10"/>
-    <sheet name="ch9" sheetId="8" r:id="rId11"/>
+    <sheet name="ch00" sheetId="2" r:id="rId2"/>
+    <sheet name="ch01" sheetId="3" r:id="rId3"/>
+    <sheet name="ch02" sheetId="4" r:id="rId4"/>
+    <sheet name="ch03" sheetId="9" r:id="rId5"/>
+    <sheet name="ch04" sheetId="12" r:id="rId6"/>
+    <sheet name="ch05" sheetId="5" r:id="rId7"/>
+    <sheet name="ch06" sheetId="14" r:id="rId8"/>
+    <sheet name="ch07" sheetId="6" r:id="rId9"/>
+    <sheet name="ch08" sheetId="7" r:id="rId10"/>
+    <sheet name="ch09" sheetId="8" r:id="rId11"/>
     <sheet name="ch10" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -4154,7 +4154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF271FC4-129F-4F71-9511-33294FAB9AAD}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -5378,7 +5378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFDDE6-1E06-4807-90D9-56730BF2F634}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,30 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493E757C-1B49-465A-8FDB-4CF6ABE349E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85ECA1F2-7623-4322-A5CE-3A2387D86204}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
-    <sheet name="ch00" sheetId="2" r:id="rId2"/>
-    <sheet name="ch01" sheetId="3" r:id="rId3"/>
-    <sheet name="ch02" sheetId="4" r:id="rId4"/>
-    <sheet name="ch03" sheetId="9" r:id="rId5"/>
-    <sheet name="ch04" sheetId="12" r:id="rId6"/>
-    <sheet name="ch05" sheetId="5" r:id="rId7"/>
-    <sheet name="ch06" sheetId="14" r:id="rId8"/>
-    <sheet name="ch07" sheetId="6" r:id="rId9"/>
-    <sheet name="ch08" sheetId="7" r:id="rId10"/>
-    <sheet name="ch09" sheetId="8" r:id="rId11"/>
-    <sheet name="ch10" sheetId="11" r:id="rId12"/>
+    <sheet name="ch0" sheetId="2" r:id="rId2"/>
+    <sheet name="ch1" sheetId="3" r:id="rId3"/>
+    <sheet name="ch2" sheetId="4" r:id="rId4"/>
+    <sheet name="ch3" sheetId="9" r:id="rId5"/>
+    <sheet name="ch4" sheetId="12" r:id="rId6"/>
+    <sheet name="ch5" sheetId="5" r:id="rId7"/>
+    <sheet name="ch6" sheetId="14" r:id="rId8"/>
+    <sheet name="ch7" sheetId="6" r:id="rId9"/>
+    <sheet name="ch8" sheetId="7" r:id="rId10"/>
+    <sheet name="ch9" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="306">
   <si>
     <t>header1</t>
   </si>
@@ -168,9 +167,6 @@
     <t>mac-2-10.png</t>
   </si>
   <si>
-    <t>&lt;h2&gt;&lt;a name="eset"&gt;&lt;/a&gt;ESET EAを入れる&lt;/h2&gt;</t>
-  </si>
-  <si>
     <t>mac-2-05.svg</t>
   </si>
   <si>
@@ -179,11 +175,6 @@
   </si>
   <si>
     <t>mac-2-06.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">他のウィルス対策ソフトが入っていないか確認してきます。なければ、「続ける」をクリックしましょう。 
-もし他に何か入っていれば、まずそれを削除する必要があります。 
-  </t>
   </si>
   <si>
     <t>mac-2-07.svg</t>
@@ -278,9 +269,6 @@
   </si>
   <si>
     <t>mac-2-20.svg</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="chrome"&gt;&lt;/a&gt;Chromeを入れる&lt;/h2&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">OS と Office がつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。 </t>
@@ -1005,19 +993,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ウィルス対策ソフトのESET Endpoint Antivirus (以下 ESET EA) をインストールします。
-以下のサイト「ウィルス対策ソフトのインストール手順」をブラウザで開き、説明に従ってください。
-開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生証と一緒に配布された紙に書いてある）を入力してください。
-&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html&lt;/a&gt;</t>
-    <rPh sb="70" eb="72">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1056,193 +1031,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>インターネットからのソフトウェアダウンロードがうまくいかない場合は、メディアセンターで借りられる配布用USBメモリを使います。</t>
-    <rPh sb="30" eb="32">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ハイフ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（付録A）USBメモリからのソフトウェアインストール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Mac App.A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="copy"&gt;&lt;/a&gt;USBメモリからファイルをコピーする&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">配布されたUSBメモリをUSBポートに挿します。 
-  </t>
-  </si>
-  <si>
-    <t>mac-2-1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デスクトップに、USBメモリの内容を表す「FIRST LEC」が現れますので、ダブルクリックして開きましょう。
- 中にある「setup2020-mac」フォルダをデスクトップにドラッグしてコピーします。   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mac-2-02a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">コピーが終了したら「FIRST LEC」をゴミ箱までドラッグ＆ドロップしてください。ドラッグを始めると、ゴミ箱がイジェクトアイコンに 変わります。
-デスクトップから「FIRST LEC」のアイコンが消えたらUSBメモリを抜き、次の人に回してください。
-&lt;div class="spl"&gt;※ イジェクトの動作は、「FIRST LEC」のアイコンを右クリックして、「&amp;quot;FIRST LEC&amp;quot;を取り出す」としてもOKです。
-ちなみに右クリックは、controlキーを押しながらクリックします。「システム環境設定」の「トラックパッド」の項目を開くと、他のやり方を設定できます。
-&lt;/div&gt;
-   </t>
-  </si>
-  <si>
-    <t>mac-2-03.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">デスクトップの「mac」フォルダを開きましょう。4つのファイルが入っています。そのうち3つを順に入れていきます。 &lt;ul&gt;&lt;li&gt;officemac.pkg: Microsoft Office &lt;/li&gt;
-&lt;li&gt;eset_osx_ja.dmg: Microsoftのウィルス対策ソフト &lt;/li&gt;
-&lt;li&gt;googlechrome.dmg: Google Chrome (Webブラウザ) &lt;/li&gt;
-&lt;/ul&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mac-2-04a.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Officeを入れる&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まずMicrosoft Officeをインストールしましょう。WordとExcelとPowerPointを中心とした業務用アプリケーションセットです。大学でもよく使います。
- Ofiice.pkg をダブルクリックします。インストーラのウィンドウが出ますので「続ける」をクリックしてください。 Officeのインスールは特に悩ましい分かれ道はありませんので、基本的に前に進む方向の選択肢を選んでいけばOKです。   </t>
-  </si>
-  <si>
-    <t>mac-2-4.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">使用許諾契約をはじめます。「続ける」をクリックしてください。 
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">実際にインストーラからファイルを書き込むステップに入ります。「インストール」をクリックしてください。 
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macのシステム領域にファイルを書き込みますので、管理者権限を持っている利用者であることを確認するため、認証を求められます。6ページで作った利用者名とパスワードを入力してください。広大パスワードではないので、間違えないように。 
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">しばらくまつと、ポロリンと音がなり、このような画面になります。「閉じる」をクリックしてインストーラを終了させましょう。
-&lt;p class="spl"&gt;※ インストールは終了ですが、この段階ではまだ使えません。使い始めるには「ライセンス認証」が必要です。それには、インターネットに接続されていることが必要ですので、のちほど行います。 &lt;/p&gt;
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">次に、ウィルス対策ソフトのESET Endpoint Antivirus (以下 ESET EA) をインストールします。
- まず、USBメモリからコピーしたフォルダにある eset_osx_ja.pkg をダブルクリック。インストーラが立ち上がります。  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">さきほどのOfficeの時と同様、使用許諾契約の段階に入ります。「続ける」をクリックしてください。 
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">「同意する」をクリックしてください。しないと先に進めません... 
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macにログインするときに使うパスワードを入力し、「ソフトウェアをインストール」としてください。 このあと特に警告が出なければ、[31]のChromeを入れる手順に進んでかまいません。
-  </t>
-    <rPh sb="53" eb="54">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">次にChromeをインストールしましょう。googlechrome.dmgをダブルクリックすると、Chromeが入っているフォルダが開きます。これを下に見えている「A」のついたフォルダにドラッグしてコピーしてください。Chromeのインストールはこれで終了です。
-&lt;p class="spl"&gt; ※ macOSにはSafariというWebブラウザが標準的なものとして付属してきますが、うまく表示できないWebページもときどきあります。そういうときに、「もう一つのブラウザ」としてこのChromeを使ってみてください。&lt;/p&gt;
-&lt;p class="spl"&gt;※ (今はまあどうでもいいこと）「A」のフォルダの左下に小さな矢印がついていますね。Macでは、フォルダやファイルの実体とは別の場所に、その実体と同じ動作をするようなものを作ることができます。その影武者のような項目を「エイリアス」と呼びます。左下の矢印は、この項目がエイリアスであることを示しています。右クリックして「オリジナルを表示」とすると、この項目が、あなたのMacの「アプリケーション」フォルダのエイリアスであることがわかります。 &lt;/p&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mac-2-23.png</t>
-  </si>
-  <si>
-    <t>ここでは、第３章、第４章で説明しているソフトウェアのダウンロードがうまくいかない場合に、メディアセンターで配布用USBを借りてソフトウェアをインストールする方法を説明します。
-&lt;ul&gt;&lt;li&gt;&lt;a href="#copy"&gt;USBメモリからファイルをコピーする&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#office"&gt;Officeを入れる&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#eset"&gt;ESET EAを入れる&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#chrome"&gt;Chromeを入れる&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;</t>
-    <rPh sb="5" eb="6">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ハイフ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>win10-4-24.svg</t>
@@ -3468,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3484,7 +3273,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3492,7 +3281,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3543,7 +3332,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3551,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3567,7 +3356,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -3575,7 +3364,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3586,7 +3375,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3608,13 +3397,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3622,18 +3411,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3655,13 +3444,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3669,21 +3458,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3691,13 +3480,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3705,13 +3494,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3719,13 +3508,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
         <v>104</v>
-      </c>
-      <c r="D18" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3733,13 +3522,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3747,13 +3536,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3761,18 +3550,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3794,13 +3583,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3808,13 +3597,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3822,18 +3611,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3855,13 +3644,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3869,13 +3658,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3883,13 +3672,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3897,13 +3686,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -3911,13 +3700,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3925,7 +3714,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -3936,13 +3725,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3950,13 +3739,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3964,15 +3753,15 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="D37" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3980,7 +3769,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -3994,13 +3783,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4008,13 +3797,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -4022,13 +3811,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4036,13 +3825,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4070,10 +3859,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4081,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4097,7 +3886,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4105,7 +3894,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4116,12 +3905,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4129,7 +3918,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -4140,541 +3929,7 @@
     </row>
     <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF271FC4-129F-4F71-9511-33294FAB9AAD}">
-  <dimension ref="A1:D44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="132" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4688,7 +3943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -4705,7 +3960,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4729,7 +3984,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4757,7 +4012,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4765,13 +4020,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4779,24 +4034,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4804,13 +4059,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4818,13 +4073,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4838,18 +4093,18 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4857,13 +4112,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4877,7 +4132,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4891,7 +4146,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -4899,134 +4154,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -5034,13 +4289,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5095,7 +4350,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5103,7 +4358,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5123,7 +4378,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5131,13 +4386,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5151,7 +4406,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5159,13 +4414,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5173,24 +4428,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="C12" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="D12" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5198,24 +4453,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -5270,17 +4525,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5288,7 +4543,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -5302,7 +4557,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -5358,7 +4613,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5376,10 +4631,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFDDE6-1E06-4807-90D9-56730BF2F634}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5395,7 +4650,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5403,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5419,7 +4674,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5427,7 +4682,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5438,18 +4693,18 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5457,316 +4712,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -5797,7 +4749,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5805,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5821,20 +4773,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5842,37 +4794,37 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5880,13 +4832,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5894,13 +4846,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5908,13 +4860,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5922,13 +4874,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5936,13 +4888,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5950,13 +4902,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5964,13 +4916,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5978,13 +4930,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5992,13 +4944,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6006,13 +4958,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6020,13 +4972,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6034,13 +4986,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6048,13 +5000,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6062,13 +5014,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6076,13 +5028,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6090,13 +5042,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6104,13 +5056,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6118,13 +5070,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -6138,7 +5090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="113" workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -6155,7 +5107,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6163,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6179,7 +5131,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6187,7 +5139,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6198,12 +5150,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6211,13 +5163,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6225,13 +5177,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6239,37 +5191,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="D13" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6277,18 +5229,18 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6296,7 +5248,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -6324,7 +5276,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -6338,7 +5290,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -6366,7 +5318,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -6377,7 +5329,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6385,13 +5337,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6399,13 +5351,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -6413,13 +5365,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -6427,13 +5379,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6441,13 +5393,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6455,13 +5407,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6469,13 +5421,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -6483,13 +5435,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6497,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6511,13 +5463,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -6525,13 +5477,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -6539,13 +5491,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -6575,7 +5527,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6583,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6599,7 +5551,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6750,7 +5702,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6758,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6774,7 +5726,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6782,7 +5734,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6793,7 +5745,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6801,13 +5753,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6815,13 +5767,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6829,18 +5781,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6848,13 +5800,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6862,13 +5814,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6876,13 +5828,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6890,13 +5842,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85ECA1F2-7623-4322-A5CE-3A2387D86204}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01ED9F8-10A2-4D8B-97AC-D57693649B25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="ch3" sheetId="9" r:id="rId5"/>
     <sheet name="ch4" sheetId="12" r:id="rId6"/>
     <sheet name="ch5" sheetId="5" r:id="rId7"/>
-    <sheet name="ch6" sheetId="14" r:id="rId8"/>
-    <sheet name="ch7" sheetId="6" r:id="rId9"/>
-    <sheet name="ch8" sheetId="7" r:id="rId10"/>
+    <sheet name="ch6" sheetId="6" r:id="rId8"/>
+    <sheet name="ch7" sheetId="7" r:id="rId9"/>
+    <sheet name="ch8" sheetId="16" r:id="rId10"/>
     <sheet name="ch9" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="308">
   <si>
     <t>header1</t>
   </si>
@@ -271,9 +271,6 @@
     <t>mac-2-20.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">OS と Office がつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。 </t>
-  </si>
-  <si>
     <t>自動アップデートとソフトウェアのセットアップ</t>
   </si>
   <si>
@@ -522,10 +519,6 @@
   </si>
   <si>
     <t>FRESTA-TEXT-2020 Mac chap.4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Mac chap.5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -948,16 +941,6 @@
     <rPh sb="28" eb="30">
       <t>ドウイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">OS と Officeがつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。
-&lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;自動アップデートの設定&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#eset"&gt;ESET EAの手動更新とフルスキャン&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
- </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1368,22 +1351,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">「検査プロファイル」として「詳細検査」を、「検査対象」として「Macintosh HD」を選んでください。Macintosh HDは、Macに内蔵されている副記憶装置(HDDもしくはSDD）を指します。「検査」をクリックすると、フルスキャンが始まります。&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-フルスキャンの実行には数時間かかりますので、時間の余裕のあるときにできるだけ早く実行し、点検届を完成させてください。
-  </t>
-    <rPh sb="188" eb="191">
-      <t>スウジカン</t>
-    </rPh>
-    <rPh sb="199" eb="201">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="202" eb="204">
-      <t>ヨユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 「アップデート」のタブから状態を確認しましょう。 「更新は必要ありません」となっていたらOKです。&lt;span class="check"&gt;check-6&lt;/span&gt;
  最新でない場合は「モジュールのアップロード」をクリックして、アップデートしましょう。 ウイルス定義データが常に最新でないと、新しいウイルスからパソコンを守ることができません。 常に最新にしておきましょう。  </t>
     <phoneticPr fontId="1"/>
@@ -2636,97 +2603,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この章では広島大学が包括ライセンスで提供しているウィルス対策ソフトESETのインストール手順を示しますが、2021/03/04現在、Mac OS 11.0 - 11.1に暫定対応、Mac OS X 11.2以降は未対応となっております。お使いのMacのOSが既に11.2以降である場合には、11.2以降対応のウィルス対策ソフトをインストールするなどしてください(Avira Free Securityなど無償のものもあります)。ESETが11.2以降に正式対応した段階で切り替えて頂いても構いません。</t>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ホウカツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ザンテイ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="106" eb="109">
-      <t>ミタイオウ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="158" eb="160">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="202" eb="204">
-      <t>ムショウ</t>
-    </rPh>
-    <rPh sb="223" eb="225">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="226" eb="228">
-      <t>セイシキ</t>
-    </rPh>
-    <rPh sb="228" eb="230">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="232" eb="234">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="235" eb="236">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="237" eb="238">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="240" eb="241">
-      <t>イタダ</t>
-    </rPh>
-    <rPh sb="244" eb="245">
-      <t>カマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>以下のサイト「ウィルス対策ソフトのインストール手順」をブラウザで開き、説明に従ってください。
 開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生番号と一緒にもらっていると思います）を入力してください。
 &lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html&lt;/a&gt;</t>
@@ -2809,10 +2685,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2021 Mac chap.6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>17_SelTimeZone.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2849,6 +2721,236 @@
     <rPh sb="9" eb="11">
       <t>ケンサク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この章では広島大学が包括ライセンスで提供しているウィルス対策ソフトESETのインストール手順を示しますが、2021/03/04現在、Mac OS 11.0 - 11.1に暫定対応、Mac OS X 11.2以降は未対応となっております。お使いのMacのOSが既に11.2以降である場合の対応は変化があり次第&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/"&gt;https://mslicense.office.hiroshima-u.ac.jp/&lt;/a&gt;にてお知らせ致しますので、そちらを随時ご参照ください。</t>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウカツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ザンテイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="106" eb="109">
+      <t>ミタイオウ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="257" eb="258">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="260" eb="261">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="271" eb="273">
+      <t>ズイジ</t>
+    </rPh>
+    <rPh sb="274" eb="276">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Office がつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Officeがつねに最新版で使えるように設定します。またウィルス対策ソフトがインストールされている場合、自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。
+&lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;自動アップデートの設定&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#eset"&gt;ESET EAの手動更新とフルスキャン&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;
+ </t>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「検査プロファイル」として「詳細検査」を、「検査対象」として「Macintosh HD」を選んでください。Macintosh HDは、Macに内蔵されている副記憶装置(HDDもしくはSSD）を指します。「検査」をクリックすると、フルスキャンが始まります。&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+フルスキャンの実行には数時間かかりますので、時間の余裕のあるときにできるだけ早く実行し、点検届を完成させてください。
+  </t>
+    <rPh sb="188" eb="191">
+      <t>スウジカン</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>ヨユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下は、ESETを既にインストールした方が対象です。macOSのバージョンの関係でESETをインストールしていない方はESETをインストールした後に行ってください。また、別に購入したウィルス対策ソフトを使う場合は、そのマニュアルでパターンファイルの更新の設定手順を確認し、実施してください。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>macOSのバージョンが11以降の方は、「macOSのアップデートをインストール」のチェックを外しておきましょう。macOS 11以降は、高い頻度でmacOSが更新されますが、ソフトウェアの互換性が不十分でウィルス対策ソフトの入れ直しなどが必要になる場合があります。ウィルス対策ソフトとの相性に関しては&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/"&gt;https://mslicense.office.hiroshima-u.ac.jp/&lt;/a&gt;にてお知らせ致しますので、そちらを随時ご参照ください。</t>
+    <rPh sb="14" eb="16">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="95" eb="98">
+      <t>ゴカンセイ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>フジュウブン</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>アイショウ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Mac chap.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Mac chap.8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3257,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3273,7 +3375,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3281,7 +3383,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3312,11 +3414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A14737B-27B4-430E-A2C9-8E4453FC8EAA}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3332,7 +3434,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3340,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3356,7 +3458,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>191</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -3364,7 +3466,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3375,7 +3477,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3397,13 +3499,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>91</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3411,18 +3513,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>93</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3444,13 +3546,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>96</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3458,21 +3560,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3480,13 +3582,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3494,13 +3596,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
         <v>100</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>101</v>
-      </c>
-      <c r="D17" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3508,13 +3610,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
         <v>103</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3522,13 +3624,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3536,13 +3638,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>106</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3550,18 +3652,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>108</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3583,13 +3685,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>111</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3597,13 +3699,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3611,18 +3713,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>114</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3644,13 +3746,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>117</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3658,13 +3760,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>119</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3672,13 +3774,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>121</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3686,13 +3788,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>123</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -3700,13 +3802,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3714,7 +3816,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -3725,13 +3827,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
         <v>219</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3739,13 +3841,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3753,15 +3855,15 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" t="s">
         <v>221</v>
-      </c>
-      <c r="D37" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3769,7 +3871,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -3783,13 +3885,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3797,13 +3899,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3811,13 +3913,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -3825,13 +3927,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3859,10 +3961,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3870,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3886,7 +3988,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3894,7 +3996,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3905,12 +4007,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3918,7 +4020,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -3929,7 +4031,7 @@
     </row>
     <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3943,7 +4045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -3960,7 +4062,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3984,7 +4086,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4012,7 +4114,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4020,13 +4122,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4034,24 +4136,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4059,13 +4161,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4073,13 +4175,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4093,18 +4195,18 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4112,13 +4214,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4132,7 +4234,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4146,7 +4248,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -4154,134 +4256,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4289,13 +4391,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4350,7 +4452,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -4358,7 +4460,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4378,7 +4480,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4386,13 +4488,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4406,7 +4508,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4414,13 +4516,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4428,24 +4530,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D12" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4453,24 +4555,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4525,17 +4627,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4543,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -4557,7 +4659,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -4613,7 +4715,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -4650,7 +4752,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4658,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4674,7 +4776,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4682,7 +4784,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4693,18 +4795,18 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4712,13 +4814,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4733,7 +4835,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4749,7 +4851,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4757,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4773,20 +4875,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4794,37 +4896,37 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4832,7 +4934,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -4860,7 +4962,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -4888,7 +4990,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -4902,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -4972,7 +5074,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -4986,7 +5088,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -5056,7 +5158,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -5107,7 +5209,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5115,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5131,7 +5233,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5139,7 +5241,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5150,12 +5252,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5163,13 +5265,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5177,13 +5279,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5191,37 +5293,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5229,18 +5331,18 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5248,7 +5350,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -5276,7 +5378,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -5290,7 +5392,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -5318,7 +5420,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -5329,7 +5431,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5337,13 +5439,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5351,13 +5453,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -5365,13 +5467,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -5379,13 +5481,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5393,13 +5495,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5407,13 +5509,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5421,13 +5523,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5435,13 +5537,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5449,13 +5551,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5463,13 +5565,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -5477,13 +5579,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -5491,13 +5593,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -5507,186 +5609,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7F5518-4A72-4FDF-9105-E8C6264D5F56}">
-  <dimension ref="A1:D35"/>
-  <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5702,7 +5629,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5710,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5726,7 +5653,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5734,7 +5661,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5745,7 +5672,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5753,13 +5680,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5767,13 +5694,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5781,74 +5708,614 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" t="s">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
-        <v>76</v>
+      <c r="D43" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01ED9F8-10A2-4D8B-97AC-D57693649B25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E1CC67-EE70-48B3-8F8D-B3E0A58ED682}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="314">
   <si>
     <t>header1</t>
   </si>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>mac-4-02.svg</t>
-  </si>
-  <si>
-    <t>mac-4-03.svg</t>
   </si>
   <si>
     <t>mac-4-04.svg</t>
@@ -1345,12 +1342,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">  「Macを自動的に最新の状態に保つ」のところにチェックが入っていることを確認してください。入ってなければ入れてください。 &lt;span class="check"&gt;check-4&lt;span&gt; &lt;/span&gt;
-&lt;/span&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 「アップデート」のタブから状態を確認しましょう。 「更新は必要ありません」となっていたらOKです。&lt;span class="check"&gt;check-6&lt;/span&gt;
  最新でない場合は「モジュールのアップロード」をクリックして、アップデートしましょう。 ウイルス定義データが常に最新でないと、新しいウイルスからパソコンを守ることができません。 常に最新にしておきましょう。  </t>
     <phoneticPr fontId="1"/>
@@ -2891,66 +2882,133 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>macOSのバージョンが11以降の方は、「macOSのアップデートをインストール」のチェックを外しておきましょう。macOS 11以降は、高い頻度でmacOSが更新されますが、ソフトウェアの互換性が不十分でウィルス対策ソフトの入れ直しなどが必要になる場合があります。ウィルス対策ソフトとの相性に関しては&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/"&gt;https://mslicense.office.hiroshima-u.ac.jp/&lt;/a&gt;にてお知らせ致しますので、そちらを随時ご参照ください。</t>
-    <rPh sb="14" eb="16">
+    <t>FRESTA-TEXT-2020 Mac chap.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Mac chap.8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、OneDriveについて。一般に広く使われているDropBoxと同様に、PC用のアプリがあります。これを入れておくと、PC上の特定のフォルダとOneDriveの内容が自動的に同期されるようになります。スマホのアプリにもOneDriveがありますが、これは自動的に同期はしません。全部を同期するとスマホの容量を圧迫するからでしょう。
+OneDriveのアプリは、Web版のOneDrive サイトから入手できます。
+詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/onedriveforbusiness/"&gt;「クラウドファイル保管サービス(OneDrive for Business)」&lt;/a&gt;
+で。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Macを自動的に最新の状態に保つ」をチェックできるウィンドウがでてきます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もしかするとすぐに「このMac用のアップデートがあります」と表示されて「今すぐ再起動」というボタンが出るかもしれませんが、これを押さず、「詳細」をクリックします。「詳しい情報」ではないのでご注意ください。</t>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動的に行う操作を「アップデートを確認」「新しいアップデートがある場合はダウンロード」「App Storeからのアプリケーションアップデートをインストール」「システムデータファイルとセキュリティアップデートをインストール」をチェックしますが、macOSのバージョンが11以降の方は、「macOSアップデートをインストール」はチェックを外します。&lt;span class="check"&gt;check-4&lt;span&gt; &lt;/span&gt;
+&lt;/span&gt;
+ macOS 11以降は、高い頻度でmacOSが更新されますが、ソフトウェアの互換性が不十分でウィルス対策ソフトの入れ直しなどが必要になる場合があります。ウィルス対策ソフトとの相性に関しては&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/"&gt;https://mslicense.office.hiroshima-u.ac.jp/&lt;/a&gt;にてお知らせ致しますので、そちらを随時ご参照ください。</t>
+    <rPh sb="0" eb="3">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
       <t>イコウ</t>
     </rPh>
-    <rPh sb="17" eb="18">
+    <rPh sb="138" eb="139">
       <t>カタ</t>
     </rPh>
+    <rPh sb="167" eb="168">
+      <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch6-SoftwareUpdateNowChecking.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch6-SoftwareUpdateFoundUpdate.png</t>
+  </si>
+  <si>
+    <t>「詳細」のダイヤログでは、自動更新をどのように行うかを設定できます。もしかすると全くチェックが入っていないかもしれませんし、全てチェックされているかもしれません。</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>マッタ</t>
+    </rPh>
     <rPh sb="47" eb="48">
-      <t>ハズ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ヒンド</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="95" eb="98">
-      <t>ゴカンセイ</t>
-    </rPh>
-    <rPh sb="99" eb="102">
-      <t>フジュウブン</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>ナオ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>アイショウ</t>
-    </rPh>
-    <rPh sb="147" eb="148">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Mac chap.7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Mac chap.8</t>
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch6-SoftwareUpdateConfigDetail.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch6-SoftwareUpdateConfigDisableOSUpdate.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3359,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3375,7 +3433,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3383,7 +3441,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3417,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A14737B-27B4-430E-A2C9-8E4453FC8EAA}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3434,7 +3492,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3442,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3458,7 +3516,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -3466,7 +3524,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3477,7 +3535,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3499,13 +3557,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3513,18 +3571,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>92</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3546,13 +3604,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>95</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3560,21 +3618,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>97</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" t="s">
         <v>143</v>
-      </c>
-      <c r="D15" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3582,13 +3640,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
         <v>145</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3596,13 +3654,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
         <v>99</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3610,13 +3668,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
         <v>102</v>
-      </c>
-      <c r="C18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3624,13 +3682,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3638,13 +3696,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>105</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3652,18 +3710,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>107</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3685,13 +3743,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>110</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3699,13 +3757,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3713,18 +3771,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>113</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3746,13 +3804,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>116</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3760,13 +3818,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>118</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3774,13 +3832,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>120</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3788,13 +3846,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>122</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -3802,13 +3860,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3816,7 +3874,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -3827,13 +3885,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3841,13 +3899,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3855,15 +3913,15 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3871,7 +3929,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -3885,13 +3943,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3899,13 +3957,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3913,13 +3971,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>129</v>
+        <v>305</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -3927,13 +3985,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3961,10 +4019,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3972,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3988,7 +4046,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3996,7 +4054,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4007,12 +4065,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4020,7 +4078,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -4031,7 +4089,7 @@
     </row>
     <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4062,7 +4120,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4086,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4114,7 +4172,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4122,13 +4180,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4136,24 +4194,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4161,13 +4219,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4175,13 +4233,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4195,18 +4253,18 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4214,13 +4272,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4234,7 +4292,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4248,7 +4306,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -4256,134 +4314,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4391,13 +4449,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4452,7 +4510,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -4460,7 +4518,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4480,7 +4538,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4488,13 +4546,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4508,7 +4566,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4516,13 +4574,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4530,24 +4588,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4555,24 +4613,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4627,17 +4685,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4645,7 +4703,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -4659,7 +4717,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -4715,7 +4773,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -4752,7 +4810,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4760,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4776,7 +4834,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4784,7 +4842,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4795,18 +4853,18 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4814,13 +4872,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4851,7 +4909,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4859,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4875,20 +4933,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4896,37 +4954,37 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4934,7 +4992,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -4962,7 +5020,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -4990,7 +5048,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5004,7 +5062,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -5074,7 +5132,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -5088,7 +5146,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -5158,7 +5216,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -5209,7 +5267,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5217,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5233,7 +5291,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5241,7 +5299,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5252,12 +5310,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5265,13 +5323,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5279,13 +5337,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5293,37 +5351,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" t="s">
         <v>195</v>
-      </c>
-      <c r="D13" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" t="s">
         <v>143</v>
-      </c>
-      <c r="D14" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5331,18 +5389,18 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>145</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5350,7 +5408,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -5378,7 +5436,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -5392,7 +5450,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -5420,7 +5478,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -5431,7 +5489,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5439,13 +5497,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5453,13 +5511,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -5467,13 +5525,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -5481,13 +5539,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5495,13 +5553,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5509,13 +5567,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5523,13 +5581,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5537,13 +5595,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5551,13 +5609,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5565,13 +5623,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -5579,13 +5637,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -5593,13 +5651,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5610,10 +5668,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5629,7 +5687,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5653,7 +5711,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5661,7 +5719,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5680,7 +5738,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -5694,7 +5752,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -5703,89 +5761,123 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>163</v>
+        <v>308</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
       <c r="B14" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5816,7 +5908,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5824,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5840,7 +5932,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -5848,7 +5940,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5859,7 +5951,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5881,13 +5973,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5895,18 +5987,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>92</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5928,13 +6020,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>95</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5942,21 +6034,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>97</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" t="s">
         <v>143</v>
-      </c>
-      <c r="D15" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5964,13 +6056,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
         <v>145</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5978,13 +6070,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
         <v>99</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5992,13 +6084,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
         <v>102</v>
-      </c>
-      <c r="C18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6006,13 +6098,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6020,13 +6112,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>105</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6034,18 +6126,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>107</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -6067,13 +6159,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>110</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6081,13 +6173,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6095,18 +6187,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>113</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -6128,13 +6220,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>116</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6142,13 +6234,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>118</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6156,13 +6248,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>120</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6170,13 +6262,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>122</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -6184,13 +6276,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6198,7 +6290,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -6209,13 +6301,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6223,13 +6315,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6237,15 +6329,15 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6253,7 +6345,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -6267,13 +6359,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6281,13 +6373,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6295,13 +6387,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6309,13 +6401,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E1CC67-EE70-48B3-8F8D-B3E0A58ED682}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAF8F4F-6ABC-4ADC-8839-184B5E9BCEE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2791,224 +2791,263 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Office がつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Officeがつねに最新版で使えるように設定します。またウィルス対策ソフトがインストールされている場合、自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。
+    <t xml:space="preserve">「検査プロファイル」として「詳細検査」を、「検査対象」として「Macintosh HD」を選んでください。Macintosh HDは、Macに内蔵されている副記憶装置(HDDもしくはSSD）を指します。「検査」をクリックすると、フルスキャンが始まります。&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;
+&lt;/span&gt;
+フルスキャンの実行には数時間かかりますので、時間の余裕のあるときにできるだけ早く実行し、点検届を完成させてください。
+  </t>
+    <rPh sb="188" eb="191">
+      <t>スウジカン</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>ヨユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下は、ESETを既にインストールした方が対象です。macOSのバージョンの関係でESETをインストールしていない方はESETをインストールした後に行ってください。また、別に購入したウィルス対策ソフトを使う場合は、そのマニュアルでパターンファイルの更新の設定手順を確認し、実施してください。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2020 Mac chap.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Mac chap.8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、OneDriveについて。一般に広く使われているDropBoxと同様に、PC用のアプリがあります。これを入れておくと、PC上の特定のフォルダとOneDriveの内容が自動的に同期されるようになります。スマホのアプリにもOneDriveがありますが、これは自動的に同期はしません。全部を同期するとスマホの容量を圧迫するからでしょう。
+OneDriveのアプリは、Web版のOneDrive サイトから入手できます。
+詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/onedriveforbusiness/"&gt;「クラウドファイル保管サービス(OneDrive for Business)」&lt;/a&gt;
+で。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Macを自動的に最新の状態に保つ」をチェックできるウィンドウがでてきます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もしかするとすぐに「このMac用のアップデートがあります」と表示されて「今すぐ再起動」というボタンが出るかもしれませんが、これを押さず、「詳細」をクリックします。「詳しい情報」ではないのでご注意ください。</t>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動的に行う操作を「アップデートを確認」「新しいアップデートがある場合はダウンロード」「App Storeからのアプリケーションアップデートをインストール」「システムデータファイルとセキュリティアップデートをインストール」をチェックしますが、macOSのバージョンが11以降の方は、「macOSアップデートをインストール」はチェックを外します。&lt;span class="check"&gt;check-4&lt;span&gt; &lt;/span&gt;
+&lt;/span&gt;
+ macOS 11以降は、高い頻度でmacOSが更新されますが、ソフトウェアの互換性が不十分でウィルス対策ソフトの入れ直しなどが必要になる場合があります。ウィルス対策ソフトとの相性に関しては&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/"&gt;https://mslicense.office.hiroshima-u.ac.jp/&lt;/a&gt;にてお知らせ致しますので、そちらを随時ご参照ください。</t>
+    <rPh sb="0" eb="3">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch6-SoftwareUpdateNowChecking.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch6-SoftwareUpdateFoundUpdate.png</t>
+  </si>
+  <si>
+    <t>「詳細」のダイヤログでは、自動更新をどのように行うかを設定できます。もしかすると全くチェックが入っていないかもしれませんし、全てチェックされているかもしれません。</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch6-SoftwareUpdateConfigDetail.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch6-SoftwareUpdateConfigDisableOSUpdate.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ソフトウェアの自動更新は基本的には推奨される機能ですが、macOS 11以降ではウィルス対策ソフトの関係で調整が必要です。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。 </t>
+    <rPh sb="7" eb="9">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">OSが適切に更新されるよう設定します。またウィルス対策ソフトがインストールされている場合、自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。
 &lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;自動アップデートの設定&lt;/a&gt;
 &lt;/li&gt;
 &lt;li&gt;&lt;a href="#eset"&gt;ESET EAの手動更新とフルスキャン&lt;/a&gt;
 &lt;/li&gt;
  &lt;/ul&gt;
  </t>
-    <rPh sb="49" eb="51">
+    <rPh sb="3" eb="5">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">「検査プロファイル」として「詳細検査」を、「検査対象」として「Macintosh HD」を選んでください。Macintosh HDは、Macに内蔵されている副記憶装置(HDDもしくはSSD）を指します。「検査」をクリックすると、フルスキャンが始まります。&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-フルスキャンの実行には数時間かかりますので、時間の余裕のあるときにできるだけ早く実行し、点検届を完成させてください。
-  </t>
-    <rPh sb="188" eb="191">
-      <t>スウジカン</t>
-    </rPh>
-    <rPh sb="199" eb="201">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="202" eb="204">
-      <t>ヨユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下は、ESETを既にインストールした方が対象です。macOSのバージョンの関係でESETをインストールしていない方はESETをインストールした後に行ってください。また、別に購入したウィルス対策ソフトを使う場合は、そのマニュアルでパターンファイルの更新の設定手順を確認し、実施してください。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Mac chap.7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Mac chap.8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">次に、OneDriveについて。一般に広く使われているDropBoxと同様に、PC用のアプリがあります。これを入れておくと、PC上の特定のフォルダとOneDriveの内容が自動的に同期されるようになります。スマホのアプリにもOneDriveがありますが、これは自動的に同期はしません。全部を同期するとスマホの容量を圧迫するからでしょう。
-OneDriveのアプリは、Web版のOneDrive サイトから入手できます。
-詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/onedriveforbusiness/"&gt;「クラウドファイル保管サービス(OneDrive for Business)」&lt;/a&gt;
-で。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「Macを自動的に最新の状態に保つ」をチェックできるウィンドウがでてきます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>もしかするとすぐに「このMac用のアップデートがあります」と表示されて「今すぐ再起動」というボタンが出るかもしれませんが、これを押さず、「詳細」をクリックします。「詳しい情報」ではないのでご注意ください。</t>
-    <rPh sb="15" eb="16">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>サイキドウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自動的に行う操作を「アップデートを確認」「新しいアップデートがある場合はダウンロード」「App Storeからのアプリケーションアップデートをインストール」「システムデータファイルとセキュリティアップデートをインストール」をチェックしますが、macOSのバージョンが11以降の方は、「macOSアップデートをインストール」はチェックを外します。&lt;span class="check"&gt;check-4&lt;span&gt; &lt;/span&gt;
-&lt;/span&gt;
- macOS 11以降は、高い頻度でmacOSが更新されますが、ソフトウェアの互換性が不十分でウィルス対策ソフトの入れ直しなどが必要になる場合があります。ウィルス対策ソフトとの相性に関しては&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/"&gt;https://mslicense.office.hiroshima-u.ac.jp/&lt;/a&gt;にてお知らせ致しますので、そちらを随時ご参照ください。</t>
-    <rPh sb="0" eb="3">
-      <t>ジドウテキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="167" eb="168">
-      <t>ハズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch6-SoftwareUpdateNowChecking.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch6-SoftwareUpdateFoundUpdate.png</t>
-  </si>
-  <si>
-    <t>「詳細」のダイヤログでは、自動更新をどのように行うかを設定できます。もしかすると全くチェックが入っていないかもしれませんし、全てチェックされているかもしれません。</t>
-    <rPh sb="1" eb="3">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>マッタ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>スベ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch6-SoftwareUpdateConfigDetail.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch6-SoftwareUpdateConfigDisableOSUpdate.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3516,7 +3555,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -3971,7 +4010,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -5670,8 +5709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5687,7 +5726,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5719,7 +5758,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5766,13 +5805,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5780,24 +5819,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5805,18 +5844,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -5871,7 +5910,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -5932,7 +5971,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAF8F4F-6ABC-4ADC-8839-184B5E9BCEE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38D233B-A10E-4F3E-9394-DFF0AC5D2DB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="326">
   <si>
     <t>header1</t>
   </si>
@@ -140,31 +140,9 @@
     <t>win10-4-07.svg</t>
   </si>
   <si>
-    <t>mac-2-5.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">「同意する」をクリックします。
 &lt;p class="spl"&gt;※ このステップは、Microsoftが提示した使用条件に同意して、Microsoftとあなたとの間で使用許諾契約を交わす、ということを意味しています。使用許諾条件は、左に見えている「使用許諾契約を読む」をクリックすると確認できます。 &lt;/p&gt;
   </t>
-  </si>
-  <si>
-    <t>mac-2-6.png</t>
-  </si>
-  <si>
-    <t>mac-2-7.png</t>
-  </si>
-  <si>
-    <t>mac-2-8.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイルの書き込みと内部設定処理がはじまりました。10分位かかります。 
-  </t>
-  </si>
-  <si>
-    <t>mac-2-9.png</t>
-  </si>
-  <si>
-    <t>mac-2-10.png</t>
   </si>
   <si>
     <t>mac-2-05.svg</t>
@@ -777,46 +755,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>そのあとの画面で「今すぐインストール」をクリックすると、Officeのインストーラー（pkgファイル）がダウンロードされます。これを保存してから、ダブルクリックして起動します。</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">実際にインストーラからファイルを書き込むステップに入ります。「続ける」、「インストール」をクリックしてください。 
-  </t>
-    <rPh sb="31" eb="32">
-      <t>ツヅ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Microsoft Office をインストールしましょう。 </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Microsoft Officeのインストール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">使用許諾契約の同意手続きをはじめます。「続ける」をクリックしてください。 
-  </t>
-    <rPh sb="7" eb="9">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>テツヅ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3048,6 +2991,257 @@
     <rPh sb="42" eb="44">
       <t>バアイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-hirodai-login.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">広大パスワードを入力し「サインイン」をクリックします。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-hirodai-login-password.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サインインの状態を維持しておくと、同一のサーバで似たような作業をする際にサインインの回数を減らすことができますが、初期設定の段階ではあまり多くないので「いいえ」にして進めます。</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-hirodai-login-keep-signin.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Office365にサインインした状態になります。ここでは左右を縮めて表示していますが、画面の右側のほうに「Officeのインストール」というメニューがありますので、そこからOffice 365アプリを選びます。</t>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>チヂ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-download-from-portal-office365.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最新のSafariでは初めて接続したサイトから何かダウンロードしようとすると「このサイトからダウンロードしても良いのか？」ということを確認してきます。「許可」を選んでください。</t>
+    <rPh sb="0" eb="2">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-download-enable-from-portal-office365.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-download-finished.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Officeのインストーラ（pkgファイル）がダウンロードされます。これを保存してから、ダブルクリックして起動します。</t>
+    <rPh sb="37" eb="39">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インストーラをクリックするとこのようなウィンドウが開きます。</t>
+    <rPh sb="25" eb="26">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-start-installer.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-start-installer-license.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">使用許諾契約の同意手続きをはじめます。説明を読んだうえで「続ける」をクリックしてください。 
+  </t>
+    <rPh sb="7" eb="9">
+      <t>ドウイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-license-agreement.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">実際にインストーラからファイルを書き込むステップに入ります。初期設定では、このMacを使う人は誰でも使えるためのインストールになっています。このMacで貴方が複数のアカウントを使いわけることになるかもしれないので、全てのユーザ用にインストールで構いません。 
+  </t>
+    <rPh sb="30" eb="32">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>アナタ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-installer-destination.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-installer-auth.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-install-laststep.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ファイルの書き込みと内部設定処理がはじまりました。残り時間1分未満といわれてから5分ぐらい待つこともあります。
+  </t>
+    <rPh sb="25" eb="26">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-finish-install.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3456,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3472,7 +3666,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3480,7 +3674,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3531,7 +3725,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3539,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3555,7 +3749,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -3563,7 +3757,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3574,7 +3768,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3596,13 +3790,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3610,18 +3804,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3643,13 +3837,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3657,21 +3851,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3679,13 +3873,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3693,13 +3887,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3707,13 +3901,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3721,13 +3915,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3735,13 +3929,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3749,18 +3943,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3782,13 +3976,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3796,13 +3990,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3810,18 +4004,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3843,13 +4037,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3857,13 +4051,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3871,13 +4065,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3885,13 +4079,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -3899,13 +4093,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3913,7 +4107,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -3924,13 +4118,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3938,13 +4132,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3952,15 +4146,15 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3968,7 +4162,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -3982,13 +4176,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3996,13 +4190,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -4010,13 +4204,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4024,13 +4218,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4058,10 +4252,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4069,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4085,7 +4279,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4093,7 +4287,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4104,12 +4298,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4117,7 +4311,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -4128,7 +4322,7 @@
     </row>
     <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4159,7 +4353,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4183,7 +4377,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4211,7 +4405,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4219,13 +4413,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4233,24 +4427,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4258,13 +4452,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4272,13 +4466,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4292,18 +4486,18 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4311,13 +4505,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4331,7 +4525,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4345,7 +4539,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -4353,134 +4547,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4488,13 +4682,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4549,7 +4743,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -4557,7 +4751,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4577,7 +4771,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4585,13 +4779,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4605,7 +4799,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4613,13 +4807,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4627,24 +4821,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4652,24 +4846,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4724,17 +4918,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4742,7 +4936,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -4756,7 +4950,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -4812,7 +5006,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -4849,7 +5043,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4857,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4873,7 +5067,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4881,7 +5075,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4892,18 +5086,18 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4911,13 +5105,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4948,7 +5142,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4956,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4972,20 +5166,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4993,37 +5187,37 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5031,13 +5225,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5045,13 +5239,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5059,13 +5253,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5073,13 +5267,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5087,13 +5281,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5101,13 +5295,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5115,13 +5309,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5129,13 +5323,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5143,13 +5337,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5157,13 +5351,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5171,13 +5365,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5185,13 +5379,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5199,13 +5393,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5213,13 +5407,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5227,13 +5421,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5241,13 +5435,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5255,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5269,13 +5463,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5287,10 +5481,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5306,7 +5500,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5314,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5330,7 +5524,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5338,7 +5532,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5349,12 +5543,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5362,13 +5556,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5376,13 +5570,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5390,37 +5584,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5428,74 +5622,53 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>144</v>
+        <v>305</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>168</v>
+        <v>307</v>
+      </c>
+      <c r="D16" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
       <c r="B17" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
+        <v>309</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
+        <v>314</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
+        <v>315</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5503,46 +5676,55 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>318</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5550,55 +5732,46 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>152</v>
+        <v>324</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
       <c r="B27" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5606,27 +5779,27 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5634,27 +5807,27 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5662,27 +5835,27 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -5690,13 +5863,69 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5709,7 +5938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -5726,7 +5955,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5734,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5750,7 +5979,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5758,7 +5987,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5769,7 +5998,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5777,13 +6006,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5791,13 +6020,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5805,13 +6034,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5819,24 +6048,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5844,23 +6073,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5868,13 +6097,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5882,13 +6111,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5896,13 +6125,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5910,13 +6139,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -5947,7 +6176,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5955,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5971,7 +6200,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -5979,7 +6208,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5990,7 +6219,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6012,13 +6241,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6026,18 +6255,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6059,13 +6288,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6073,21 +6302,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6095,13 +6324,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6109,13 +6338,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6123,13 +6352,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6137,13 +6366,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6151,13 +6380,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6165,18 +6394,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -6198,13 +6427,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6212,13 +6441,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6226,18 +6455,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -6259,13 +6488,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6273,13 +6502,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6287,13 +6516,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6301,13 +6530,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -6315,13 +6544,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6329,7 +6558,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -6340,13 +6569,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6354,13 +6583,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6368,15 +6597,15 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6384,7 +6613,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -6398,13 +6627,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6412,13 +6641,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6426,13 +6655,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6440,13 +6669,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38D233B-A10E-4F3E-9394-DFF0AC5D2DB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8E9713-02ED-4111-8CC0-84727B04279A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3206,14 +3206,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ch5-installer-destination.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch5-installer-auth.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ch5-install-laststep.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3243,6 +3235,12 @@
   <si>
     <t>ch5-finish-install.png</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-start-installer-destination.png</t>
+  </si>
+  <si>
+    <t>ch5-start-installer-auth.png</t>
   </si>
 </sst>
 </file>
@@ -5483,8 +5481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5710,7 +5708,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5724,7 +5722,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5732,13 +5730,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5752,7 +5750,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8E9713-02ED-4111-8CC0-84727B04279A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F39177-6169-46DE-BA64-99144128F1E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -861,12 +861,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">さきほどのOfficeの時と同様、使用許諾契約の段階に入ります。「続ける」をクリックしてください。 
-&lt;p class="spl"&gt;※本来は表示されている利用許諾契約をひととおり読んでから同意するものです&lt;/p&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Google Chrome 利用規約が表示されるので、「同意してインストール」をクリックします。
 </t>
     <rPh sb="14" eb="16">
@@ -3241,6 +3235,12 @@
   </si>
   <si>
     <t>ch5-start-installer-auth.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用許諾契約の段階に入ります。「続ける」をクリックしてください。 
+&lt;p class="spl"&gt;※本来は表示されている利用許諾契約をひととおり読んでから同意するものです&lt;/p&gt;
+  </t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3672,7 +3672,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3747,7 +3747,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -3913,7 +3913,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -3988,7 +3988,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -4091,7 +4091,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -4105,7 +4105,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -4116,13 +4116,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4130,13 +4130,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4144,10 +4144,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4202,7 +4202,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -4250,10 +4250,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4301,7 +4301,7 @@
     </row>
     <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4351,7 +4351,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4375,7 +4375,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4403,7 +4403,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4411,13 +4411,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4425,24 +4425,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4450,13 +4450,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4464,13 +4464,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4484,18 +4484,18 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4503,13 +4503,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4523,7 +4523,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4537,7 +4537,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -4545,134 +4545,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4680,13 +4680,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4741,7 +4741,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -4749,7 +4749,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4769,7 +4769,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4777,13 +4777,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4797,7 +4797,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4805,13 +4805,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4819,24 +4819,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" t="s">
         <v>266</v>
-      </c>
-      <c r="C12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D12" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4844,24 +4844,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -4916,7 +4916,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4926,7 +4926,7 @@
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4948,7 +4948,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -5004,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5041,7 +5041,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5073,7 +5073,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5084,18 +5084,18 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5103,13 +5103,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -5123,7 +5123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -5140,7 +5140,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5164,20 +5164,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5191,7 +5191,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5199,7 +5199,7 @@
         <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5207,7 +5207,7 @@
         <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5215,7 +5215,7 @@
         <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5251,7 +5251,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -5279,7 +5279,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>174</v>
+        <v>325</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5363,7 +5363,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -5481,7 +5481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -5522,7 +5522,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5546,7 +5546,7 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5554,7 +5554,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -5568,13 +5568,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5588,7 +5588,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5596,15 +5596,15 @@
         <v>171</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" t="s">
         <v>184</v>
-      </c>
-      <c r="D13" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5612,7 +5612,7 @@
         <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5620,53 +5620,53 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>305</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" t="s">
         <v>307</v>
-      </c>
-      <c r="D16" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D17" t="s">
         <v>309</v>
-      </c>
-      <c r="D17" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D18" t="s">
         <v>311</v>
-      </c>
-      <c r="D18" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" t="s">
         <v>315</v>
-      </c>
-      <c r="D20" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5674,13 +5674,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5694,7 +5694,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5702,13 +5702,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5716,13 +5716,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5730,13 +5730,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5750,7 +5750,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -5875,7 +5875,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -5953,7 +5953,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5977,7 +5977,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5985,7 +5985,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6032,13 +6032,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6046,24 +6046,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -6071,18 +6071,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -6109,7 +6109,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -6123,7 +6123,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -6137,7 +6137,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -6198,7 +6198,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -6364,7 +6364,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -6439,7 +6439,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -6542,7 +6542,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -6556,7 +6556,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -6567,13 +6567,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6581,13 +6581,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6595,10 +6595,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F39177-6169-46DE-BA64-99144128F1E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FF2511-4092-4C49-A5E9-064F3766CA42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -249,9 +249,6 @@
     <t>mac-2-20.svg</t>
   </si>
   <si>
-    <t>自動アップデートとソフトウェアのセットアップ</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="windows_update"&gt;&lt;/a&gt;自動アップデートの設定&lt;/h2&gt; </t>
   </si>
   <si>
@@ -2513,20 +2510,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ウィルス対策ソフトESETをインストールしましょう。</t>
-    <rPh sb="4" eb="6">
-      <t>タイサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウィルス対策ソフトESETをインストールしましょう</t>
-    <rPh sb="4" eb="6">
-      <t>タイサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2021 Mac chap.4</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3240,6 +3223,27 @@
     <t xml:space="preserve">使用許諾契約の段階に入ります。「続ける」をクリックしてください。 
 &lt;p class="spl"&gt;※本来は表示されている利用許諾契約をひととおり読んでから同意するものです&lt;/p&gt;
   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可能であればウィルス対策ソフトESETをインストールしましょう。</t>
+    <rPh sb="0" eb="2">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィルス対策ソフトESETのインストール</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動アップデートのセットアップ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3648,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3664,7 +3668,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3672,7 +3676,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3723,7 +3727,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3731,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3747,7 +3751,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -3755,7 +3759,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3766,7 +3770,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3788,13 +3792,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3802,18 +3806,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>84</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3835,13 +3839,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>87</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3849,21 +3853,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>89</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" t="s">
         <v>135</v>
-      </c>
-      <c r="D15" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3871,13 +3875,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
         <v>137</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3885,13 +3889,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
         <v>91</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3899,13 +3903,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
         <v>94</v>
-      </c>
-      <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3913,13 +3917,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3927,13 +3931,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>97</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3941,18 +3945,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>99</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3974,13 +3978,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>102</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3988,13 +3992,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4002,18 +4006,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>105</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4035,13 +4039,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>108</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4049,13 +4053,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>110</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4063,13 +4067,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>112</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4077,13 +4081,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>114</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -4091,13 +4095,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4105,7 +4109,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -4116,13 +4120,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4130,13 +4134,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4144,15 +4148,15 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4160,7 +4164,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -4174,13 +4178,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4188,13 +4192,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -4202,13 +4206,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4216,13 +4220,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4250,10 +4254,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4261,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4277,7 +4281,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4285,7 +4289,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4296,12 +4300,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4309,7 +4313,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -4320,7 +4324,7 @@
     </row>
     <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +4355,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4375,7 +4379,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4403,7 +4407,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4411,13 +4415,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4425,24 +4429,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4450,13 +4454,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4464,13 +4468,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4484,18 +4488,18 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4503,13 +4507,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4523,7 +4527,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4537,7 +4541,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -4545,134 +4549,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4680,13 +4684,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4741,7 +4745,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -4749,7 +4753,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4769,7 +4773,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4777,13 +4781,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4797,7 +4801,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4805,13 +4809,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4819,24 +4823,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" t="s">
         <v>265</v>
-      </c>
-      <c r="C12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D12" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4844,24 +4848,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4916,17 +4920,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4934,7 +4938,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -4948,7 +4952,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -5004,7 +5008,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5041,7 +5045,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5049,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5065,7 +5069,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5073,7 +5077,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5084,18 +5088,18 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5103,13 +5107,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5123,8 +5127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5140,7 +5144,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5148,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5164,20 +5168,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5185,37 +5189,37 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5223,7 +5227,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -5251,7 +5255,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -5279,7 +5283,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5293,7 +5297,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -5363,7 +5367,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -5377,7 +5381,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -5447,7 +5451,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -5481,8 +5485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5498,7 +5502,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5506,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5522,7 +5526,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5530,7 +5534,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5541,12 +5545,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5554,13 +5558,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5568,13 +5572,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5582,37 +5586,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" t="s">
         <v>183</v>
-      </c>
-      <c r="D13" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5620,53 +5624,53 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D19" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D20" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5674,13 +5678,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5694,7 +5698,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5702,13 +5706,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5716,13 +5720,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5730,13 +5734,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5744,18 +5748,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5763,13 +5767,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5777,13 +5781,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -5791,13 +5795,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5805,13 +5809,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5819,13 +5823,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5833,13 +5837,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5847,13 +5851,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -5861,13 +5865,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5875,13 +5879,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5889,13 +5893,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -5903,13 +5907,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -5917,13 +5921,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -5936,8 +5940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5953,7 +5957,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5961,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5977,7 +5981,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5985,7 +5989,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5996,7 +6000,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6004,13 +6008,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6018,13 +6022,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6032,13 +6036,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6046,24 +6050,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -6071,23 +6075,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6095,13 +6099,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6109,13 +6113,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6123,13 +6127,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6137,13 +6141,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -6174,7 +6178,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6182,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6198,7 +6202,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -6206,7 +6210,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6217,7 +6221,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6239,13 +6243,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6253,18 +6257,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>84</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6286,13 +6290,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>87</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6300,21 +6304,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>89</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" t="s">
         <v>135</v>
-      </c>
-      <c r="D15" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6322,13 +6326,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
         <v>137</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6336,13 +6340,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
         <v>91</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6350,13 +6354,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
         <v>94</v>
-      </c>
-      <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6364,13 +6368,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6378,13 +6382,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>97</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6392,18 +6396,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>99</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -6425,13 +6429,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>102</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6439,13 +6443,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6453,18 +6457,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>105</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -6486,13 +6490,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>108</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6500,13 +6504,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>110</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6514,13 +6518,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>112</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6528,13 +6532,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>114</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -6542,13 +6546,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6556,7 +6560,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -6567,13 +6571,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6581,13 +6585,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6595,15 +6599,15 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6611,7 +6615,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -6625,13 +6629,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6639,13 +6643,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6653,13 +6657,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6667,13 +6671,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FF2511-4092-4C49-A5E9-064F3766CA42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF6E113-19B8-4C0C-BD48-CEC60CD29FDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -95,11 +95,6 @@
   </t>
   </si>
   <si>
-    <t xml:space="preserve">次に、HDD/SSDの容量を調べましょう。
-&lt;p class="spl"&gt;※HDD (Hard Disk Drive)や SSD (Solid State Drive) は、メインメモリほど読み書きが速くないですが、大容量でPCの電源を切っても内容が消えません。&lt;/p&gt;
- 「ストレージ」タブをクリックしてください。HDD/SDDの空き容量と全容量がというように表示されます。   </t>
-  </si>
-  <si>
     <t>無線LANで学内ネットワークに接続できるように設定しましょう。</t>
   </si>
   <si>
@@ -2306,16 +2301,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">最初に、目の前のMacがどんなものなのかを確認しましょう。Macの処理能力や容量の目安になるさまざまな要素を「スペック」と呼ぶことがあります。ここでは以下のスペックを確認しましょう。
-&lt;ol&gt;&lt;li&gt; OSのバージョン &lt;/li&gt;
-&lt;li&gt; メモリ容量（主記憶容量） &lt;/li&gt;
-&lt;li&gt; HDD/SDD容量（副記憶容量） &lt;/li&gt;
-&lt;li&gt; バッテリー駆動時間 &lt;/li&gt;
-&lt;/ol&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>25_AboutThisMac.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2601,12 +2586,6 @@
   </si>
   <si>
     <t>05_WiFi-before-account.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
- macOS Big Sur」というのがこのOSの名前ですね。その下に小さな文字で「バージョン11.1」とあります。このMacのOSのバージョンは11.1です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
- 更にその下にパソコンの名称が書かれています。「MacBook Air」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは8GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3244,6 +3223,28 @@
   </si>
   <si>
     <t>自動アップデートのセットアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">図のようなパネルが出ます。中にこのMacに関する情報がたくさん表示されています。
+「macOS Big Sur」というのがこのOSの名前ですね。その下に小さな文字で「バージョン11.1」とあります。このMacのOSのバージョンは11.1です。MacのOSはすべて64ビットです。&lt;span class="check"&gt;check-1,2&lt;/span&gt;
+ 更にその下にパソコンの名称が書かれています。「MacBook Air」がこのMacのハードウェアの種類です。その下がCPUに関する情報、その下に主記憶装置の容量があります。メモリは8GB（ギガバイト)実装されているということですね。この容量が大きいほど、大量のデータを一括して扱ったり、多くのプログラムを同時に動作させたりすることがスムーズにできるようになります。   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次に、HDD/SSDの容量を調べましょう。
+&lt;p class="spl"&gt;※HDD (Hard Disk Drive)や SSD (Solid State Drive) は、メインメモリほど読み書きが速くないですが、大容量でPCの電源を切っても内容が消えません。&lt;/p&gt;
+ 「ストレージ」タブをクリックしてください。HDD/SSDの空き容量と全容量がというように表示されます。   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">最初に、目の前のMacがどんなものなのかを確認しましょう。Macの処理能力や容量の目安になるさまざまな要素を「スペック」と呼ぶことがあります。ここでは以下のスペックを確認しましょう。
+&lt;ol&gt;&lt;li&gt; OSのバージョン &lt;/li&gt;
+&lt;li&gt; メモリ容量（主記憶容量） &lt;/li&gt;
+&lt;li&gt; HDD/SSD容量（副記憶容量） &lt;/li&gt;
+&lt;li&gt; バッテリー駆動時間 &lt;/li&gt;
+&lt;/ol&gt;
+ </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3652,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3668,7 +3669,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3676,7 +3677,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3727,7 +3728,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3735,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3751,7 +3752,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -3759,7 +3760,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3770,7 +3771,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3792,13 +3793,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>81</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3806,18 +3807,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>83</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3839,13 +3840,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3853,21 +3854,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>88</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" t="s">
         <v>134</v>
-      </c>
-      <c r="D15" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3875,13 +3876,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
         <v>136</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3889,13 +3890,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
         <v>90</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>91</v>
-      </c>
-      <c r="D17" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3903,13 +3904,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
         <v>93</v>
-      </c>
-      <c r="C18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -3917,13 +3918,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -3931,13 +3932,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>96</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3945,18 +3946,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>98</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3978,13 +3979,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>101</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3992,13 +3993,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4006,18 +4007,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>104</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4039,13 +4040,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>107</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4053,13 +4054,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>109</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4067,13 +4068,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>111</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4081,13 +4082,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>113</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -4095,13 +4096,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4109,7 +4110,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -4120,13 +4121,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4134,13 +4135,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4148,15 +4149,15 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4164,7 +4165,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -4178,13 +4179,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4192,13 +4193,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -4206,13 +4207,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4220,13 +4221,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4241,7 +4242,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4254,10 +4255,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4265,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4281,7 +4282,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4289,7 +4290,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4300,12 +4301,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4313,7 +4314,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -4324,7 +4325,7 @@
     </row>
     <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4338,7 +4339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -4350,12 +4351,12 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4379,10 +4380,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4407,7 +4408,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4415,13 +4416,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4429,24 +4430,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4454,13 +4455,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4468,16 +4469,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4488,18 +4489,18 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4507,13 +4508,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4527,7 +4528,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4541,7 +4542,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -4549,134 +4550,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4684,13 +4685,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4704,8 +4705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4745,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -4753,7 +4754,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4773,7 +4774,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -4781,13 +4782,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4795,13 +4796,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>324</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4809,13 +4810,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4823,24 +4824,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4848,24 +4849,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4879,7 +4880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -4896,7 +4897,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4904,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4920,17 +4921,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4938,13 +4939,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -4952,13 +4953,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4966,13 +4967,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4980,13 +4981,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4994,13 +4995,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5008,13 +5009,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5045,7 +5046,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5053,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5069,7 +5070,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5077,7 +5078,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5088,18 +5089,18 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5107,13 +5108,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5144,7 +5145,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5152,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5168,20 +5169,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5189,37 +5190,37 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5227,13 +5228,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5241,13 +5242,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5255,13 +5256,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5269,13 +5270,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5283,13 +5284,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5297,13 +5298,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5311,13 +5312,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5325,13 +5326,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5339,13 +5340,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5353,13 +5354,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5367,13 +5368,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5381,13 +5382,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5395,13 +5396,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>49</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5409,13 +5410,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
         <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5423,13 +5424,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5437,13 +5438,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
         <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5451,13 +5452,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5465,13 +5466,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>58</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5502,7 +5503,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5510,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5526,7 +5527,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5534,7 +5535,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5545,12 +5546,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5558,13 +5559,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5572,13 +5573,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5586,37 +5587,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" t="s">
         <v>182</v>
-      </c>
-      <c r="D13" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5624,53 +5625,53 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5678,13 +5679,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5692,13 +5693,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5706,13 +5707,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5720,13 +5721,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5734,13 +5735,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5748,18 +5749,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5767,13 +5768,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5781,13 +5782,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -5795,13 +5796,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5809,13 +5810,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5823,13 +5824,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5837,13 +5838,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5851,13 +5852,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -5865,13 +5866,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5879,13 +5880,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5893,13 +5894,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -5907,13 +5908,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -5921,13 +5922,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5940,7 +5941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5957,7 +5958,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5965,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5981,7 +5982,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5989,7 +5990,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6000,7 +6001,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6008,13 +6009,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6022,13 +6023,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6036,13 +6037,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6050,24 +6051,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -6075,23 +6076,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6099,13 +6100,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6113,13 +6114,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6127,13 +6128,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6141,13 +6142,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -6178,7 +6179,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6186,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6202,7 +6203,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -6210,7 +6211,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6221,7 +6222,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6243,13 +6244,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>81</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6257,18 +6258,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>83</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6290,13 +6291,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6304,21 +6305,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>88</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" t="s">
         <v>134</v>
-      </c>
-      <c r="D15" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6326,13 +6327,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
         <v>136</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6340,13 +6341,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
         <v>90</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>91</v>
-      </c>
-      <c r="D17" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6354,13 +6355,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
         <v>93</v>
-      </c>
-      <c r="C18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6368,13 +6369,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6382,13 +6383,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>96</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6396,18 +6397,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>98</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -6429,13 +6430,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>101</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6443,13 +6444,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6457,18 +6458,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>104</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -6490,13 +6491,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>107</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6504,13 +6505,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>109</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6518,13 +6519,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>111</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6532,13 +6533,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>113</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -6546,13 +6547,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6560,7 +6561,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -6571,13 +6572,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6585,13 +6586,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6599,15 +6600,15 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6615,7 +6616,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -6629,13 +6630,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6643,13 +6644,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6657,13 +6658,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6671,13 +6672,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF6E113-19B8-4C0C-BD48-CEC60CD29FDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270762A1-205E-43FC-8E25-8E77EAC9A577}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="295">
   <si>
     <t>header1</t>
   </si>
@@ -89,10 +89,6 @@
   </si>
   <si>
     <t>パソコンのスペック確認</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まず、OSのバージョンを確認しましょう。画面左上にあるアップルマークをクリック、次に「このMacについて」をクリックします。 
-  </t>
   </si>
   <si>
     <t>無線LANで学内ネットワークに接続できるように設定しましょう。</t>
@@ -140,110 +136,6 @@
   </t>
   </si>
   <si>
-    <t>mac-2-05.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最初に、インストーラの中でシステムの様子をチェックするプログラムが動くため、続けて良いかどうかを聞いてきます。「続ける」をクリックしてください。 
-  </t>
-  </si>
-  <si>
-    <t>mac-2-06.svg</t>
-  </si>
-  <si>
-    <t>mac-2-07.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESETが動作するためのシステム要件が表示されます。要件を満たしているかどうか確認し、「続ける」をクリックします。 
-  </t>
-  </si>
-  <si>
-    <t>mac-2-08.svg</t>
-  </si>
-  <si>
-    <t>mac-2-09.svg</t>
-  </si>
-  <si>
-    <t>mac-2-10.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESET EAの動作設定を変更してインストールするかどうかを選択します。特に変更の必要はないので、「一般（推奨する最適な設定」を選んで「続ける」をクリックしてください。 
-  </t>
-  </si>
-  <si>
-    <t>mac-2-11.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESET EAがあなたのコンピュータで今後発見する（かもしれない）コンピュータウィルスの情報を、開発元に送信することを許可するかどうかを聞いてきます。 
-製品の向上に必要なのでしょうから「有効にする」として良いでしょう。嫌なら「無効にする」としても構いません。プログラムの動作には影響ありません。
-  </t>
-  </si>
-  <si>
-    <t>mac-2-12.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウィルスではないけれど、一般にあまり望まれない動作をしそうなプログラムの検出をするかしないかを選択します。「望ましくない可能性があるアプリケーションの検出を有効にする」を選択し、「続ける」をクリックしてください。
-&lt;p class-="spl"&gt;※ ポップアップ広告を出すプログラムや、Webブラウザの設定を勝手に書き換えてしまうプログラムなどのことです。 &lt;/p&gt;
-  </t>
-  </si>
-  <si>
-    <t>mac-2-13.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイルを書き込むステップに入ります。「インストール」をクリック。 
-  </t>
-  </si>
-  <si>
-    <t>mac-2-14.svg</t>
-  </si>
-  <si>
-    <t>mac-2-15.svg</t>
-  </si>
-  <si>
-    <t>mac-2-21.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム環境設定のウィンドウが開き、「セキュリティとプライバシー」が表示された状態になります。
-下の方に「開発元 ESET のシステムソフトウェアの読み込みがブロックされました」と書かれて、その右に「許可」ボタンがあります。「許可」をクリックしてください。
-変更をESET EAに反映させるため、「再起動」ボタンをクリックし、プログラムを再起動します。
-  </t>
-  </si>
-  <si>
-    <t>mac-2-22.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">再起動すると、さらにこのような警告パネルが表示されます。システム全体の検査ができるようするために、もうひとつ追加の設定が必要です。
-「システム環境設定を開く」をクリックしてください。
-  </t>
-  </si>
-  <si>
-    <t>mac-2-16.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム環境設定パネルが、必要な画面が表示された状態で開きます。システム全体の情報にアクセスできるアプリケーションをこのリストに入れる設定を行います。
-まず、左下の錠前アイコンをクリックしてください。パスワードを求められますので、Macにログインする時のパスワードを入力します。
-  </t>
-  </si>
-  <si>
-    <t>mac-2-17.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リストを編集できる状態になりました。追加するため、「+」をクリックしましょう。
-  </t>
-  </si>
-  <si>
-    <t>mac-2-18.svg</t>
-  </si>
-  <si>
-    <t>mac-2-19.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">設定を反映させるため「今すぐ終了」をクリック。
-  </t>
-  </si>
-  <si>
-    <t>mac-2-20.svg</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="windows_update"&gt;&lt;/a&gt;自動アップデートの設定&lt;/h2&gt; </t>
   </si>
   <si>
@@ -499,16 +391,6 @@
  &lt;/li&gt;
 &lt;/ul&gt;
  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイルを開くパネルが出ます。
-左の欄から「アプリケーション」を選択、その右の欄から&amp;quot;ESET Endpoint Antivirus&amp;quot; を探して選択してください。
-右下の「開く」をクリックします。
-  </t>
-    <rPh sb="82" eb="84">
-      <t>センタク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -631,22 +513,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Mac OS 10.14.3 Mojave以前の古いMacOSの場合は、インストールが終了して ESET EAが動き出すときにこのような警告パネルが表示されることがあります。
-この場合はESET EAに必要なパーツが動作できるよう、システム設定の変更を行わなくてはなりません。
-「&amp;quot;セキュリティ&amp;quot;環境設定を開く」をクリックしてください。
-  </t>
-    <rPh sb="24" eb="25">
-      <t>フル</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="eset"&gt;&lt;/a&gt;ESET Endpoint Antivirusの手動更新とフルスキャン&lt;/h2&gt; </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -791,16 +657,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>左側メニューの「各種ソフトウェアのダウンロード」をクリックします。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒダリガワ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ダウンロードのための認証画面になるので、パスワードの欄に広大パスワードを入力して「送信(Submit)」を押すと、インストーラ（pkgファイル）がダウンロードされます。</t>
     <rPh sb="10" eb="12">
       <t>ニンショウ</t>
@@ -826,10 +682,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ダウンロードされたpkgファイルをクリックすると、インストーラが立ち上がります。  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「学生の個人所有PCへのインストールはここから」をクリックします。</t>
     <rPh sb="1" eb="3">
       <t>ガクセイ</t>
@@ -840,16 +692,6 @@
     <rPh sb="6" eb="8">
       <t>ショユウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下のほうにある「ESET Endpoint Antivirus for Mac」をクリックします。
-&lt;p class="spl"&gt;※ このページの「インストールマニュアル」をクリックすると、インストール手順を書いたマニュアルが表示されます。できればこのマニュアルを別ウィンドウで表示したままにしておくと、あとの作業がやりやすいでしょう。&lt;/p&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">「同意する」をクリックしてください。
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -978,10 +820,6 @@
   </si>
   <si>
     <t>win10-4-25.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mac-4-11.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1100,33 +938,6 @@
   <si>
     <t xml:space="preserve">Macのシステム領域にファイルを書き込みますので、管理者権限を持っている利用者であることを確認するため、認証を求められます。あなたのPCの利用者名とパスワードを入力してください。広大パスワードではないので、間違えないように。 
   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">他のウィルス対策ソフトが入っていないか確認してきます。なければ、「続ける」をクリックしましょう。 
-&lt;p class="spl"&gt;もし他に何か入っているなら、ESETを入れるのはやめてそのままそれを使いましょう。この下の項目を飛ばして「Chromeを入れる」に進んでください。&lt;/p&gt; 
-  </t>
-    <rPh sb="84" eb="85">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>スス</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1254,23 +1065,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Macにログインするときに使うパスワードを入力し、「ソフトウェアをインストール」としてください。 このあと特に警告が出なければ、&lt;a href="#chrome"&gt;Chromeを入れる&lt;/a&gt;に進んでかまいません。&lt;span class="check"&gt;check-5&lt;/span&gt;
-  </t>
-    <rPh sb="53" eb="54">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 「アップデート」のタブから状態を確認しましょう。 「更新は必要ありません」となっていたらOKです。&lt;span class="check"&gt;check-6&lt;/span&gt;
  最新でない場合は「モジュールのアップロード」をクリックして、アップデートしましょう。 ウイルス定義データが常に最新でないと、新しいウイルスからパソコンを守ることができません。 常に最新にしておきましょう。  </t>
     <phoneticPr fontId="1"/>
@@ -2499,18 +2293,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以下のサイト「ウィルス対策ソフトのインストール手順」をブラウザで開き、説明に従ってください。
-開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生番号と一緒にもらっていると思います）を入力してください。
-&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html&lt;/a&gt;</t>
-    <rPh sb="88" eb="90">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2021 Mac chap.5</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3199,12 +2981,6 @@
     <t>ch5-start-installer-auth.png</t>
   </si>
   <si>
-    <t xml:space="preserve">使用許諾契約の段階に入ります。「続ける」をクリックしてください。 
-&lt;p class="spl"&gt;※本来は表示されている利用許諾契約をひととおり読んでから同意するものです&lt;/p&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>可能であればウィルス対策ソフトESETをインストールしましょう。</t>
     <rPh sb="0" eb="2">
       <t>カノウ</t>
@@ -3245,6 +3021,111 @@
 &lt;li&gt; バッテリー駆動時間 &lt;/li&gt;
 &lt;/ol&gt;
  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">まず、OSのバージョンを確認しましょう。画面左上にあるアップルのマークをクリック、次に「このMacについて」をクリックします。 
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この章では広島大学が包括ライセンスで提供しているウィルス対策ソフトESETのインストール手順を示しますが、2021/03/04現在、Mac OS 11.0 - 11.1に暫定対応、Mac OS X 11.2以降は未対応となっております。お使いのMacのOSが既に11.2以降である場合の対応は変化があり次第&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/"&gt;https://mslicense.office.hiroshima-u.ac.jp/&lt;/a&gt;にてお知らせ致しますので、そちらを随時ご参照ください。
+以下のサイト「ウィルス対策ソフトのインストール手順」をブラウザで開き、説明に従ってください。
+開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生番号と一緒にもらっていると思います）を入力してください。
+&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html&lt;/a&gt;</t>
+    <rPh sb="370" eb="372">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="383" eb="384">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ダウンロードされたpkgファイルをクリックすると、インストーラが立ち上がります。 沢山ダウンロードしたファイルがあって不安な場合は、右クリックしてダウンロードフォルダを開いて日付を確認しましょう。 </t>
+    <rPh sb="41" eb="43">
+      <t>タクサン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>フアン</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>download-eset-pkg.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>link-to-eset-install-proc.png</t>
+  </si>
+  <si>
+    <t>右側メニューの「ダウンロード」のリンクをたどります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type-of-eset-install.png</t>
+  </si>
+  <si>
+    <t>download-eset-links.png</t>
+  </si>
+  <si>
+    <t>下のほうにある「ESET Endpoint Antivirus for Mac」から適切なほうを選びダウンロードします。ここでダウンロードするパッケージは、IntelかM1かには区別しませんが、Big　Sur未満か、Big Sur以降かで異なりますので、注意してください。
+&lt;p class="spl"&gt;※ このページの「インストールマニュアル」をクリックすると、インストール手順を書いたマニュアルが表示されます。できればこのマニュアルを別ウィンドウで表示したままにしておくと、あとの作業がやりやすいでしょう。&lt;/p&gt;</t>
+    <rPh sb="42" eb="44">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>クベツ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この後の手順はmacOSのバージョンに加え、CPUのタイプ(Intelか、M1か)によって異なるため、ダウンロードしたサイトにあるインストールマニュアルに従ってください。</t>
+    <rPh sb="2" eb="3">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>シタガ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3640,23 +3521,23 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3664,20 +3545,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3686,7 +3567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3715,31 +3596,31 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3747,20 +3628,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3769,465 +3650,465 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="32" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+    <row r="33" spans="1:4" ht="189" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="34" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4245,31 +4126,31 @@
       <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4277,20 +4158,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4299,22 +4180,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="216" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -4323,9 +4204,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4343,23 +4224,23 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="84.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="84.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4367,7 +4248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4375,15 +4256,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4397,7 +4278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4408,77 +4289,77 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4489,35 +4370,35 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -4528,10 +4409,10 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -4542,156 +4423,156 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4709,15 +4590,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4725,7 +4606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4733,7 +4614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4741,20 +4622,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4763,110 +4644,110 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4880,35 +4761,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4916,106 +4797,106 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5033,31 +4914,31 @@
       <selection activeCell="A10" sqref="A10:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5065,20 +4946,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5087,34 +4968,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5126,37 +5007,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5164,315 +5045,167 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>290</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>293</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>168</v>
+        <v>287</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>58</v>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5490,31 +5223,31 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5522,20 +5255,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5544,391 +5277,391 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D19" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5945,31 +5678,31 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5977,20 +5710,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5999,156 +5732,156 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6166,31 +5899,31 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6198,20 +5931,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6220,465 +5953,465 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="32" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+    <row r="33" spans="1:4" ht="189" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="34" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270762A1-205E-43FC-8E25-8E77EAC9A577}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EB4060-1423-49EE-BA09-632D7C1EEB4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3084,7 +3084,26 @@
     <t>download-eset-links.png</t>
   </si>
   <si>
-    <t>下のほうにある「ESET Endpoint Antivirus for Mac」から適切なほうを選びダウンロードします。ここでダウンロードするパッケージは、IntelかM1かには区別しませんが、Big　Sur未満か、Big Sur以降かで異なりますので、注意してください。
+    <t>この後の手順はmacOSのバージョンに加え、CPUのタイプ(Intelか、M1か)によって異なるため、ダウンロードしたサイトにあるインストールマニュアルに従ってください。</t>
+    <rPh sb="2" eb="3">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>シタガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下のほうにある「ESET Endpoint Antivirus for Mac」から適切なほうを選びダウンロードします。ここでダウンロードするパッケージは、IntelとM1で共通ですが、Big　Sur未満か、Big Sur以降かで異なりますので、注意してください。
 &lt;p class="spl"&gt;※ このページの「インストールマニュアル」をクリックすると、インストール手順を書いたマニュアルが表示されます。できればこのマニュアルを別ウィンドウで表示したままにしておくと、あとの作業がやりやすいでしょう。&lt;/p&gt;</t>
     <rPh sb="42" eb="44">
       <t>テキセツ</t>
@@ -3092,39 +3111,20 @@
     <rPh sb="48" eb="49">
       <t>エラ</t>
     </rPh>
-    <rPh sb="89" eb="91">
-      <t>クベツ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
+    <rPh sb="87" eb="89">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
       <t>ミマン</t>
     </rPh>
-    <rPh sb="115" eb="117">
+    <rPh sb="111" eb="113">
       <t>イコウ</t>
     </rPh>
-    <rPh sb="119" eb="120">
+    <rPh sb="115" eb="116">
       <t>コト</t>
     </rPh>
-    <rPh sb="127" eb="129">
+    <rPh sb="123" eb="125">
       <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>この後の手順はmacOSのバージョンに加え、CPUのタイプ(Intelか、M1か)によって異なるため、ダウンロードしたサイトにあるインストールマニュアルに従ってください。</t>
-    <rPh sb="2" eb="3">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>シタガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5010,7 +5010,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D10" t="s">
         <v>292</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EB4060-1423-49EE-BA09-632D7C1EEB4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0844D570-F27E-4342-BE06-5E7FC5145EB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="291">
   <si>
     <t>header1</t>
   </si>
@@ -594,25 +594,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>このページの説明をひととおり下まで読んでから、左側メニューの「各種ソフトウェアのダウンロード」をクリックします。</t>
-    <rPh sb="6" eb="8">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒダリガワ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カクシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Microsoft Office をインストールしましょう。 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -786,40 +767,6 @@
   </si>
   <si>
     <t>win10-4-24.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-4-22.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-4-21.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>右のような画面になるので、「個人所有PCのOffice製品は、Office365 Pro Plusをご利用ください」をクリックします。</t>
-    <rPh sb="0" eb="1">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セイヒン</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-4-25.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2331,38 +2278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以下のサイト「Office for Macインストール手順」をブラウザで開き、説明に従ってください。
-開く際にID,パスワードを要求されたら、広大ID（学生番号、ここではB21xxxxxのように大文字アルファベットで入力します）と広大パスワード（学生番号と一緒に入手するもの）を入力してください。
-&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2016-2.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/office2016-2.html&lt;/a&gt;
- &lt;/li&gt; 
-URLにOffice2016と書いてありますが、解説されているのはOffice365 ProPlusのインストールです。</t>
-    <rPh sb="97" eb="100">
-      <t>オオモジ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>イッショ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>ニュウシュ</t>
-    </rPh>
-    <rPh sb="330" eb="331">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="339" eb="341">
-      <t>カイセツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>17_SelTimeZone.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3126,6 +3041,35 @@
     <rPh sb="123" eb="125">
       <t>チュウイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Office365へ広島大学のアカウントでサインインするため、まず広島大学側のポータルサイト&lt;a href="https://www.media.hiroshima-u.ac.jp/services/webmail-portal/"&gt;https://www.media.hiroshima-u.ac.jp/services/webmail-portal/&lt;/a&gt;に行きます。このような画面になりますので、portal.office.comへのリンクをクリックします。</t>
+    <rPh sb="10" eb="12">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="192" eb="194">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>office365-portal.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3534,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -3558,7 +3502,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3633,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.15">
@@ -3799,7 +3743,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -3874,7 +3818,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -3977,7 +3921,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -3991,7 +3935,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -4002,13 +3946,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -4016,13 +3960,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -4030,10 +3974,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
@@ -4088,7 +4032,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -4136,10 +4080,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4187,7 +4131,7 @@
     </row>
     <row r="8" spans="1:4" ht="216" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -4237,7 +4181,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4261,7 +4205,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -4289,7 +4233,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -4297,13 +4241,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -4311,24 +4255,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -4336,13 +4280,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -4350,13 +4294,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -4370,18 +4314,18 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -4389,13 +4333,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -4409,7 +4353,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -4423,7 +4367,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -4431,134 +4375,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -4566,13 +4510,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4627,7 +4571,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -4635,7 +4579,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4649,13 +4593,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -4663,13 +4607,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -4677,13 +4621,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -4691,13 +4635,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -4705,24 +4649,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -4730,24 +4674,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4802,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -4812,7 +4756,7 @@
     </row>
     <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -4834,7 +4778,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -4890,7 +4834,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -4927,7 +4871,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4935,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -4959,7 +4903,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4970,18 +4914,18 @@
     </row>
     <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -4989,13 +4933,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5009,7 +4953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E56ADE-9B9A-41F5-BFC9-8C8E6A100436}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -5026,7 +4970,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5034,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5050,20 +4994,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -5071,37 +5015,37 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5109,18 +5053,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -5217,10 +5161,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5236,7 +5180,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5244,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5260,7 +5204,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -5268,7 +5212,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5279,12 +5223,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -5292,7 +5236,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -5301,81 +5245,72 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>252</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="D14" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
       <c r="B15" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
       <c r="D15" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" t="s">
         <v>260</v>
       </c>
-      <c r="D16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>262</v>
       </c>
@@ -5384,83 +5319,92 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
       <c r="B18" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>264</v>
       </c>
-      <c r="D18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>267</v>
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
       </c>
       <c r="D19" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
       <c r="B20" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
         <v>268</v>
       </c>
-      <c r="D20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>278</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5468,13 +5412,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>275</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>274</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5482,102 +5426,111 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>276</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5585,13 +5538,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -5599,68 +5552,26 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5691,7 +5602,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5699,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5715,7 +5626,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -5723,7 +5634,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5770,13 +5681,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5784,24 +5695,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
@@ -5809,18 +5720,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -5847,7 +5758,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -5861,7 +5772,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -5875,7 +5786,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -5895,8 +5806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5936,7 +5847,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.15">
@@ -6102,7 +6013,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -6177,7 +6088,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -6280,7 +6191,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -6294,7 +6205,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -6305,13 +6216,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -6319,13 +6230,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6333,10 +6244,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0844D570-F27E-4342-BE06-5E7FC5145EB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C932615-FDE9-4529-9C96-52E6228F43D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="293">
   <si>
     <t>header1</t>
   </si>
@@ -3071,6 +3071,12 @@
   <si>
     <t>office365-portal.png</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-hirodai-login.png</t>
+  </si>
+  <si>
+    <t>ch5-hirodai-login-password.png</t>
   </si>
 </sst>
 </file>
@@ -5163,7 +5169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -5806,8 +5812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5963,7 +5969,7 @@
         <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5977,7 +5983,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C932615-FDE9-4529-9C96-52E6228F43D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0B1EF9-33C9-49BB-A2CA-CA4166423E51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="294">
   <si>
     <t>header1</t>
   </si>
@@ -3067,6 +3067,9 @@
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>office365-portal.png</t>
   </si>
   <si>
     <t>office365-portal.png</t>
@@ -5259,7 +5262,7 @@
         <v>289</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5813,7 +5816,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5961,7 +5964,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5969,7 +5972,7 @@
         <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5983,7 +5986,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0B1EF9-33C9-49BB-A2CA-CA4166423E51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC19B24-CB4D-4B8D-A17D-C831DF71EDB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="295">
   <si>
     <t>header1</t>
   </si>
@@ -3080,6 +3080,11 @@
   </si>
   <si>
     <t>ch5-hirodai-login-password.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">portal.office.comへのリンクをクリックしてください。
+  </t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -5816,7 +5821,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5958,7 +5963,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC19B24-CB4D-4B8D-A17D-C831DF71EDB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844C72A0-4F0A-4FF9-9036-98505560B286}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="296">
   <si>
     <t>header1</t>
   </si>
@@ -3084,6 +3084,10 @@
   <si>
     <t xml:space="preserve">portal.office.comへのリンクをクリックしてください。
   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bb9-login.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5820,8 +5824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6183,7 +6187,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844C72A0-4F0A-4FF9-9036-98505560B286}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6256A54D-1F4C-4D1B-9CEF-6FC72EECE92A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5825,7 +5825,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6256A54D-1F4C-4D1B-9CEF-6FC72EECE92A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF78F00C-07B0-4435-A22B-F56E39A13DA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="298">
   <si>
     <t>header1</t>
   </si>
@@ -3089,6 +3089,49 @@
   <si>
     <t>bb9-login.png</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「macOSのアップデートをインストール」のチェックを外したため、「保護の状態」では「このコンピュータには、全ての利用可能なオペレーティングシステムのアップデートがインストールされていません。」が表示されますが、ESETが正式に最新のmacOSに対応するまで、この通知は無視してください。</t>
+    <rPh sb="27" eb="28">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>セイシキ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ESET-info-maOS-update.png</t>
   </si>
 </sst>
 </file>
@@ -5601,10 +5644,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5785,31 +5828,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
+    <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5824,7 +5875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF78F00C-07B0-4435-A22B-F56E39A13DA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55CBBFA-BF75-46E3-B364-BE9B943A9256}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3091,7 +3091,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「macOSのアップデートをインストール」のチェックを外したため、「保護の状態」では「このコンピュータには、全ての利用可能なオペレーティングシステムのアップデートがインストールされていません。」が表示されますが、ESETが正式に最新のmacOSに対応するまで、この通知は無視してください。</t>
+    <t>ESET-info-maOS-update.png</t>
+  </si>
+  <si>
+    <t>「macOSのアップデートをインストール」のチェックを外したため、「保護の状態」では「このコンピュータには、全ての利用可能なオペレーティングシステムのアップデートがインストールされていません。」が表示されることがありますが、ESETが正式に最新のmacOSに対応するまで、この通知は無視してください。</t>
     <rPh sb="27" eb="28">
       <t>ハズ</t>
     </rPh>
@@ -3113,25 +3116,22 @@
     <rPh sb="98" eb="100">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="111" eb="113">
+    <rPh sb="117" eb="119">
       <t>セイシキ</t>
     </rPh>
-    <rPh sb="114" eb="116">
+    <rPh sb="120" eb="122">
       <t>サイシン</t>
     </rPh>
-    <rPh sb="123" eb="125">
+    <rPh sb="129" eb="131">
       <t>タイオウ</t>
     </rPh>
-    <rPh sb="132" eb="134">
+    <rPh sb="138" eb="140">
       <t>ツウチ</t>
     </rPh>
-    <rPh sb="135" eb="137">
+    <rPh sb="141" eb="143">
       <t>ムシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ESET-info-maOS-update.png</t>
   </si>
 </sst>
 </file>
@@ -5646,8 +5646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5830,10 +5830,10 @@
     </row>
     <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D18" t="s">
         <v>296</v>
-      </c>
-      <c r="D18" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81" x14ac:dyDescent="0.15">

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55CBBFA-BF75-46E3-B364-BE9B943A9256}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862F13E3-5099-4B11-8AE6-98FD6669DE1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="337">
   <si>
     <t>header1</t>
   </si>
@@ -222,13 +222,6 @@
   </si>
   <si>
     <t>win10-6-03.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「Office365ポータル」をクリックしてください。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-04.svg</t>
   </si>
   <si>
     <t xml:space="preserve">Office365で使えるアプリの一覧が表示されます。「Outlook」をクリック。 
@@ -418,16 +411,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-6-28.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Hiroshima Universityと書かれた画面に移動しますので、広大パスワードを入力し「サインイン」をクリックします。
 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-05.svg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2465,10 +2450,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2021 Mac chap.8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">次に、OneDriveについて。一般に広く使われているDropBoxと同様に、PC用のアプリがあります。これを入れておくと、PC上の特定のフォルダとOneDriveの内容が自動的に同期されるようになります。スマホのアプリにもOneDriveがありますが、これは自動的に同期はしません。全部を同期するとスマホの容量を圧迫するからでしょう。
 OneDriveのアプリは、Web版のOneDrive サイトから入手できます。
 詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/onedriveforbusiness/"&gt;「クラウドファイル保管サービス(OneDrive for Business)」&lt;/a&gt;
@@ -3130,6 +3111,1225 @@
     </rPh>
     <rPh sb="141" eb="143">
       <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Teamsの確認</t>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学でのオンライン授業(同時双方向のもの、また、チャットによる質問相談など)は、主にMicrosoft Teamsを使って行っています。この動作を確認しましょう。履修登録以前に実際に作業できることは限られていますので、必要に応じて参照してください。
+オンライン授業のソフトウェアとしては、Teamsの他にZoomや、YouTube Liveなどもあり、たとえばZoomで行われている授業をTeamsで受講する、といったことはできません。Teams以外を用いる授業の場合は、教員が先に説明する筈ですので、環境設定などは教員の指示を参考にしてください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ソウホウコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>ジュコウ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="228" eb="229">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="238" eb="240">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="241" eb="242">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="247" eb="248">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="253" eb="255">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="255" eb="257">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="263" eb="265">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="266" eb="268">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>包括ライセンスでMicrosoft Office365 Pro Plusをインストールした場合は、Microsoft Teamsは既にインストールされている筈です。検索ウィンドウで「Teams」を検索すれば出てくる筈です。
+もし別途Officeを購入したため、Microsoft Teamsがまだ入っていないという場合は、https://www.microsoft.com/ja-jp/microsoft-teams/download-app からダウンロードしてインストールしてください(Office365と違ってアカウントにサインインしなくてもダウンロードできます)。また、iOS機器(iPhone, iPad)やAndroid機器でも動きますが、ここではPCでの確認手順を説明します。</t>
+    <rPh sb="0" eb="2">
+      <t>ホウカツ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="255" eb="256">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="292" eb="294">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="316" eb="318">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="320" eb="321">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="334" eb="336">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="336" eb="338">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="339" eb="341">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teamsのアイコンがデスクトップにない場合は、左下の虫眼鏡アイコンから「t」または「te」と入力して検索してください。</t>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ムシメガネ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-lookup-teams.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はじめてTeamsを起動すると、Microsoft Officeのアクティベーションと同様のサインインを促されます。広島大学のオンライン授業を受けるには、広大アカウントでサインインが必要です。</t>
+    <rPh sb="10" eb="12">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ヒツヨウダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-start0.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まず広大アカウント(@hiroshima-u.ac.jpを含め)を入力します。</t>
+    <rPh sb="2" eb="4">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-account.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次に広大アカウントのパスワードを入力します。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-password.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このPCを組織が管理できるようにしますか、と質問されますが、このチェックを外し、「このアプリのみにサインインする」を選びましょう。</t>
+    <rPh sb="5" eb="7">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-signin-limited.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場合によっては、Teamsの通信についてWindows内蔵のファイヤーウォールが許可して大丈夫か確認を求められます。大学の無線LANやネットカフェなど様々な人が使うネットワークに接続している場合、なぜか「非推奨」となっているパブリックネットワークにチェックが入っていて、そうしないといけないかのような雰囲気を出しますが、「キャンセル」で許可しない状態を維持しても大きな問題は起きません。</t>
+    <rPh sb="0" eb="2">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ナイゾウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ムセン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="150" eb="153">
+      <t>フンイキ</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-firewall.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サインイン済みだとこのような状態になります。</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-signined0.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このウィンドウを閉じても、裏でTeamsは動いており、chatなどのメッセージを受信しています。通知領域にTeamsのアイコンが出ています。このアイコンをクリックすればもう一度Teamsの画面が開かれます。</t>
+    <rPh sb="86" eb="88">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-indicator.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サインインしたアカウントには、そのアカウントのネット接続状態が表示されます。「会議」に出席している場合は、この接続状態が「会議中」になります。</t>
+    <rPh sb="26" eb="28">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>カイギチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-my-status.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teamsの機能のうち、オンライン授業で特に使われる機能は「チャット」と「チーム」、チームの中の「チャネル」、チャネルの中の「会議」です。「カレンダー」機能がありますが、大学側から履修状況に応じた更新などをかけることはないので、必要であれば自分で設定するようにしてください。</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-features.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームとは、特定の教職員や学生をまとめたグループのことを指します。多くの授業では、「もみじ」の履修手続きが締め切られた後、それを反映したチームが作られ、オンライン授業を実施するものについては皆さんが授業別のチームに所属した状態になる筈です。必修科目であっても履修手続きの前に自動的に登録されるわけではないので、「自分が履修すべき科目だから、自動的にTeamsに先に登録してくれる」というわけではないことに注意してください。</t>
+    <rPh sb="6" eb="8">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ミナ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ヒッシュウ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="137" eb="140">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="170" eb="173">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="180" eb="181">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-list-teams.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分が所属するチームから一つチームを選ぶと、そのチームのチャネル一覧を見ることができます。その一つのチャネルを選んでチャットしたり、「会議」を行ったりします。たとえばこの授業は週1回実施されるたびに新たにチャネルを作っています。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-selected-team.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャネルの中では、基本的なコミュニケーション方法としてチャットが使われるようになっています。チームの中でチャットした場合には、同じチームに所属する皆さんに見えます。左側のメニューにある「チャット」は、貴方がチャットで入力したことがあるチャネルの一覧が出てくるので、「あるチャネルで会話している最中に、他のチャネルで自分の発言に返事があった」ということに気づくこともできます。
+基本的に授業関係のテキストチャットは自分の都合のよい時間に発言してよいのですが、返事もまた相手の都合のよい時間に返ってくるものなので、即答を求めないようにしましょう。
+このチャット機能は、同じチームに所属してない人とも使うことができます。ただし、広大アカウントを持っている人が対象です。相手のアカウントを教えてもらったら、「新しいチャット」で質問することができます。</t>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ミナ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ヘンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-selected-channel-chat.png</t>
+  </si>
+  <si>
+    <t>オンライン授業のうち、双方向(所定の授業時間に、教員も受講生もネットワークに接続して同時に進めるもの)のものがこの「会議」機能で行われます。授業時間を反映して最初から「会議」がスケジュールされている場合もありますが、先に授業をTeamsにスケジュールせず、授業時間になって教員が手動で開始する場合も多いです。スケジュールにないことが休講であると勘違いしないようにしてください。教員のアカウントの状態も確認することが望ましいです。これはスケジュールされている例ですが、スケジュールなしで開始されている場合は同様の表示がチャットのタイムラインに「会議中」と出ます。</t>
+    <rPh sb="5" eb="7">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ソウホウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ジュコウセイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>キュウコウ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>カンチガ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="197" eb="199">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="228" eb="229">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="249" eb="251">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="252" eb="254">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="255" eb="257">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="271" eb="274">
+      <t>カイギチュウ</t>
+    </rPh>
+    <rPh sb="276" eb="277">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-tvmeeting-scheduled.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主催者が開始していない「会議」でも、出席することができます。「会議」に出席しようとすると、すぐ会議出席で画像や音声が流れるわけではなく、まずPCの設定画面になります。実際に接続する前に、手元のPCのカメラのON/OFF、マイクのON/OFF、スピーカのON/OFFを設定することができます。</t>
+    <rPh sb="0" eb="3">
+      <t>シュサイシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>テモト</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-tvmeeting-before-enter.png</t>
+  </si>
+  <si>
+    <t>Surfaceをドックにつないでいたり、あるいはBluetoothで外部のヘッドセットを使っている場合などには、複数のマイクやスピーカがあるので、カスタムセットアップを開いて自分が使いたいものが選ばれているように確認する習慣をつけましょう。</t>
+    <rPh sb="34" eb="36">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>シュウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-tvmeeting-before-enter-config.png</t>
+  </si>
+  <si>
+    <t>会議に入ると出席者のアイコンが並ぶ画面に変わります。会議中も、カメラのON/OFF, マイクのON/OFFを切り替えることができます。吹き出しのアイコンをクリックすると、このTV会議のウィンドウの中にテキストチャットのタイムラインが表示されるようになります。その隣の「…」を展開して「デバイスの設定」を開くと、会議に入った後でもカメラ機器やマイク機器を取り換えることができます。接続してみたらどうもスピーカで聞いていると会議がおかしなことになる、などの問題がある時は変更しましょう。</t>
+    <rPh sb="0" eb="2">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シュッセキシャ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>カイギチュウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>トナリ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="204" eb="205">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="226" eb="228">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-tvmeeting-config-after-enter.png</t>
+  </si>
+  <si>
+    <t>実習系の授業などでは自分のPCの状態をTV会議で相手方に見せるべき状況もあります。この時は、共有ボタンからデスクトップ(複数のモニタを接続している場合に複数出ます)、ウィンドウ(アプリケーションごと)を選ぶことができます。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>アイテガタ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-tvmeeting-sharing.png</t>
+  </si>
+  <si>
+    <t>Teamsの画面を閉じていても、サインインしている状態では、ネットワークに接続していれば、他の人には「連絡可能」な状態として見えています。Teamsの自分のアイコンをクリックして出るメニューからサインアウトすることができます。サインアウトすると通知アイコンも無くなり、チャットで話しかけられても何も通知されなくなります。ただし、Microsoftのサーバ側ではこの間に貴方に話しかけられたチャットが記録されており、再度サインインすると過去の未読のメッセージを読むことができます。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>ハナシ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>アナタ</t>
+    </rPh>
+    <rPh sb="189" eb="190">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>ミドク</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7-teams-signout-from-mainmenu.png</t>
+  </si>
+  <si>
+    <t>この他の使い方などは、メディアセンターに解説ページがありますので、ご参照ください。
+&lt;a href="https://www.media.hiroshima-u.ac.jp/services/microsoft365/teams/"&gt;https://www.media.hiroshima-u.ac.jp/services/microsoft365/teams/&lt;/a&gt;</t>
+    <rPh sb="2" eb="3">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 macOS chap.8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下は付録としての情報です。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3539,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -3555,7 +4755,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -3563,7 +4763,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -3595,10 +4795,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A14737B-27B4-430E-A2C9-8E4453FC8EAA}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3609,12 +4809,12 @@
     <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -3622,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -3638,15 +4838,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.15">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3655,84 +4855,67 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>296</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>298</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>302</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -3740,91 +4923,76 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>304</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>102</v>
+        <v>306</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>104</v>
+        <v>308</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>310</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>153</v>
+        <v>312</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>314</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -3832,93 +5000,102 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>316</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>320</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>322</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>154</v>
+        <v>324</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>326</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+        <v>328</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>4</v>
+        <v>330</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -3926,80 +5103,74 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="32" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="33" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="34" spans="1:4" ht="189" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
         <v>82</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="189" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -4007,113 +5178,124 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
         <v>156</v>
       </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" t="s">
         <v>158</v>
       </c>
-      <c r="D37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B38" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4141,10 +5323,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4152,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -4168,7 +5350,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -4176,7 +5358,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4187,12 +5369,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="216" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -4200,7 +5382,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -4211,7 +5393,7 @@
     </row>
     <row r="10" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4242,7 +5424,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4266,7 +5448,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -4294,7 +5476,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -4302,13 +5484,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -4316,24 +5498,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -4341,13 +5523,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -4355,13 +5537,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -4375,18 +5557,18 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -4394,13 +5576,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -4414,7 +5596,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -4428,7 +5610,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -4436,134 +5618,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -4571,13 +5753,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4632,7 +5814,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -4640,7 +5822,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4654,13 +5836,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -4668,13 +5850,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -4682,13 +5864,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -4696,13 +5878,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -4710,24 +5892,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -4735,24 +5917,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4807,17 +5989,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -4825,7 +6007,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -4839,7 +6021,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -4895,7 +6077,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -4932,7 +6114,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4940,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -4956,7 +6138,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -4964,7 +6146,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4975,18 +6157,18 @@
     </row>
     <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -4994,13 +6176,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5031,7 +6213,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5039,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5055,20 +6237,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -5076,37 +6258,37 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5114,18 +6296,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -5241,7 +6423,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5249,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5265,7 +6447,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -5273,7 +6455,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5284,12 +6466,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -5297,13 +6479,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5311,18 +6493,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5330,53 +6512,53 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D14" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D15" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D16" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D17" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5384,13 +6566,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -5404,7 +6586,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -5412,13 +6594,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5426,13 +6608,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5440,13 +6622,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5454,18 +6636,18 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5473,7 +6655,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -5487,7 +6669,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -5501,7 +6683,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -5515,7 +6697,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -5529,7 +6711,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -5543,7 +6725,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -5557,7 +6739,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -5571,7 +6753,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -5585,7 +6767,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -5599,7 +6781,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -5613,13 +6795,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -5627,7 +6809,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -5646,7 +6828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -5663,7 +6845,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5671,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5687,7 +6869,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -5695,7 +6877,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5714,7 +6896,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -5728,7 +6910,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -5742,13 +6924,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5756,24 +6938,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
@@ -5781,23 +6963,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5805,7 +6987,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -5819,7 +7001,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -5830,10 +7012,10 @@
     </row>
     <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D18" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -5841,7 +7023,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -5855,7 +7037,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -5875,7 +7057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -5916,7 +7098,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.15">
@@ -5924,7 +7106,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6018,21 +7200,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6040,13 +7222,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6054,13 +7236,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
         <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6068,13 +7250,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
@@ -6082,13 +7264,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -6096,13 +7278,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -6110,18 +7292,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -6143,13 +7325,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -6157,13 +7339,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6171,18 +7353,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -6204,13 +7386,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6218,13 +7400,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -6232,13 +7414,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -6246,13 +7428,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="189" x14ac:dyDescent="0.15">
@@ -6260,13 +7442,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -6274,7 +7456,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -6285,13 +7467,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
         <v>156</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -6299,13 +7481,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6313,15 +7495,15 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" t="s">
         <v>158</v>
-      </c>
-      <c r="D37" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6329,7 +7511,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -6343,13 +7525,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -6357,13 +7539,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -6371,13 +7553,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
@@ -6385,13 +7567,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862F13E3-5099-4B11-8AE6-98FD6669DE1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5F24C0-F115-4736-99BA-14431C1BF3CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="335">
   <si>
     <t>header1</t>
   </si>
@@ -3415,89 +3415,6 @@
   </si>
   <si>
     <t>ch7-teams-signin-limited.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>場合によっては、Teamsの通信についてWindows内蔵のファイヤーウォールが許可して大丈夫か確認を求められます。大学の無線LANやネットカフェなど様々な人が使うネットワークに接続している場合、なぜか「非推奨」となっているパブリックネットワークにチェックが入っていて、そうしないといけないかのような雰囲気を出しますが、「キャンセル」で許可しない状態を維持しても大きな問題は起きません。</t>
-    <rPh sb="0" eb="2">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ナイゾウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>ダイジョウブ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ムセン</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>サマザマ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>スイショウ</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="150" eb="153">
-      <t>フンイキ</t>
-    </rPh>
-    <rPh sb="154" eb="155">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="173" eb="175">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="176" eb="178">
-      <t>イジ</t>
-    </rPh>
-    <rPh sb="181" eb="182">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="184" eb="186">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="187" eb="188">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch7-teams-firewall.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4795,10 +4712,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A14737B-27B4-430E-A2C9-8E4453FC8EAA}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4838,7 +4755,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -4932,7 +4849,10 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>306</v>
       </c>
@@ -4944,22 +4864,19 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
       <c r="B16" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -4973,7 +4890,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>312</v>
       </c>
@@ -4984,7 +4901,10 @@
         <v>313</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>314</v>
       </c>
@@ -4995,7 +4915,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -5009,32 +4929,32 @@
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
+    <row r="22" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>318</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="D22" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>320</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -5048,10 +4968,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
+    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>324</v>
       </c>
@@ -5062,7 +4979,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>326</v>
       </c>
@@ -5073,7 +4990,10 @@
         <v>327</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>328</v>
       </c>
@@ -5084,7 +5004,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -5098,79 +5018,76 @@
         <v>331</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
+    <row r="29" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="189" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="189" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5178,123 +5095,112 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="D35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>235</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
         <v>90</v>
       </c>
     </row>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5F24C0-F115-4736-99BA-14431C1BF3CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1421C76A-2FFA-495D-95E6-F0194961F949}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3306,29 +3306,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Teamsのアイコンがデスクトップにない場合は、左下の虫眼鏡アイコンから「t」または「te」と入力して検索してください。</t>
-    <rPh sb="20" eb="22">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒダリシタ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ムシメガネ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch7-teams-lookup-teams.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>はじめてTeamsを起動すると、Microsoft Officeのアクティベーションと同様のサインインを促されます。広島大学のオンライン授業を受けるには、広大アカウントでサインインが必要です。</t>
     <rPh sb="10" eb="12">
       <t>キドウ</t>
@@ -4248,6 +4225,20 @@
     <rPh sb="9" eb="11">
       <t>ジョウホウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teamsのアイコンがデスクトップにない場合は、LaunchPadから「teams」を検索してください。</t>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>launchpad-teams.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4715,7 +4706,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4755,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -4787,13 +4778,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -4801,24 +4792,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -4826,13 +4817,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -4840,13 +4831,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -4854,51 +4845,51 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -4906,13 +4897,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -4920,24 +4911,24 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C22" t="s">
         <v>168</v>
       </c>
       <c r="D22" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -4945,13 +4936,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -4959,35 +4950,35 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -4995,13 +4986,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -5009,18 +5000,18 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1421C76A-2FFA-495D-95E6-F0194961F949}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AB2A75-1F37-4346-A6B3-4DCDB1ACCA69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="329">
   <si>
     <t>header1</t>
   </si>
@@ -305,9 +305,6 @@
 「ユーザ名」には広大ID（学生番号と同じ）を、「パスワード」には広大パスワードを入力してください。
 入力したら「ログイン」をクリックします。
    </t>
-  </si>
-  <si>
-    <t>win10-6-15.svg</t>
   </si>
   <si>
     <t xml:space="preserve">一番最初にログインしたときだけ、この画面が開きます。
@@ -2450,14 +2447,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">次に、OneDriveについて。一般に広く使われているDropBoxと同様に、PC用のアプリがあります。これを入れておくと、PC上の特定のフォルダとOneDriveの内容が自動的に同期されるようになります。スマホのアプリにもOneDriveがありますが、これは自動的に同期はしません。全部を同期するとスマホの容量を圧迫するからでしょう。
-OneDriveのアプリは、Web版のOneDrive サイトから入手できます。
-詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/onedriveforbusiness/"&gt;「クラウドファイル保管サービス(OneDrive for Business)」&lt;/a&gt;
-で。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「Macを自動的に最新の状態に保つ」をチェックできるウィンドウがでてきます。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3372,29 +3361,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>このPCを組織が管理できるようにしますか、と質問されますが、このチェックを外し、「このアプリのみにサインインする」を選びましょう。</t>
-    <rPh sb="5" eb="7">
-      <t>ソシキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ハズ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>エラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch7-teams-signin-limited.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サインイン済みだとこのような状態になります。</t>
     <rPh sb="5" eb="6">
       <t>ズ</t>
@@ -3406,23 +3372,6 @@
   </si>
   <si>
     <t>ch7-teams-signined0.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このウィンドウを閉じても、裏でTeamsは動いており、chatなどのメッセージを受信しています。通知領域にTeamsのアイコンが出ています。このアイコンをクリックすればもう一度Teamsの画面が開かれます。</t>
-    <rPh sb="86" eb="88">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch7-teams-indicator.png</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4647,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4663,7 +4612,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -4671,7 +4620,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4703,10 +4652,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A14737B-27B4-430E-A2C9-8E4453FC8EAA}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4722,7 +4671,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4730,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -4746,7 +4695,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -4754,7 +4703,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4768,7 +4717,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -4778,13 +4727,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -4792,24 +4741,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -4817,382 +4766,176 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="C22" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B29" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="189" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B38" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="108" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="108" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>90</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -5220,10 +4963,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5231,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5247,7 +4990,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -5255,7 +4998,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5266,12 +5009,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="216" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -5279,7 +5022,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -5290,7 +5033,7 @@
     </row>
     <row r="10" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -5321,7 +5064,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5345,7 +5088,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -5373,7 +5116,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5381,13 +5124,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5395,24 +5138,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5420,13 +5163,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5434,13 +5177,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5454,18 +5197,18 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5473,13 +5216,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -5493,7 +5236,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -5507,7 +5250,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -5515,134 +5258,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -5650,13 +5393,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5711,7 +5454,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -5719,7 +5462,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5733,13 +5476,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -5747,13 +5490,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -5761,13 +5504,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -5775,13 +5518,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5789,24 +5532,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" t="s">
         <v>214</v>
-      </c>
-      <c r="C12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -5814,24 +5557,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -5886,17 +5629,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -5904,7 +5647,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -5918,7 +5661,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -5974,7 +5717,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6011,7 +5754,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -6019,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -6035,7 +5778,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -6043,7 +5786,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6054,18 +5797,18 @@
     </row>
     <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -6073,13 +5816,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -6110,7 +5853,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -6118,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -6134,20 +5877,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -6155,37 +5898,37 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6193,18 +5936,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -6320,7 +6063,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -6328,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -6344,7 +6087,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -6352,7 +6095,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6363,12 +6106,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -6376,13 +6119,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -6390,18 +6133,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" t="s">
         <v>284</v>
-      </c>
-      <c r="D10" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6409,53 +6152,53 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6463,13 +6206,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -6483,7 +6226,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -6491,13 +6234,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -6505,13 +6248,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6519,13 +6262,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6533,18 +6276,18 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6552,7 +6295,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -6566,7 +6309,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -6580,7 +6323,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -6594,7 +6337,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -6608,7 +6351,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -6622,7 +6365,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -6636,7 +6379,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -6650,7 +6393,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -6664,7 +6407,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -6678,7 +6421,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -6692,13 +6435,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -6706,7 +6449,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -6742,7 +6485,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -6750,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -6766,7 +6509,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -6774,7 +6517,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6793,7 +6536,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6807,7 +6550,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -6821,13 +6564,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6835,24 +6578,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
@@ -6860,23 +6603,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -6884,7 +6627,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -6898,7 +6641,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -6909,10 +6652,10 @@
     </row>
     <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -6920,7 +6663,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -6934,7 +6677,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -6995,7 +6738,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.15">
@@ -7003,7 +6746,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7097,21 +6840,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -7119,13 +6862,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -7161,7 +6904,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -7236,7 +6979,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -7317,7 +7060,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -7325,13 +7068,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>80</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="189" x14ac:dyDescent="0.15">
@@ -7339,13 +7082,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -7353,7 +7096,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -7364,13 +7107,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="81" x14ac:dyDescent="0.15">
@@ -7378,13 +7121,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -7392,15 +7135,15 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -7408,7 +7151,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -7422,13 +7165,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -7436,13 +7179,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="108" x14ac:dyDescent="0.15">
@@ -7450,13 +7193,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
@@ -7464,13 +7207,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AB2A75-1F37-4346-A6B3-4DCDB1ACCA69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A3AD4D-04FE-4166-AD20-3DF1D89F79F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="ch5" sheetId="5" r:id="rId7"/>
     <sheet name="ch6" sheetId="6" r:id="rId8"/>
     <sheet name="ch7" sheetId="7" r:id="rId9"/>
-    <sheet name="ch8" sheetId="16" r:id="rId10"/>
-    <sheet name="ch9" sheetId="8" r:id="rId11"/>
+    <sheet name="ch8" sheetId="8" r:id="rId10"/>
+    <sheet name="ch9" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -3104,13 +3104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Microsoft Teamsの確認</t>
-    <rPh sb="16" eb="18">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>広島大学でのオンライン授業(同時双方向のもの、また、チャットによる質問相談など)は、主にMicrosoft Teamsを使って行っています。この動作を確認しましょう。履修登録以前に実際に作業できることは限られていますので、必要に応じて参照してください。
 オンライン授業のソフトウェアとしては、Teamsの他にZoomや、YouTube Liveなどもあり、たとえばZoomで行われている授業をTeamsで受講する、といったことはできません。Teams以外を用いる授業の場合は、教員が先に説明する筈ですので、環境設定などは教員の指示を参考にしてください。</t>
     <rPh sb="0" eb="2">
@@ -4160,10 +4153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2021 macOS chap.8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>以下は付録としての情報です。</t>
     <rPh sb="0" eb="2">
       <t>イカ</t>
@@ -4188,6 +4177,20 @@
   </si>
   <si>
     <t>launchpad-teams.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(付録A)Microsoft Teamsの確認</t>
+    <rPh sb="1" eb="3">
+      <t>フロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 macOS appendix A</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4651,301 +4654,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A14737B-27B4-430E-A2C9-8E4453FC8EAA}">
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C20" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B23" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B27" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -5034,6 +4742,301 @@
     <row r="10" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A14737B-27B4-430E-A2C9-8E4453FC8EAA}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A3AD4D-04FE-4166-AD20-3DF1D89F79F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7D6A60-91F0-400F-8105-69E5B701CF54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -503,60 +503,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この章では、Wi-Fiで広島大学の学内ネットワークに接続するための設定を行います。
-この章の作業はあなたが広島大学の中にいるときに行ってください。
-自宅などにいてWi-Fiを利用したインターネット接続環境がある場合は、そのWi-Fiを利用する接続設定をしてから次の章へ進み、この章の学内ネットワークへの接続設定は後日行ってください。</t>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガクナイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>ゴジツ</t>
-    </rPh>
-    <rPh sb="158" eb="159">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">広島大学では、図書館、講義室、福利施設など学内の多くの共用スペースで、「HiNET Wi-Fi」が利用できます。ここでは、HiNET Wi-Fiを通して、あなたのPCで学内ネットワークとインターネットを利用できるようにする方法を説明します。一度設定すると、次回からは（同じエリアでは）設定不要です。
 右の図では、どのエリアでどんな名前のアクセスポイントが使われているかを示します。
  </t>
@@ -1125,69 +1071,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;strong&gt;新型コロナウィルス対策のため、この章の作業は後回しにしていただいてかまいません。来校して時間の余裕のあるときに行ってください。&lt;/strong&gt;
-&lt;p class="spl"&gt;※学生証に書かれている学生番号と、学生証と一緒にもらえる「広大パスワード」が必要です。&lt;/p&gt;</t>
-    <rPh sb="8" eb="10">
-      <t>シンガタ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ライコウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヨユウ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="97" eb="100">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="113" eb="116">
-      <t>ガクセイショウ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>イッショ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>広島大学必携PC初期講習会（自習形式）</t>
-    <rPh sb="14" eb="16">
-      <t>ジシュウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケイシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-2-41.svg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4191,6 +4074,103 @@
   </si>
   <si>
     <t>FRESTA-TEXT-2021 macOS appendix A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島大学必携PC初期講習会（自宅ネットワークなし自習形式）</t>
+    <rPh sb="14" eb="16">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この章では、Wi-Fiで広島大学の学内ネットワークに接続するための設定を行います。この章以降はネットワーク接続が必要なので、あなたが広島大学の中にいるときに行ってください。
+自宅などにいてWi-Fiを利用したインターネット接続環境がある場合は、「自宅ネットワークでの自習形式」のテキストを参照してください。</t>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガクナイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;p class="spl"&gt;※学生番号と、一緒に入手した「広大パスワード」が必要です。&lt;/p&gt;</t>
+    <rPh sb="16" eb="18">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4582,27 +4562,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4610,7 +4590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4618,12 +4598,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4632,7 +4612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4661,23 +4641,23 @@
       <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4685,7 +4665,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4693,7 +4673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4701,7 +4681,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4715,17 +4695,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="216" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -4739,7 +4719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>97</v>
       </c>
@@ -4755,35 +4735,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A14737B-27B4-430E-A2C9-8E4453FC8EAA}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4791,20 +4771,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4813,230 +4793,230 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C20" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -5054,23 +5034,23 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="84.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="84.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5078,7 +5058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5086,15 +5066,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5108,7 +5088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5119,77 +5099,77 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5200,35 +5180,35 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -5239,10 +5219,10 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5253,156 +5233,156 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B22" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5420,15 +5400,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5436,7 +5416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5444,7 +5424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5452,20 +5432,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5474,110 +5454,110 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -5595,15 +5575,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5611,7 +5591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5619,7 +5599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5627,30 +5607,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -5659,12 +5639,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -5673,7 +5653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5687,7 +5667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -5701,7 +5681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -5715,12 +5695,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5744,31 +5724,31 @@
       <selection activeCell="A10" sqref="A10:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5776,7 +5756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5784,12 +5764,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5798,34 +5778,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5843,31 +5823,31 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5875,165 +5855,165 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>273</v>
       </c>
-      <c r="D7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -6053,31 +6033,31 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6085,20 +6065,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6107,118 +6087,118 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="D13" t="s">
         <v>245</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
+      <c r="D14" t="s">
         <v>247</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B14" s="1" t="s">
+      <c r="D15" t="s">
         <v>249</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="s">
+      <c r="D17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>254</v>
       </c>
-      <c r="D16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -6229,71 +6209,71 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>260</v>
       </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -6307,7 +6287,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -6321,7 +6301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -6335,7 +6315,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -6349,7 +6329,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -6363,7 +6343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -6377,7 +6357,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -6391,7 +6371,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -6405,12 +6385,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -6419,12 +6399,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -6433,7 +6413,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -6447,7 +6427,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -6475,31 +6455,31 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6507,20 +6487,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6529,12 +6509,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -6548,7 +6528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -6562,70 +6542,70 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -6639,12 +6619,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -6653,20 +6633,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D18" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -6675,12 +6655,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -6704,15 +6684,15 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -6720,7 +6700,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6728,7 +6708,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6736,15 +6716,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -6758,12 +6738,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -6777,7 +6757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -6791,7 +6771,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -6805,12 +6785,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -6824,7 +6804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -6838,29 +6818,29 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -6871,10 +6851,10 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -6888,7 +6868,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -6902,12 +6882,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -6916,7 +6896,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -6930,7 +6910,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -6944,12 +6924,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -6963,7 +6943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -6977,12 +6957,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -6991,7 +6971,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -7005,12 +6985,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -7024,7 +7004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -7038,7 +7018,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -7052,7 +7032,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -7063,10 +7043,10 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -7080,12 +7060,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="189" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -7094,62 +7074,62 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
         <v>151</v>
       </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" t="s">
         <v>156</v>
       </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -7163,7 +7143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -7177,7 +7157,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -7191,7 +7171,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -7205,7 +7185,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7D6A60-91F0-400F-8105-69E5B701CF54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B45EF-AA46-493F-8B70-BF328DACFF88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="325">
   <si>
     <t>header1</t>
   </si>
@@ -646,10 +646,6 @@
     <rPh sb="65" eb="67">
       <t>デンゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Mac chap.6</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2176,82 +2172,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この章では広島大学が包括ライセンスで提供しているウィルス対策ソフトESETのインストール手順を示しますが、2021/03/04現在、Mac OS 11.0 - 11.1に暫定対応、Mac OS X 11.2以降は未対応となっております。お使いのMacのOSが既に11.2以降である場合の対応は変化があり次第&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/"&gt;https://mslicense.office.hiroshima-u.ac.jp/&lt;/a&gt;にてお知らせ致しますので、そちらを随時ご参照ください。</t>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ホウカツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ザンテイ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="106" eb="109">
-      <t>ミタイオウ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="146" eb="148">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>シダイ</t>
-    </rPh>
-    <rPh sb="257" eb="258">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="260" eb="261">
-      <t>イタ</t>
-    </rPh>
-    <rPh sb="271" eb="273">
-      <t>ズイジ</t>
-    </rPh>
-    <rPh sb="274" eb="276">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">「検査プロファイル」として「詳細検査」を、「検査対象」として「Macintosh HD」を選んでください。Macintosh HDは、Macに内蔵されている副記憶装置(HDDもしくはSSD）を指します。「検査」をクリックすると、フルスキャンが始まります。&lt;span class="check"&gt;check-7&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
 フルスキャンの実行には数時間かかりますので、時間の余裕のあるときにできるだけ早く実行し、点検届を完成させてください。
@@ -2327,154 +2247,6 @@
   </si>
   <si>
     <t>FRESTA-TEXT-2020 Mac chap.7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「Macを自動的に最新の状態に保つ」をチェックできるウィンドウがでてきます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>もしかするとすぐに「このMac用のアップデートがあります」と表示されて「今すぐ再起動」というボタンが出るかもしれませんが、これを押さず、「詳細」をクリックします。「詳しい情報」ではないのでご注意ください。</t>
-    <rPh sb="15" eb="16">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>サイキドウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自動的に行う操作を「アップデートを確認」「新しいアップデートがある場合はダウンロード」「App Storeからのアプリケーションアップデートをインストール」「システムデータファイルとセキュリティアップデートをインストール」をチェックしますが、macOSのバージョンが11以降の方は、「macOSアップデートをインストール」はチェックを外します。&lt;span class="check"&gt;check-4&lt;span&gt; &lt;/span&gt;
-&lt;/span&gt;
- macOS 11以降は、高い頻度でmacOSが更新されますが、ソフトウェアの互換性が不十分でウィルス対策ソフトの入れ直しなどが必要になる場合があります。ウィルス対策ソフトとの相性に関しては&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/"&gt;https://mslicense.office.hiroshima-u.ac.jp/&lt;/a&gt;にてお知らせ致しますので、そちらを随時ご参照ください。</t>
-    <rPh sb="0" eb="3">
-      <t>ジドウテキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="167" eb="168">
-      <t>ハズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch6-SoftwareUpdateNowChecking.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch6-SoftwareUpdateFoundUpdate.png</t>
-  </si>
-  <si>
-    <t>「詳細」のダイヤログでは、自動更新をどのように行うかを設定できます。もしかすると全くチェックが入っていないかもしれませんし、全てチェックされているかもしれません。</t>
-    <rPh sb="1" eb="3">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>マッタ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>スベ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch6-SoftwareUpdateConfigDetail.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch6-SoftwareUpdateConfigDisableOSUpdate.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ソフトウェアの自動更新は基本的には推奨される機能ですが、macOS 11以降ではウィルス対策ソフトの関係で調整が必要です。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。 </t>
-    <rPh sb="7" eb="9">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>スイショウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ヒツヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2797,19 +2569,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この章では広島大学が包括ライセンスで提供しているウィルス対策ソフトESETのインストール手順を示しますが、2021/03/04現在、Mac OS 11.0 - 11.1に暫定対応、Mac OS X 11.2以降は未対応となっております。お使いのMacのOSが既に11.2以降である場合の対応は変化があり次第&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/"&gt;https://mslicense.office.hiroshima-u.ac.jp/&lt;/a&gt;にてお知らせ致しますので、そちらを随時ご参照ください。
-以下のサイト「ウィルス対策ソフトのインストール手順」をブラウザで開き、説明に従ってください。
-開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生番号と一緒にもらっていると思います）を入力してください。
-&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html&lt;/a&gt;</t>
-    <rPh sb="370" eb="372">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="383" eb="384">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">ダウンロードされたpkgファイルをクリックすると、インストーラが立ち上がります。 沢山ダウンロードしたファイルがあって不安な場合は、右クリックしてダウンロードフォルダを開いて日付を確認しましょう。 </t>
     <rPh sb="41" eb="43">
       <t>タクサン</t>
@@ -2850,51 +2609,6 @@
   </si>
   <si>
     <t>download-eset-links.png</t>
-  </si>
-  <si>
-    <t>この後の手順はmacOSのバージョンに加え、CPUのタイプ(Intelか、M1か)によって異なるため、ダウンロードしたサイトにあるインストールマニュアルに従ってください。</t>
-    <rPh sb="2" eb="3">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>シタガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下のほうにある「ESET Endpoint Antivirus for Mac」から適切なほうを選びダウンロードします。ここでダウンロードするパッケージは、IntelとM1で共通ですが、Big　Sur未満か、Big Sur以降かで異なりますので、注意してください。
-&lt;p class="spl"&gt;※ このページの「インストールマニュアル」をクリックすると、インストール手順を書いたマニュアルが表示されます。できればこのマニュアルを別ウィンドウで表示したままにしておくと、あとの作業がやりやすいでしょう。&lt;/p&gt;</t>
-    <rPh sb="42" eb="44">
-      <t>テキセツ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ミマン</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Office365へ広島大学のアカウントでサインインするため、まず広島大学側のポータルサイト&lt;a href="https://www.media.hiroshima-u.ac.jp/services/webmail-portal/"&gt;https://www.media.hiroshima-u.ac.jp/services/webmail-portal/&lt;/a&gt;に行きます。このような画面になりますので、portal.office.comへのリンクをクリックします。</t>
@@ -4170,6 +3884,358 @@
     </rPh>
     <rPh sb="39" eb="41">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この章では広島大学が包括ライセンスで提供しているウィルス対策ソフトESETのインストール手順を示しますが、2021/03/04現在、macOS 11以降のバージョンには正式対応しておりません。対応は変化があり次第&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/"&gt;https://mslicense.office.hiroshima-u.ac.jp/&lt;/a&gt;にてお知らせ致しますが、正式対応までお待ちいただくか、macOS 11以降に正式対応している市販のウィルス対策ソフトを別途手配いただき、それによってウィルス対策をしてください。もし広島大学が提供するウィルス対策ソフトの提供を待ち、ウィルス対策ソフトなしの状態で使用する場合、点検報告書には「macOS11以降のため、ウィルス対策ソフトの提供待ち」にチェックを入れてください。後日、自己点検報告書の内容に基づき、ご連絡を差し上げる場合があります。</t>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウカツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>セイシキ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="210" eb="211">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="213" eb="214">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>セイシキ</t>
+    </rPh>
+    <rPh sb="221" eb="223">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>セイシキ</t>
+    </rPh>
+    <rPh sb="247" eb="249">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="253" eb="255">
+      <t>シハン</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="266" eb="268">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="268" eb="270">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="285" eb="287">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="297" eb="299">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="299" eb="301">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="302" eb="304">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="310" eb="312">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="316" eb="318">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="319" eb="320">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="326" eb="328">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="334" eb="336">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="337" eb="339">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="341" eb="343">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="344" eb="346">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="346" eb="349">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="359" eb="361">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="369" eb="371">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="375" eb="377">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="377" eb="378">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="386" eb="387">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="394" eb="396">
+      <t>ゴジツ</t>
+    </rPh>
+    <rPh sb="397" eb="399">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="399" eb="401">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="401" eb="404">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="405" eb="407">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="408" eb="409">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="413" eb="415">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="416" eb="417">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="418" eb="419">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="421" eb="423">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>macOS 10以前の方は、以下のサイト「ウィルス対策ソフトのインストール手順」をブラウザで開き、説明に従ってください。
+開く際にID,パスワードを要求されたら、広大ID（学生番号）と広大パスワード（学生番号と一緒にもらっていると思います）を入力してください。
+&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html"&gt;https://mslicense.office.hiroshima-u.ac.jp/sw-room/ms/endpoint.html&lt;/a&gt;</t>
+    <rPh sb="8" eb="10">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下のほうにある「ESET Endpoint Antivirus for Mac」からダウンロードします。マニュアルはmacOS 10.15までの正式対応版と、11.1までの暫定対応の2つがありますが、ダウンロードするものは同一です。マニュアルは暫定対応でないものを参照ください。
+&lt;p class="spl"&gt;※ このページの「インストールマニュアル」をクリックすると、インストール手順を書いたマニュアルが表示されます。できればこのマニュアルを別ウィンドウで表示したままにしておくと、あとの作業がやりやすいでしょう。&lt;/p&gt;</t>
+    <rPh sb="72" eb="74">
+      <t>セイシキ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ザンテイ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ザンテイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この後の手順はインストールマニュアルに従ってください。</t>
+    <rPh sb="2" eb="3">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトウェアが自動更新されるように設定しましょう。またウィルス対策ソフトもアップデートが必要な場合があります。</t>
+    <rPh sb="7" eb="9">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Mac chap.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>macos-auto-update-full.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>macos-auto-update-full-detail.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「詳細」のダイヤログでは、自動更新をどのように行うかを設定できます。全てにチェックが入っていれば、可能なmacOSの最新バージョンへの更新が自動で行われます。ただし、macOS 10.xからmacOS 11.xのような一番大きい数字が変わるような更新の際は、アプリケーションが動かなくなる可能性もあるので、確認を求められます。</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="144" eb="147">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Macを自動的に最新の状態に保つ」をチェックできるウィンドウがでてきます。このMacは最新の状態です、と出ていることが望ましい状態です。</t>
+    <rPh sb="44" eb="46">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4562,7 +4628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4579,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4603,7 +4669,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4651,10 +4717,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4702,7 +4768,7 @@
     </row>
     <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4752,7 +4818,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4760,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4776,7 +4842,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4784,7 +4850,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4798,7 +4864,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4808,13 +4874,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4822,24 +4888,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4847,13 +4913,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4861,40 +4927,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4902,13 +4968,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4916,24 +4982,24 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D20" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4941,13 +5007,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4955,35 +5021,35 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4991,13 +5057,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5005,18 +5071,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -5047,7 +5113,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5071,7 +5137,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5099,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5107,13 +5173,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5121,24 +5187,24 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5146,13 +5212,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5160,13 +5226,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5180,18 +5246,18 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5199,13 +5265,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5219,7 +5285,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5233,7 +5299,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5241,134 +5307,134 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -5376,13 +5442,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5437,7 +5503,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5445,7 +5511,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5459,13 +5525,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5473,13 +5539,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5487,13 +5553,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5501,13 +5567,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5515,24 +5581,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" t="s">
         <v>210</v>
-      </c>
-      <c r="C12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5540,24 +5606,24 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -5612,17 +5678,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5644,7 +5710,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -5700,7 +5766,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5737,7 +5803,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5745,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5769,7 +5835,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5780,10 +5846,10 @@
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5791,7 +5857,7 @@
         <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5799,13 +5865,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5820,7 +5886,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5836,7 +5902,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5844,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5860,20 +5926,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5881,13 +5947,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5895,15 +5961,15 @@
         <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5911,7 +5977,7 @@
         <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5919,18 +5985,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6029,7 +6095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -6070,7 +6136,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6094,7 +6160,7 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6102,7 +6168,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -6116,10 +6182,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D10" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6127,7 +6193,7 @@
         <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6135,53 +6201,53 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D13" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D14" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D15" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6189,13 +6255,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6209,7 +6275,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6217,13 +6283,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6231,13 +6297,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6245,13 +6311,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6265,7 +6331,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -6390,7 +6456,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -6449,10 +6515,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6463,12 +6529,12 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6476,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6492,7 +6558,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6500,7 +6566,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6542,130 +6608,102 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>231</v>
+        <v>324</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>232</v>
+        <v>323</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>116</v>
+      <c r="D15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>287</v>
+        <v>226</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6721,7 +6759,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="237.6" x14ac:dyDescent="0.2">
@@ -6823,13 +6861,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6837,7 +6875,7 @@
         <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6851,7 +6889,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6887,7 +6925,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -6962,7 +7000,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -7043,7 +7081,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -7065,7 +7103,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -7079,7 +7117,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -7090,13 +7128,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -7104,13 +7142,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -7118,10 +7156,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">

--- a/macs.xlsx
+++ b/macs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B45EF-AA46-493F-8B70-BF328DACFF88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCB0E48-2568-4555-B691-F0CA2DF09D72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="772" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -3888,175 +3888,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この章では広島大学が包括ライセンスで提供しているウィルス対策ソフトESETのインストール手順を示しますが、2021/03/04現在、macOS 11以降のバージョンには正式対応しておりません。対応は変化があり次第&lt;a href="https://mslicense.office.hiroshima-u.ac.jp/"&gt;https://mslicense.office.hiroshima-u.ac.jp/&lt;/a&gt;にてお知らせ致しますが、正式対応までお待ちいただくか、macOS 11以降に正式対応している市販のウィルス対策ソフトを別途手配いただき、それによってウィルス対策をしてください。もし広島大学が提供するウィルス対策ソフトの提供を待ち、ウィルス対策ソフトなしの状態で使用する場合、点検報告書には「macOS11以降のため、ウィルス対策ソフトの提供待ち」にチェックを入れてください。後日、自己点検報告書の内容に基づき、ご連絡を差し上げる場合があります。</t>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ホウカツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>セイシキ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>シダイ</t>
-    </rPh>
-    <rPh sb="210" eb="211">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="213" eb="214">
-      <t>イタ</t>
-    </rPh>
-    <rPh sb="219" eb="221">
-      <t>セイシキ</t>
-    </rPh>
-    <rPh sb="221" eb="223">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="226" eb="227">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="242" eb="244">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="245" eb="247">
-      <t>セイシキ</t>
-    </rPh>
-    <rPh sb="247" eb="249">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="253" eb="255">
-      <t>シハン</t>
-    </rPh>
-    <rPh sb="260" eb="262">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="266" eb="268">
-      <t>ベット</t>
-    </rPh>
-    <rPh sb="268" eb="270">
-      <t>テハイ</t>
-    </rPh>
-    <rPh sb="285" eb="287">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="297" eb="299">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="299" eb="301">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="302" eb="304">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="310" eb="312">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="316" eb="318">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="319" eb="320">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="326" eb="328">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="334" eb="336">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="337" eb="339">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="341" eb="343">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="344" eb="346">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="346" eb="349">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="359" eb="361">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="369" eb="371">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="375" eb="377">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="377" eb="378">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="386" eb="387">
-      <t>イ</t>
-    